--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FC1136-925C-4F6B-85C7-231570019FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6767AD94-94EA-4592-968F-9853160D5952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,10 +828,10 @@
         <v>43910</v>
       </c>
       <c r="B35">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="C35">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
         <v>43911</v>
       </c>
       <c r="B36">
-        <v>5458</v>
+        <v>5459</v>
       </c>
       <c r="C36">
         <v>1060</v>
@@ -850,10 +850,10 @@
         <v>43912</v>
       </c>
       <c r="B37">
-        <v>6060</v>
+        <v>6065</v>
       </c>
       <c r="C37">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,10 +861,10 @@
         <v>43913</v>
       </c>
       <c r="B38">
-        <v>6735</v>
+        <v>6743</v>
       </c>
       <c r="C38">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,10 +872,10 @@
         <v>43914</v>
       </c>
       <c r="B39">
-        <v>7870</v>
+        <v>7877</v>
       </c>
       <c r="C39">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,10 +883,10 @@
         <v>43915</v>
       </c>
       <c r="B40">
-        <v>9472</v>
+        <v>9482</v>
       </c>
       <c r="C40">
-        <v>1602</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,7 +894,7 @@
         <v>43916</v>
       </c>
       <c r="B41">
-        <v>11092</v>
+        <v>11102</v>
       </c>
       <c r="C41">
         <v>1620</v>
@@ -905,10 +905,10 @@
         <v>43917</v>
       </c>
       <c r="B42">
-        <v>12845</v>
+        <v>12859</v>
       </c>
       <c r="C42">
-        <v>1753</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,10 +916,10 @@
         <v>43918</v>
       </c>
       <c r="B43">
-        <v>14286</v>
+        <v>14307</v>
       </c>
       <c r="C43">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,10 +927,10 @@
         <v>43919</v>
       </c>
       <c r="B44">
-        <v>15122</v>
+        <v>15158</v>
       </c>
       <c r="C44">
-        <v>836</v>
+        <v>851</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,10 +938,10 @@
         <v>43920</v>
       </c>
       <c r="B45">
-        <v>16085</v>
+        <v>16138</v>
       </c>
       <c r="C45">
-        <v>963</v>
+        <v>980</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,10 +949,10 @@
         <v>43921</v>
       </c>
       <c r="B46">
-        <v>17589</v>
+        <v>17750</v>
       </c>
       <c r="C46">
-        <v>1504</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>43922</v>
       </c>
       <c r="B47">
-        <v>19081</v>
+        <v>19451</v>
       </c>
       <c r="C47">
-        <v>1492</v>
+        <v>1701</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6767AD94-94EA-4592-968F-9853160D5952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635F6CBB-5828-4617-90BE-7CF5E8BF42E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -784,10 +784,10 @@
         <v>43906</v>
       </c>
       <c r="B31">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="C31">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,10 +795,10 @@
         <v>43907</v>
       </c>
       <c r="B32">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="C32">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
         <v>43908</v>
       </c>
       <c r="B33">
-        <v>2709</v>
+        <v>2711</v>
       </c>
       <c r="C33">
         <v>717</v>
@@ -817,10 +817,10 @@
         <v>43909</v>
       </c>
       <c r="B34">
-        <v>3493</v>
+        <v>3496</v>
       </c>
       <c r="C34">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,10 +828,10 @@
         <v>43910</v>
       </c>
       <c r="B35">
-        <v>4399</v>
+        <v>4403</v>
       </c>
       <c r="C35">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,10 +839,10 @@
         <v>43911</v>
       </c>
       <c r="B36">
-        <v>5459</v>
+        <v>5462</v>
       </c>
       <c r="C36">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>43912</v>
       </c>
       <c r="B37">
-        <v>6065</v>
+        <v>6068</v>
       </c>
       <c r="C37">
         <v>606</v>
@@ -861,10 +861,10 @@
         <v>43913</v>
       </c>
       <c r="B38">
-        <v>6743</v>
+        <v>6749</v>
       </c>
       <c r="C38">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,10 +872,10 @@
         <v>43914</v>
       </c>
       <c r="B39">
-        <v>7877</v>
+        <v>7885</v>
       </c>
       <c r="C39">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,10 +883,10 @@
         <v>43915</v>
       </c>
       <c r="B40">
-        <v>9482</v>
+        <v>9494</v>
       </c>
       <c r="C40">
-        <v>1605</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,10 +894,10 @@
         <v>43916</v>
       </c>
       <c r="B41">
-        <v>11102</v>
+        <v>11118</v>
       </c>
       <c r="C41">
-        <v>1620</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,10 +905,10 @@
         <v>43917</v>
       </c>
       <c r="B42">
-        <v>12859</v>
+        <v>12879</v>
       </c>
       <c r="C42">
-        <v>1757</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,7 +916,7 @@
         <v>43918</v>
       </c>
       <c r="B43">
-        <v>14307</v>
+        <v>14327</v>
       </c>
       <c r="C43">
         <v>1448</v>
@@ -927,10 +927,10 @@
         <v>43919</v>
       </c>
       <c r="B44">
-        <v>15158</v>
+        <v>15183</v>
       </c>
       <c r="C44">
-        <v>851</v>
+        <v>856</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,10 +938,10 @@
         <v>43920</v>
       </c>
       <c r="B45">
-        <v>16138</v>
+        <v>16172</v>
       </c>
       <c r="C45">
-        <v>980</v>
+        <v>989</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,10 +949,10 @@
         <v>43921</v>
       </c>
       <c r="B46">
-        <v>17750</v>
+        <v>17908</v>
       </c>
       <c r="C46">
-        <v>1612</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,10 +960,21 @@
         <v>43922</v>
       </c>
       <c r="B47">
-        <v>19451</v>
+        <v>19782</v>
       </c>
       <c r="C47">
-        <v>1701</v>
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B48">
+        <v>21614</v>
+      </c>
+      <c r="C48">
+        <v>1832</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635F6CBB-5828-4617-90BE-7CF5E8BF42E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127D3E48-7D5D-4F74-9067-75BAB10CDDD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,9 +436,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -773,10 +773,10 @@
         <v>43905</v>
       </c>
       <c r="B30">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C30">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>1526</v>
       </c>
       <c r="C31">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,10 +839,10 @@
         <v>43911</v>
       </c>
       <c r="B36">
-        <v>5462</v>
+        <v>5463</v>
       </c>
       <c r="C36">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>43912</v>
       </c>
       <c r="B37">
-        <v>6068</v>
+        <v>6069</v>
       </c>
       <c r="C37">
         <v>606</v>
@@ -861,10 +861,10 @@
         <v>43913</v>
       </c>
       <c r="B38">
-        <v>6749</v>
+        <v>6751</v>
       </c>
       <c r="C38">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,7 +872,7 @@
         <v>43914</v>
       </c>
       <c r="B39">
-        <v>7885</v>
+        <v>7887</v>
       </c>
       <c r="C39">
         <v>1136</v>
@@ -883,10 +883,10 @@
         <v>43915</v>
       </c>
       <c r="B40">
-        <v>9494</v>
+        <v>9497</v>
       </c>
       <c r="C40">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,10 +894,10 @@
         <v>43916</v>
       </c>
       <c r="B41">
-        <v>11118</v>
+        <v>11122</v>
       </c>
       <c r="C41">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
         <v>43917</v>
       </c>
       <c r="B42">
-        <v>12879</v>
+        <v>12883</v>
       </c>
       <c r="C42">
         <v>1761</v>
@@ -916,7 +916,7 @@
         <v>43918</v>
       </c>
       <c r="B43">
-        <v>14327</v>
+        <v>14331</v>
       </c>
       <c r="C43">
         <v>1448</v>
@@ -927,10 +927,10 @@
         <v>43919</v>
       </c>
       <c r="B44">
-        <v>15183</v>
+        <v>15190</v>
       </c>
       <c r="C44">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,10 +938,10 @@
         <v>43920</v>
       </c>
       <c r="B45">
-        <v>16172</v>
+        <v>16180</v>
       </c>
       <c r="C45">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,10 +949,10 @@
         <v>43921</v>
       </c>
       <c r="B46">
-        <v>17908</v>
+        <v>17923</v>
       </c>
       <c r="C46">
-        <v>1736</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>43922</v>
       </c>
       <c r="B47">
-        <v>19782</v>
+        <v>19816</v>
       </c>
       <c r="C47">
-        <v>1874</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,10 +971,43 @@
         <v>43923</v>
       </c>
       <c r="B48">
-        <v>21614</v>
+        <v>21687</v>
       </c>
       <c r="C48">
-        <v>1832</v>
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B49">
+        <v>23377</v>
+      </c>
+      <c r="C49">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B50">
+        <v>24345</v>
+      </c>
+      <c r="C50">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B51">
+        <v>24350</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127D3E48-7D5D-4F74-9067-75BAB10CDDD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200D659E-CA71-4737-A2DD-19C9FBB08B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,9 +436,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -509,10 +509,10 @@
         <v>43865</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -520,7 +520,7 @@
         <v>43866</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -531,7 +531,7 @@
         <v>43867</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -542,7 +542,7 @@
         <v>43868</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -553,7 +553,7 @@
         <v>43872</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -564,7 +564,7 @@
         <v>43873</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -575,7 +575,7 @@
         <v>43885</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -586,7 +586,7 @@
         <v>43888</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -597,7 +597,7 @@
         <v>43889</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -608,7 +608,7 @@
         <v>43890</v>
       </c>
       <c r="B15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -619,7 +619,7 @@
         <v>43891</v>
       </c>
       <c r="B16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -630,7 +630,7 @@
         <v>43892</v>
       </c>
       <c r="B17">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -641,7 +641,7 @@
         <v>43893</v>
       </c>
       <c r="B18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -652,7 +652,7 @@
         <v>43894</v>
       </c>
       <c r="B19">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -663,7 +663,7 @@
         <v>43895</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20">
         <v>22</v>
@@ -674,7 +674,7 @@
         <v>43896</v>
       </c>
       <c r="B21">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C21">
         <v>52</v>
@@ -685,7 +685,7 @@
         <v>43897</v>
       </c>
       <c r="B22">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C22">
         <v>19</v>
@@ -696,7 +696,7 @@
         <v>43898</v>
       </c>
       <c r="B23">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C23">
         <v>18</v>
@@ -707,7 +707,7 @@
         <v>43899</v>
       </c>
       <c r="B24">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C24">
         <v>82</v>
@@ -718,7 +718,7 @@
         <v>43900</v>
       </c>
       <c r="B25">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C25">
         <v>106</v>
@@ -729,7 +729,7 @@
         <v>43901</v>
       </c>
       <c r="B26">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C26">
         <v>116</v>
@@ -740,7 +740,7 @@
         <v>43902</v>
       </c>
       <c r="B27">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C27">
         <v>130</v>
@@ -754,7 +754,7 @@
         <v>853</v>
       </c>
       <c r="C28">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,10 +817,10 @@
         <v>43909</v>
       </c>
       <c r="B34">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="C34">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,10 +828,10 @@
         <v>43910</v>
       </c>
       <c r="B35">
-        <v>4403</v>
+        <v>4406</v>
       </c>
       <c r="C35">
-        <v>907</v>
+        <v>911</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,10 +839,10 @@
         <v>43911</v>
       </c>
       <c r="B36">
-        <v>5463</v>
+        <v>5469</v>
       </c>
       <c r="C36">
-        <v>1060</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,10 +850,10 @@
         <v>43912</v>
       </c>
       <c r="B37">
-        <v>6069</v>
+        <v>6076</v>
       </c>
       <c r="C37">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,10 +861,10 @@
         <v>43913</v>
       </c>
       <c r="B38">
-        <v>6751</v>
+        <v>6760</v>
       </c>
       <c r="C38">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,10 +872,10 @@
         <v>43914</v>
       </c>
       <c r="B39">
-        <v>7887</v>
+        <v>7899</v>
       </c>
       <c r="C39">
-        <v>1136</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,10 +883,10 @@
         <v>43915</v>
       </c>
       <c r="B40">
-        <v>9497</v>
+        <v>9514</v>
       </c>
       <c r="C40">
-        <v>1610</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,10 +894,10 @@
         <v>43916</v>
       </c>
       <c r="B41">
-        <v>11122</v>
+        <v>11143</v>
       </c>
       <c r="C41">
-        <v>1625</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,10 +905,10 @@
         <v>43917</v>
       </c>
       <c r="B42">
-        <v>12883</v>
+        <v>12913</v>
       </c>
       <c r="C42">
-        <v>1761</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,10 +916,10 @@
         <v>43918</v>
       </c>
       <c r="B43">
-        <v>14331</v>
+        <v>14365</v>
       </c>
       <c r="C43">
-        <v>1448</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,10 +927,10 @@
         <v>43919</v>
       </c>
       <c r="B44">
-        <v>15190</v>
+        <v>15225</v>
       </c>
       <c r="C44">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,10 +938,10 @@
         <v>43920</v>
       </c>
       <c r="B45">
-        <v>16180</v>
+        <v>16218</v>
       </c>
       <c r="C45">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,10 +949,10 @@
         <v>43921</v>
       </c>
       <c r="B46">
-        <v>17923</v>
+        <v>17972</v>
       </c>
       <c r="C46">
-        <v>1743</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>43922</v>
       </c>
       <c r="B47">
-        <v>19816</v>
+        <v>19898</v>
       </c>
       <c r="C47">
-        <v>1893</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,10 +971,10 @@
         <v>43923</v>
       </c>
       <c r="B48">
-        <v>21687</v>
+        <v>21822</v>
       </c>
       <c r="C48">
-        <v>1871</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -982,10 +982,10 @@
         <v>43924</v>
       </c>
       <c r="B49">
-        <v>23377</v>
+        <v>23709</v>
       </c>
       <c r="C49">
-        <v>1690</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -993,10 +993,10 @@
         <v>43925</v>
       </c>
       <c r="B50">
-        <v>24345</v>
+        <v>25118</v>
       </c>
       <c r="C50">
-        <v>968</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1004,10 +1004,32 @@
         <v>43926</v>
       </c>
       <c r="B51">
-        <v>24350</v>
+        <v>25763</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B52">
+        <v>26532</v>
+      </c>
+      <c r="C52">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B53">
+        <v>26567</v>
+      </c>
+      <c r="C53">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD359F74-5C5F-49C6-B16C-BF6E0BD7CEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -28,11 +34,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,15 +100,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -144,7 +158,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,9 +190,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,6 +242,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,14 +435,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -403,7 +460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43858</v>
       </c>
@@ -414,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43859</v>
       </c>
@@ -425,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43861</v>
       </c>
@@ -436,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43864</v>
       </c>
@@ -447,7 +504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43865</v>
       </c>
@@ -458,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43866</v>
       </c>
@@ -469,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43867</v>
       </c>
@@ -480,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43868</v>
       </c>
@@ -491,7 +548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43872</v>
       </c>
@@ -502,7 +559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43873</v>
       </c>
@@ -513,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43885</v>
       </c>
@@ -524,7 +581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43888</v>
       </c>
@@ -535,7 +592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43889</v>
       </c>
@@ -546,7 +603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43890</v>
       </c>
@@ -557,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43891</v>
       </c>
@@ -568,7 +625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43892</v>
       </c>
@@ -579,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43893</v>
       </c>
@@ -590,7 +647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43894</v>
       </c>
@@ -601,7 +658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43895</v>
       </c>
@@ -612,7 +669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43896</v>
       </c>
@@ -623,7 +680,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43897</v>
       </c>
@@ -634,7 +691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43898</v>
       </c>
@@ -645,7 +702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43899</v>
       </c>
@@ -656,7 +713,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43900</v>
       </c>
@@ -667,7 +724,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43901</v>
       </c>
@@ -678,7 +735,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43902</v>
       </c>
@@ -689,301 +746,312 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43903</v>
       </c>
       <c r="B28">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C28">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43904</v>
       </c>
       <c r="B29">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C29">
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43905</v>
       </c>
       <c r="B30">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C30">
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43906</v>
       </c>
       <c r="B31">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="C31">
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43907</v>
       </c>
       <c r="B32">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="C32">
         <v>468</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43908</v>
       </c>
       <c r="B33">
-        <v>2712</v>
+        <v>2714</v>
       </c>
       <c r="C33">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43909</v>
       </c>
       <c r="B34">
-        <v>3497</v>
+        <v>3500</v>
       </c>
       <c r="C34">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43910</v>
       </c>
       <c r="B35">
-        <v>4409</v>
+        <v>4412</v>
       </c>
       <c r="C35">
         <v>912</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43911</v>
       </c>
       <c r="B36">
-        <v>5473</v>
+        <v>5476</v>
       </c>
       <c r="C36">
         <v>1064</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43912</v>
       </c>
       <c r="B37">
-        <v>6080</v>
+        <v>6083</v>
       </c>
       <c r="C37">
         <v>607</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43913</v>
       </c>
       <c r="B38">
-        <v>6767</v>
+        <v>6771</v>
       </c>
       <c r="C38">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43914</v>
       </c>
       <c r="B39">
-        <v>7907</v>
+        <v>7911</v>
       </c>
       <c r="C39">
         <v>1140</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43915</v>
       </c>
       <c r="B40">
-        <v>9523</v>
+        <v>9529</v>
       </c>
       <c r="C40">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43916</v>
       </c>
       <c r="B41">
-        <v>11155</v>
+        <v>11161</v>
       </c>
       <c r="C41">
         <v>1632</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43917</v>
       </c>
       <c r="B42">
-        <v>12928</v>
+        <v>12935</v>
       </c>
       <c r="C42">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43918</v>
       </c>
       <c r="B43">
-        <v>14381</v>
+        <v>14392</v>
       </c>
       <c r="C43">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43919</v>
       </c>
       <c r="B44">
-        <v>15245</v>
+        <v>15256</v>
       </c>
       <c r="C44">
         <v>864</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43920</v>
       </c>
       <c r="B45">
-        <v>16241</v>
+        <v>16252</v>
       </c>
       <c r="C45">
         <v>996</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43921</v>
       </c>
       <c r="B46">
-        <v>18003</v>
+        <v>18014</v>
       </c>
       <c r="C46">
         <v>1762</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43922</v>
       </c>
       <c r="B47">
-        <v>19931</v>
+        <v>19941</v>
       </c>
       <c r="C47">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43923</v>
       </c>
       <c r="B48">
-        <v>21867</v>
+        <v>21875</v>
       </c>
       <c r="C48">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43924</v>
       </c>
       <c r="B49">
-        <v>23764</v>
+        <v>23777</v>
       </c>
       <c r="C49">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43925</v>
       </c>
       <c r="B50">
-        <v>25185</v>
+        <v>25206</v>
       </c>
       <c r="C50">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43926</v>
       </c>
       <c r="B51">
-        <v>25853</v>
+        <v>25881</v>
       </c>
       <c r="C51">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43927</v>
       </c>
       <c r="B52">
-        <v>26850</v>
+        <v>26892</v>
       </c>
       <c r="C52">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43928</v>
       </c>
       <c r="B53">
-        <v>28028</v>
+        <v>28225</v>
       </c>
       <c r="C53">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43929</v>
       </c>
       <c r="B54">
-        <v>28053</v>
+        <v>29253</v>
       </c>
       <c r="C54">
-        <v>25</v>
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B55">
+        <v>29262</v>
+      </c>
+      <c r="C55">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD359F74-5C5F-49C6-B16C-BF6E0BD7CEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A528D5F0-5BE7-4CA0-99E3-39BBA2089ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,9 +436,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -707,10 +707,10 @@
         <v>43899</v>
       </c>
       <c r="B24">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C24">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -718,7 +718,7 @@
         <v>43900</v>
       </c>
       <c r="B25">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C25">
         <v>106</v>
@@ -729,7 +729,7 @@
         <v>43901</v>
       </c>
       <c r="B26">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C26">
         <v>116</v>
@@ -740,7 +740,7 @@
         <v>43902</v>
       </c>
       <c r="B27">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C27">
         <v>130</v>
@@ -751,10 +751,10 @@
         <v>43903</v>
       </c>
       <c r="B28">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C28">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,10 +762,10 @@
         <v>43904</v>
       </c>
       <c r="B29">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="C29">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>43905</v>
       </c>
       <c r="B30">
-        <v>1258</v>
+        <v>1247</v>
       </c>
       <c r="C30">
         <v>164</v>
@@ -784,7 +784,7 @@
         <v>43906</v>
       </c>
       <c r="B31">
-        <v>1527</v>
+        <v>1516</v>
       </c>
       <c r="C31">
         <v>269</v>
@@ -795,7 +795,7 @@
         <v>43907</v>
       </c>
       <c r="B32">
-        <v>1995</v>
+        <v>1984</v>
       </c>
       <c r="C32">
         <v>468</v>
@@ -806,10 +806,10 @@
         <v>43908</v>
       </c>
       <c r="B33">
-        <v>2714</v>
+        <v>2702</v>
       </c>
       <c r="C33">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,7 +817,7 @@
         <v>43909</v>
       </c>
       <c r="B34">
-        <v>3500</v>
+        <v>3488</v>
       </c>
       <c r="C34">
         <v>786</v>
@@ -828,10 +828,10 @@
         <v>43910</v>
       </c>
       <c r="B35">
-        <v>4412</v>
+        <v>4401</v>
       </c>
       <c r="C35">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,10 +839,10 @@
         <v>43911</v>
       </c>
       <c r="B36">
-        <v>5476</v>
+        <v>5466</v>
       </c>
       <c r="C36">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,10 +850,10 @@
         <v>43912</v>
       </c>
       <c r="B37">
-        <v>6083</v>
+        <v>6074</v>
       </c>
       <c r="C37">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,10 +861,10 @@
         <v>43913</v>
       </c>
       <c r="B38">
-        <v>6771</v>
+        <v>6763</v>
       </c>
       <c r="C38">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,10 +872,10 @@
         <v>43914</v>
       </c>
       <c r="B39">
-        <v>7911</v>
+        <v>7908</v>
       </c>
       <c r="C39">
-        <v>1140</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,10 +883,10 @@
         <v>43915</v>
       </c>
       <c r="B40">
-        <v>9529</v>
+        <v>9527</v>
       </c>
       <c r="C40">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,10 +894,10 @@
         <v>43916</v>
       </c>
       <c r="B41">
-        <v>11161</v>
+        <v>11164</v>
       </c>
       <c r="C41">
-        <v>1632</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
         <v>43917</v>
       </c>
       <c r="B42">
-        <v>12935</v>
+        <v>12938</v>
       </c>
       <c r="C42">
         <v>1774</v>
@@ -916,7 +916,7 @@
         <v>43918</v>
       </c>
       <c r="B43">
-        <v>14392</v>
+        <v>14395</v>
       </c>
       <c r="C43">
         <v>1457</v>
@@ -927,10 +927,10 @@
         <v>43919</v>
       </c>
       <c r="B44">
-        <v>15256</v>
+        <v>15257</v>
       </c>
       <c r="C44">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,10 +938,10 @@
         <v>43920</v>
       </c>
       <c r="B45">
-        <v>16252</v>
+        <v>16255</v>
       </c>
       <c r="C45">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,10 +949,10 @@
         <v>43921</v>
       </c>
       <c r="B46">
-        <v>18014</v>
+        <v>18021</v>
       </c>
       <c r="C46">
-        <v>1762</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>43922</v>
       </c>
       <c r="B47">
-        <v>19941</v>
+        <v>19951</v>
       </c>
       <c r="C47">
-        <v>1927</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,10 +971,10 @@
         <v>43923</v>
       </c>
       <c r="B48">
-        <v>21875</v>
+        <v>21905</v>
       </c>
       <c r="C48">
-        <v>1934</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -982,10 +982,10 @@
         <v>43924</v>
       </c>
       <c r="B49">
-        <v>23777</v>
+        <v>23832</v>
       </c>
       <c r="C49">
-        <v>1902</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -993,10 +993,10 @@
         <v>43925</v>
       </c>
       <c r="B50">
-        <v>25206</v>
+        <v>25270</v>
       </c>
       <c r="C50">
-        <v>1429</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1004,10 +1004,10 @@
         <v>43926</v>
       </c>
       <c r="B51">
-        <v>25881</v>
+        <v>25947</v>
       </c>
       <c r="C51">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,10 +1015,10 @@
         <v>43927</v>
       </c>
       <c r="B52">
-        <v>26892</v>
+        <v>27022</v>
       </c>
       <c r="C52">
-        <v>1011</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1026,10 +1026,10 @@
         <v>43928</v>
       </c>
       <c r="B53">
-        <v>28225</v>
+        <v>28471</v>
       </c>
       <c r="C53">
-        <v>1333</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1037,10 +1037,10 @@
         <v>43929</v>
       </c>
       <c r="B54">
-        <v>29253</v>
+        <v>29902</v>
       </c>
       <c r="C54">
-        <v>1028</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1048,10 +1048,21 @@
         <v>43930</v>
       </c>
       <c r="B55">
-        <v>29262</v>
+        <v>30862</v>
       </c>
       <c r="C55">
-        <v>9</v>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B56">
+        <v>30862</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A528D5F0-5BE7-4CA0-99E3-39BBA2089ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,11 +28,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,23 +94,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -158,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,27 +176,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,24 +210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,21 +385,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -460,7 +403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>43858</v>
       </c>
@@ -471,7 +414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>43859</v>
       </c>
@@ -482,7 +425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>43861</v>
       </c>
@@ -493,7 +436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>43864</v>
       </c>
@@ -504,7 +447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>43865</v>
       </c>
@@ -515,7 +458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>43866</v>
       </c>
@@ -526,7 +469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>43867</v>
       </c>
@@ -537,7 +480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>43868</v>
       </c>
@@ -548,7 +491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>43872</v>
       </c>
@@ -559,7 +502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>43873</v>
       </c>
@@ -570,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>43885</v>
       </c>
@@ -581,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>43888</v>
       </c>
@@ -592,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>43889</v>
       </c>
@@ -603,7 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>43890</v>
       </c>
@@ -614,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>43891</v>
       </c>
@@ -625,7 +568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>43892</v>
       </c>
@@ -636,7 +579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>43893</v>
       </c>
@@ -647,7 +590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>43894</v>
       </c>
@@ -658,7 +601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>43895</v>
       </c>
@@ -669,7 +612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>43896</v>
       </c>
@@ -680,7 +623,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>43897</v>
       </c>
@@ -691,7 +634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>43898</v>
       </c>
@@ -702,7 +645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>43899</v>
       </c>
@@ -713,7 +656,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>43900</v>
       </c>
@@ -724,7 +667,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>43901</v>
       </c>
@@ -735,7 +678,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>43902</v>
       </c>
@@ -746,7 +689,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>43903</v>
       </c>
@@ -757,7 +700,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>43904</v>
       </c>
@@ -768,7 +711,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>43905</v>
       </c>
@@ -779,7 +722,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>43906</v>
       </c>
@@ -790,7 +733,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>43907</v>
       </c>
@@ -801,7 +744,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>43908</v>
       </c>
@@ -812,7 +755,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>43909</v>
       </c>
@@ -823,7 +766,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>43910</v>
       </c>
@@ -834,51 +777,51 @@
         <v>913</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>43911</v>
       </c>
       <c r="B36">
-        <v>5466</v>
+        <v>5465</v>
       </c>
       <c r="C36">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>43912</v>
       </c>
       <c r="B37">
-        <v>6074</v>
+        <v>6073</v>
       </c>
       <c r="C37">
         <v>608</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>43913</v>
       </c>
       <c r="B38">
-        <v>6763</v>
+        <v>6764</v>
       </c>
       <c r="C38">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>43914</v>
       </c>
       <c r="B39">
-        <v>7908</v>
+        <v>7909</v>
       </c>
       <c r="C39">
         <v>1145</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>43915</v>
       </c>
@@ -886,182 +829,193 @@
         <v>9527</v>
       </c>
       <c r="C40">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>43916</v>
       </c>
       <c r="B41">
-        <v>11164</v>
+        <v>11166</v>
       </c>
       <c r="C41">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>43917</v>
       </c>
       <c r="B42">
-        <v>12938</v>
+        <v>12941</v>
       </c>
       <c r="C42">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>43918</v>
       </c>
       <c r="B43">
-        <v>14395</v>
+        <v>14399</v>
       </c>
       <c r="C43">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>43919</v>
       </c>
       <c r="B44">
-        <v>15257</v>
+        <v>15262</v>
       </c>
       <c r="C44">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>43920</v>
       </c>
       <c r="B45">
-        <v>16255</v>
+        <v>16261</v>
       </c>
       <c r="C45">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>43921</v>
       </c>
       <c r="B46">
-        <v>18021</v>
+        <v>18028</v>
       </c>
       <c r="C46">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>43922</v>
       </c>
       <c r="B47">
-        <v>19951</v>
+        <v>19969</v>
       </c>
       <c r="C47">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>43923</v>
       </c>
       <c r="B48">
-        <v>21905</v>
+        <v>21925</v>
       </c>
       <c r="C48">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>43924</v>
       </c>
       <c r="B49">
-        <v>23832</v>
+        <v>23863</v>
       </c>
       <c r="C49">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>43925</v>
       </c>
       <c r="B50">
-        <v>25270</v>
+        <v>25299</v>
       </c>
       <c r="C50">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>43926</v>
       </c>
       <c r="B51">
-        <v>25947</v>
+        <v>25976</v>
       </c>
       <c r="C51">
         <v>677</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>43927</v>
       </c>
       <c r="B52">
-        <v>27022</v>
+        <v>27068</v>
       </c>
       <c r="C52">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>43928</v>
       </c>
       <c r="B53">
-        <v>28471</v>
+        <v>28522</v>
       </c>
       <c r="C53">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>43929</v>
       </c>
       <c r="B54">
-        <v>29902</v>
+        <v>30033</v>
       </c>
       <c r="C54">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>43930</v>
       </c>
       <c r="B55">
-        <v>30862</v>
+        <v>31197</v>
       </c>
       <c r="C55">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>43931</v>
       </c>
       <c r="B56">
-        <v>30862</v>
+        <v>31773</v>
       </c>
       <c r="C56">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B57">
+        <v>31773</v>
+      </c>
+      <c r="C57">
         <v>0</v>
       </c>
     </row>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -716,10 +716,10 @@
         <v>43905</v>
       </c>
       <c r="B30">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C30">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -727,7 +727,7 @@
         <v>43906</v>
       </c>
       <c r="B31">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C31">
         <v>269</v>
@@ -738,7 +738,7 @@
         <v>43907</v>
       </c>
       <c r="B32">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C32">
         <v>468</v>
@@ -749,7 +749,7 @@
         <v>43908</v>
       </c>
       <c r="B33">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="C33">
         <v>718</v>
@@ -760,10 +760,10 @@
         <v>43909</v>
       </c>
       <c r="B34">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="C34">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -771,7 +771,7 @@
         <v>43910</v>
       </c>
       <c r="B35">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="C35">
         <v>913</v>
@@ -782,7 +782,7 @@
         <v>43911</v>
       </c>
       <c r="B36">
-        <v>5465</v>
+        <v>5466</v>
       </c>
       <c r="C36">
         <v>1064</v>
@@ -793,7 +793,7 @@
         <v>43912</v>
       </c>
       <c r="B37">
-        <v>6073</v>
+        <v>6074</v>
       </c>
       <c r="C37">
         <v>608</v>
@@ -804,7 +804,7 @@
         <v>43913</v>
       </c>
       <c r="B38">
-        <v>6764</v>
+        <v>6765</v>
       </c>
       <c r="C38">
         <v>691</v>
@@ -815,7 +815,7 @@
         <v>43914</v>
       </c>
       <c r="B39">
-        <v>7909</v>
+        <v>7910</v>
       </c>
       <c r="C39">
         <v>1145</v>
@@ -826,10 +826,10 @@
         <v>43915</v>
       </c>
       <c r="B40">
-        <v>9527</v>
+        <v>9531</v>
       </c>
       <c r="C40">
-        <v>1618</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,10 +837,10 @@
         <v>43916</v>
       </c>
       <c r="B41">
-        <v>11166</v>
+        <v>11171</v>
       </c>
       <c r="C41">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -848,7 +848,7 @@
         <v>43917</v>
       </c>
       <c r="B42">
-        <v>12941</v>
+        <v>12946</v>
       </c>
       <c r="C42">
         <v>1775</v>
@@ -859,10 +859,10 @@
         <v>43918</v>
       </c>
       <c r="B43">
-        <v>14399</v>
+        <v>14403</v>
       </c>
       <c r="C43">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -870,10 +870,10 @@
         <v>43919</v>
       </c>
       <c r="B44">
-        <v>15262</v>
+        <v>15265</v>
       </c>
       <c r="C44">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,10 +881,10 @@
         <v>43920</v>
       </c>
       <c r="B45">
-        <v>16261</v>
+        <v>16271</v>
       </c>
       <c r="C45">
-        <v>999</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -892,10 +892,10 @@
         <v>43921</v>
       </c>
       <c r="B46">
-        <v>18028</v>
+        <v>18043</v>
       </c>
       <c r="C46">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,10 +903,10 @@
         <v>43922</v>
       </c>
       <c r="B47">
-        <v>19969</v>
+        <v>19987</v>
       </c>
       <c r="C47">
-        <v>1941</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,10 +914,10 @@
         <v>43923</v>
       </c>
       <c r="B48">
-        <v>21925</v>
+        <v>21945</v>
       </c>
       <c r="C48">
-        <v>1956</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,10 +925,10 @@
         <v>43924</v>
       </c>
       <c r="B49">
-        <v>23863</v>
+        <v>23918</v>
       </c>
       <c r="C49">
-        <v>1938</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,10 +936,10 @@
         <v>43925</v>
       </c>
       <c r="B50">
-        <v>25299</v>
+        <v>25356</v>
       </c>
       <c r="C50">
-        <v>1436</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -947,10 +947,10 @@
         <v>43926</v>
       </c>
       <c r="B51">
-        <v>25976</v>
+        <v>26047</v>
       </c>
       <c r="C51">
-        <v>677</v>
+        <v>691</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -958,10 +958,10 @@
         <v>43927</v>
       </c>
       <c r="B52">
-        <v>27068</v>
+        <v>27167</v>
       </c>
       <c r="C52">
-        <v>1092</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43928</v>
       </c>
       <c r="B53">
-        <v>28522</v>
+        <v>28653</v>
       </c>
       <c r="C53">
-        <v>1454</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43929</v>
       </c>
       <c r="B54">
-        <v>30033</v>
+        <v>30189</v>
       </c>
       <c r="C54">
-        <v>1511</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,10 +991,10 @@
         <v>43930</v>
       </c>
       <c r="B55">
-        <v>31197</v>
+        <v>31410</v>
       </c>
       <c r="C55">
-        <v>1164</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,10 +1002,10 @@
         <v>43931</v>
       </c>
       <c r="B56">
-        <v>31773</v>
+        <v>32237</v>
       </c>
       <c r="C56">
-        <v>576</v>
+        <v>827</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,10 +1013,21 @@
         <v>43932</v>
       </c>
       <c r="B57">
-        <v>31773</v>
+        <v>32761</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B58">
+        <v>32782</v>
+      </c>
+      <c r="C58">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,10 +639,10 @@
         <v>43898</v>
       </c>
       <c r="B23">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -650,7 +650,7 @@
         <v>43899</v>
       </c>
       <c r="B24">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C24">
         <v>83</v>
@@ -661,7 +661,7 @@
         <v>43900</v>
       </c>
       <c r="B25">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C25">
         <v>106</v>
@@ -672,7 +672,7 @@
         <v>43901</v>
       </c>
       <c r="B26">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C26">
         <v>116</v>
@@ -683,10 +683,10 @@
         <v>43902</v>
       </c>
       <c r="B27">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C27">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -694,7 +694,7 @@
         <v>43903</v>
       </c>
       <c r="B28">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C28">
         <v>253</v>
@@ -705,7 +705,7 @@
         <v>43904</v>
       </c>
       <c r="B29">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="C29">
         <v>232</v>
@@ -716,7 +716,7 @@
         <v>43905</v>
       </c>
       <c r="B30">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="C30">
         <v>163</v>
@@ -727,7 +727,7 @@
         <v>43906</v>
       </c>
       <c r="B31">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="C31">
         <v>269</v>
@@ -738,7 +738,7 @@
         <v>43907</v>
       </c>
       <c r="B32">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="C32">
         <v>468</v>
@@ -749,10 +749,10 @@
         <v>43908</v>
       </c>
       <c r="B33">
-        <v>2701</v>
+        <v>2704</v>
       </c>
       <c r="C33">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -760,7 +760,7 @@
         <v>43909</v>
       </c>
       <c r="B34">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="C34">
         <v>788</v>
@@ -771,10 +771,10 @@
         <v>43910</v>
       </c>
       <c r="B35">
-        <v>4402</v>
+        <v>4406</v>
       </c>
       <c r="C35">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -782,10 +782,10 @@
         <v>43911</v>
       </c>
       <c r="B36">
-        <v>5466</v>
+        <v>5472</v>
       </c>
       <c r="C36">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -793,7 +793,7 @@
         <v>43912</v>
       </c>
       <c r="B37">
-        <v>6074</v>
+        <v>6080</v>
       </c>
       <c r="C37">
         <v>608</v>
@@ -804,7 +804,7 @@
         <v>43913</v>
       </c>
       <c r="B38">
-        <v>6765</v>
+        <v>6771</v>
       </c>
       <c r="C38">
         <v>691</v>
@@ -815,10 +815,10 @@
         <v>43914</v>
       </c>
       <c r="B39">
-        <v>7910</v>
+        <v>7918</v>
       </c>
       <c r="C39">
-        <v>1145</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,10 +826,10 @@
         <v>43915</v>
       </c>
       <c r="B40">
-        <v>9531</v>
+        <v>9540</v>
       </c>
       <c r="C40">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,10 +837,10 @@
         <v>43916</v>
       </c>
       <c r="B41">
-        <v>11171</v>
+        <v>11182</v>
       </c>
       <c r="C41">
-        <v>1640</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -848,10 +848,10 @@
         <v>43917</v>
       </c>
       <c r="B42">
-        <v>12946</v>
+        <v>12958</v>
       </c>
       <c r="C42">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -859,10 +859,10 @@
         <v>43918</v>
       </c>
       <c r="B43">
-        <v>14403</v>
+        <v>14417</v>
       </c>
       <c r="C43">
-        <v>1457</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -870,10 +870,10 @@
         <v>43919</v>
       </c>
       <c r="B44">
-        <v>15265</v>
+        <v>15280</v>
       </c>
       <c r="C44">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,7 +881,7 @@
         <v>43920</v>
       </c>
       <c r="B45">
-        <v>16271</v>
+        <v>16286</v>
       </c>
       <c r="C45">
         <v>1006</v>
@@ -892,10 +892,10 @@
         <v>43921</v>
       </c>
       <c r="B46">
-        <v>18043</v>
+        <v>18062</v>
       </c>
       <c r="C46">
-        <v>1772</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,10 +903,10 @@
         <v>43922</v>
       </c>
       <c r="B47">
-        <v>19987</v>
+        <v>20008</v>
       </c>
       <c r="C47">
-        <v>1944</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,7 +914,7 @@
         <v>43923</v>
       </c>
       <c r="B48">
-        <v>21945</v>
+        <v>21966</v>
       </c>
       <c r="C48">
         <v>1958</v>
@@ -925,10 +925,10 @@
         <v>43924</v>
       </c>
       <c r="B49">
-        <v>23918</v>
+        <v>23943</v>
       </c>
       <c r="C49">
-        <v>1973</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,10 +936,10 @@
         <v>43925</v>
       </c>
       <c r="B50">
-        <v>25356</v>
+        <v>25382</v>
       </c>
       <c r="C50">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -947,10 +947,10 @@
         <v>43926</v>
       </c>
       <c r="B51">
-        <v>26047</v>
+        <v>26074</v>
       </c>
       <c r="C51">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -958,10 +958,10 @@
         <v>43927</v>
       </c>
       <c r="B52">
-        <v>27167</v>
+        <v>27199</v>
       </c>
       <c r="C52">
-        <v>1120</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43928</v>
       </c>
       <c r="B53">
-        <v>28653</v>
+        <v>28698</v>
       </c>
       <c r="C53">
-        <v>1486</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43929</v>
       </c>
       <c r="B54">
-        <v>30189</v>
+        <v>30241</v>
       </c>
       <c r="C54">
-        <v>1536</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,10 +991,10 @@
         <v>43930</v>
       </c>
       <c r="B55">
-        <v>31410</v>
+        <v>31501</v>
       </c>
       <c r="C55">
-        <v>1221</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,10 +1002,10 @@
         <v>43931</v>
       </c>
       <c r="B56">
-        <v>32237</v>
+        <v>32406</v>
       </c>
       <c r="C56">
-        <v>827</v>
+        <v>905</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,10 +1013,10 @@
         <v>43932</v>
       </c>
       <c r="B57">
-        <v>32761</v>
+        <v>33180</v>
       </c>
       <c r="C57">
-        <v>524</v>
+        <v>774</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1024,10 +1024,32 @@
         <v>43933</v>
       </c>
       <c r="B58">
-        <v>32782</v>
+        <v>33570</v>
       </c>
       <c r="C58">
-        <v>21</v>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B59">
+        <v>33904</v>
+      </c>
+      <c r="C59">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B60">
+        <v>33913</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,10 +683,10 @@
         <v>43902</v>
       </c>
       <c r="B27">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C27">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -694,10 +694,10 @@
         <v>43903</v>
       </c>
       <c r="B28">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C28">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -705,7 +705,7 @@
         <v>43904</v>
       </c>
       <c r="B29">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="C29">
         <v>232</v>
@@ -716,7 +716,7 @@
         <v>43905</v>
       </c>
       <c r="B30">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="C30">
         <v>163</v>
@@ -727,7 +727,7 @@
         <v>43906</v>
       </c>
       <c r="B31">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="C31">
         <v>269</v>
@@ -738,7 +738,7 @@
         <v>43907</v>
       </c>
       <c r="B32">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="C32">
         <v>468</v>
@@ -749,10 +749,10 @@
         <v>43908</v>
       </c>
       <c r="B33">
-        <v>2704</v>
+        <v>2707</v>
       </c>
       <c r="C33">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -760,10 +760,10 @@
         <v>43909</v>
       </c>
       <c r="B34">
-        <v>3492</v>
+        <v>3496</v>
       </c>
       <c r="C34">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -771,7 +771,7 @@
         <v>43910</v>
       </c>
       <c r="B35">
-        <v>4406</v>
+        <v>4410</v>
       </c>
       <c r="C35">
         <v>914</v>
@@ -782,10 +782,10 @@
         <v>43911</v>
       </c>
       <c r="B36">
-        <v>5472</v>
+        <v>5477</v>
       </c>
       <c r="C36">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -793,7 +793,7 @@
         <v>43912</v>
       </c>
       <c r="B37">
-        <v>6080</v>
+        <v>6085</v>
       </c>
       <c r="C37">
         <v>608</v>
@@ -804,10 +804,10 @@
         <v>43913</v>
       </c>
       <c r="B38">
-        <v>6771</v>
+        <v>6777</v>
       </c>
       <c r="C38">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,10 +815,10 @@
         <v>43914</v>
       </c>
       <c r="B39">
-        <v>7918</v>
+        <v>7923</v>
       </c>
       <c r="C39">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,10 +826,10 @@
         <v>43915</v>
       </c>
       <c r="B40">
-        <v>9540</v>
+        <v>9547</v>
       </c>
       <c r="C40">
-        <v>1622</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,10 +837,10 @@
         <v>43916</v>
       </c>
       <c r="B41">
-        <v>11182</v>
+        <v>11190</v>
       </c>
       <c r="C41">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -848,7 +848,7 @@
         <v>43917</v>
       </c>
       <c r="B42">
-        <v>12958</v>
+        <v>12966</v>
       </c>
       <c r="C42">
         <v>1776</v>
@@ -859,10 +859,10 @@
         <v>43918</v>
       </c>
       <c r="B43">
-        <v>14417</v>
+        <v>14426</v>
       </c>
       <c r="C43">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -870,7 +870,7 @@
         <v>43919</v>
       </c>
       <c r="B44">
-        <v>15280</v>
+        <v>15289</v>
       </c>
       <c r="C44">
         <v>863</v>
@@ -881,10 +881,10 @@
         <v>43920</v>
       </c>
       <c r="B45">
-        <v>16286</v>
+        <v>16299</v>
       </c>
       <c r="C45">
-        <v>1006</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -892,10 +892,10 @@
         <v>43921</v>
       </c>
       <c r="B46">
-        <v>18062</v>
+        <v>18073</v>
       </c>
       <c r="C46">
-        <v>1776</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,10 +903,10 @@
         <v>43922</v>
       </c>
       <c r="B47">
-        <v>20008</v>
+        <v>20025</v>
       </c>
       <c r="C47">
-        <v>1946</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,10 +914,10 @@
         <v>43923</v>
       </c>
       <c r="B48">
-        <v>21966</v>
+        <v>21984</v>
       </c>
       <c r="C48">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,10 +925,10 @@
         <v>43924</v>
       </c>
       <c r="B49">
-        <v>23943</v>
+        <v>23964</v>
       </c>
       <c r="C49">
-        <v>1977</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,7 +936,7 @@
         <v>43925</v>
       </c>
       <c r="B50">
-        <v>25382</v>
+        <v>25403</v>
       </c>
       <c r="C50">
         <v>1439</v>
@@ -947,10 +947,10 @@
         <v>43926</v>
       </c>
       <c r="B51">
-        <v>26074</v>
+        <v>26096</v>
       </c>
       <c r="C51">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -958,10 +958,10 @@
         <v>43927</v>
       </c>
       <c r="B52">
-        <v>27199</v>
+        <v>27219</v>
       </c>
       <c r="C52">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43928</v>
       </c>
       <c r="B53">
-        <v>28698</v>
+        <v>28724</v>
       </c>
       <c r="C53">
-        <v>1499</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43929</v>
       </c>
       <c r="B54">
-        <v>30241</v>
+        <v>30281</v>
       </c>
       <c r="C54">
-        <v>1543</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,10 +991,10 @@
         <v>43930</v>
       </c>
       <c r="B55">
-        <v>31501</v>
+        <v>31557</v>
       </c>
       <c r="C55">
-        <v>1260</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,10 +1002,10 @@
         <v>43931</v>
       </c>
       <c r="B56">
-        <v>32406</v>
+        <v>32471</v>
       </c>
       <c r="C56">
-        <v>905</v>
+        <v>914</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,10 +1013,10 @@
         <v>43932</v>
       </c>
       <c r="B57">
-        <v>33180</v>
+        <v>33258</v>
       </c>
       <c r="C57">
-        <v>774</v>
+        <v>787</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1024,10 +1024,10 @@
         <v>43933</v>
       </c>
       <c r="B58">
-        <v>33570</v>
+        <v>33676</v>
       </c>
       <c r="C58">
-        <v>390</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1035,10 +1035,10 @@
         <v>43934</v>
       </c>
       <c r="B59">
-        <v>33904</v>
+        <v>34128</v>
       </c>
       <c r="C59">
-        <v>334</v>
+        <v>452</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,21 @@
         <v>43935</v>
       </c>
       <c r="B60">
-        <v>33913</v>
+        <v>34641</v>
       </c>
       <c r="C60">
-        <v>9</v>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B61">
+        <v>34664</v>
+      </c>
+      <c r="C61">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -716,10 +716,10 @@
         <v>43905</v>
       </c>
       <c r="B30">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C30">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -727,7 +727,7 @@
         <v>43906</v>
       </c>
       <c r="B31">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C31">
         <v>269</v>
@@ -738,7 +738,7 @@
         <v>43907</v>
       </c>
       <c r="B32">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C32">
         <v>468</v>
@@ -749,7 +749,7 @@
         <v>43908</v>
       </c>
       <c r="B33">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="C33">
         <v>720</v>
@@ -760,10 +760,10 @@
         <v>43909</v>
       </c>
       <c r="B34">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="C34">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -771,7 +771,7 @@
         <v>43910</v>
       </c>
       <c r="B35">
-        <v>4410</v>
+        <v>4409</v>
       </c>
       <c r="C35">
         <v>914</v>
@@ -782,7 +782,7 @@
         <v>43911</v>
       </c>
       <c r="B36">
-        <v>5477</v>
+        <v>5476</v>
       </c>
       <c r="C36">
         <v>1067</v>
@@ -793,7 +793,7 @@
         <v>43912</v>
       </c>
       <c r="B37">
-        <v>6085</v>
+        <v>6084</v>
       </c>
       <c r="C37">
         <v>608</v>
@@ -804,10 +804,10 @@
         <v>43913</v>
       </c>
       <c r="B38">
-        <v>6777</v>
+        <v>6778</v>
       </c>
       <c r="C38">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,7 +815,7 @@
         <v>43914</v>
       </c>
       <c r="B39">
-        <v>7923</v>
+        <v>7924</v>
       </c>
       <c r="C39">
         <v>1146</v>
@@ -826,10 +826,10 @@
         <v>43915</v>
       </c>
       <c r="B40">
-        <v>9547</v>
+        <v>9549</v>
       </c>
       <c r="C40">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,10 +837,10 @@
         <v>43916</v>
       </c>
       <c r="B41">
-        <v>11190</v>
+        <v>11191</v>
       </c>
       <c r="C41">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -848,10 +848,10 @@
         <v>43917</v>
       </c>
       <c r="B42">
-        <v>12966</v>
+        <v>12968</v>
       </c>
       <c r="C42">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -859,10 +859,10 @@
         <v>43918</v>
       </c>
       <c r="B43">
-        <v>14426</v>
+        <v>14427</v>
       </c>
       <c r="C43">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -870,7 +870,7 @@
         <v>43919</v>
       </c>
       <c r="B44">
-        <v>15289</v>
+        <v>15290</v>
       </c>
       <c r="C44">
         <v>863</v>
@@ -881,7 +881,7 @@
         <v>43920</v>
       </c>
       <c r="B45">
-        <v>16299</v>
+        <v>16300</v>
       </c>
       <c r="C45">
         <v>1010</v>
@@ -892,10 +892,10 @@
         <v>43921</v>
       </c>
       <c r="B46">
-        <v>18073</v>
+        <v>18075</v>
       </c>
       <c r="C46">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,10 +903,10 @@
         <v>43922</v>
       </c>
       <c r="B47">
-        <v>20025</v>
+        <v>20029</v>
       </c>
       <c r="C47">
-        <v>1952</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,10 +914,10 @@
         <v>43923</v>
       </c>
       <c r="B48">
-        <v>21984</v>
+        <v>21991</v>
       </c>
       <c r="C48">
-        <v>1959</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,10 +925,10 @@
         <v>43924</v>
       </c>
       <c r="B49">
-        <v>23964</v>
+        <v>23972</v>
       </c>
       <c r="C49">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,10 +936,10 @@
         <v>43925</v>
       </c>
       <c r="B50">
-        <v>25403</v>
+        <v>25412</v>
       </c>
       <c r="C50">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -947,10 +947,10 @@
         <v>43926</v>
       </c>
       <c r="B51">
-        <v>26096</v>
+        <v>26106</v>
       </c>
       <c r="C51">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -958,10 +958,10 @@
         <v>43927</v>
       </c>
       <c r="B52">
-        <v>27219</v>
+        <v>27232</v>
       </c>
       <c r="C52">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43928</v>
       </c>
       <c r="B53">
-        <v>28724</v>
+        <v>28740</v>
       </c>
       <c r="C53">
-        <v>1505</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43929</v>
       </c>
       <c r="B54">
-        <v>30281</v>
+        <v>30303</v>
       </c>
       <c r="C54">
-        <v>1557</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,10 +991,10 @@
         <v>43930</v>
       </c>
       <c r="B55">
-        <v>31557</v>
+        <v>31577</v>
       </c>
       <c r="C55">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,10 +1002,10 @@
         <v>43931</v>
       </c>
       <c r="B56">
-        <v>32471</v>
+        <v>32495</v>
       </c>
       <c r="C56">
-        <v>914</v>
+        <v>918</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,10 +1013,10 @@
         <v>43932</v>
       </c>
       <c r="B57">
-        <v>33258</v>
+        <v>33287</v>
       </c>
       <c r="C57">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1024,10 +1024,10 @@
         <v>43933</v>
       </c>
       <c r="B58">
-        <v>33676</v>
+        <v>33709</v>
       </c>
       <c r="C58">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1035,10 +1035,10 @@
         <v>43934</v>
       </c>
       <c r="B59">
-        <v>34128</v>
+        <v>34170</v>
       </c>
       <c r="C59">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,10 @@
         <v>43935</v>
       </c>
       <c r="B60">
-        <v>34641</v>
+        <v>34886</v>
       </c>
       <c r="C60">
-        <v>513</v>
+        <v>716</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,10 +1057,21 @@
         <v>43936</v>
       </c>
       <c r="B61">
-        <v>34664</v>
+        <v>35509</v>
       </c>
       <c r="C61">
-        <v>23</v>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B62">
+        <v>35523</v>
+      </c>
+      <c r="C62">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -749,10 +749,10 @@
         <v>43908</v>
       </c>
       <c r="B33">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="C33">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -763,7 +763,7 @@
         <v>3495</v>
       </c>
       <c r="C34">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -782,10 +782,10 @@
         <v>43911</v>
       </c>
       <c r="B36">
-        <v>5476</v>
+        <v>5477</v>
       </c>
       <c r="C36">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -793,7 +793,7 @@
         <v>43912</v>
       </c>
       <c r="B37">
-        <v>6084</v>
+        <v>6085</v>
       </c>
       <c r="C37">
         <v>608</v>
@@ -804,10 +804,10 @@
         <v>43913</v>
       </c>
       <c r="B38">
-        <v>6778</v>
+        <v>6780</v>
       </c>
       <c r="C38">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,10 +815,10 @@
         <v>43914</v>
       </c>
       <c r="B39">
-        <v>7924</v>
+        <v>7925</v>
       </c>
       <c r="C39">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,10 +826,10 @@
         <v>43915</v>
       </c>
       <c r="B40">
-        <v>9549</v>
+        <v>9552</v>
       </c>
       <c r="C40">
-        <v>1625</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,7 +837,7 @@
         <v>43916</v>
       </c>
       <c r="B41">
-        <v>11191</v>
+        <v>11194</v>
       </c>
       <c r="C41">
         <v>1642</v>
@@ -848,10 +848,10 @@
         <v>43917</v>
       </c>
       <c r="B42">
-        <v>12968</v>
+        <v>12975</v>
       </c>
       <c r="C42">
-        <v>1777</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -859,10 +859,10 @@
         <v>43918</v>
       </c>
       <c r="B43">
-        <v>14427</v>
+        <v>14436</v>
       </c>
       <c r="C43">
-        <v>1459</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -870,10 +870,10 @@
         <v>43919</v>
       </c>
       <c r="B44">
-        <v>15290</v>
+        <v>15300</v>
       </c>
       <c r="C44">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,7 +881,7 @@
         <v>43920</v>
       </c>
       <c r="B45">
-        <v>16300</v>
+        <v>16310</v>
       </c>
       <c r="C45">
         <v>1010</v>
@@ -892,10 +892,10 @@
         <v>43921</v>
       </c>
       <c r="B46">
-        <v>18075</v>
+        <v>18089</v>
       </c>
       <c r="C46">
-        <v>1775</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,10 +903,10 @@
         <v>43922</v>
       </c>
       <c r="B47">
-        <v>20029</v>
+        <v>20050</v>
       </c>
       <c r="C47">
-        <v>1954</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,10 +914,10 @@
         <v>43923</v>
       </c>
       <c r="B48">
-        <v>21991</v>
+        <v>22010</v>
       </c>
       <c r="C48">
-        <v>1962</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,10 +925,10 @@
         <v>43924</v>
       </c>
       <c r="B49">
-        <v>23972</v>
+        <v>23994</v>
       </c>
       <c r="C49">
-        <v>1981</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,10 +936,10 @@
         <v>43925</v>
       </c>
       <c r="B50">
-        <v>25412</v>
+        <v>25435</v>
       </c>
       <c r="C50">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -947,10 +947,10 @@
         <v>43926</v>
       </c>
       <c r="B51">
-        <v>26106</v>
+        <v>26131</v>
       </c>
       <c r="C51">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -958,10 +958,10 @@
         <v>43927</v>
       </c>
       <c r="B52">
-        <v>27232</v>
+        <v>27266</v>
       </c>
       <c r="C52">
-        <v>1126</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43928</v>
       </c>
       <c r="B53">
-        <v>28740</v>
+        <v>28777</v>
       </c>
       <c r="C53">
-        <v>1508</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43929</v>
       </c>
       <c r="B54">
-        <v>30303</v>
+        <v>30343</v>
       </c>
       <c r="C54">
-        <v>1563</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,10 +991,10 @@
         <v>43930</v>
       </c>
       <c r="B55">
-        <v>31577</v>
+        <v>31627</v>
       </c>
       <c r="C55">
-        <v>1274</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,10 +1002,10 @@
         <v>43931</v>
       </c>
       <c r="B56">
-        <v>32495</v>
+        <v>32553</v>
       </c>
       <c r="C56">
-        <v>918</v>
+        <v>926</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,7 +1013,7 @@
         <v>43932</v>
       </c>
       <c r="B57">
-        <v>33287</v>
+        <v>33345</v>
       </c>
       <c r="C57">
         <v>792</v>
@@ -1024,7 +1024,7 @@
         <v>43933</v>
       </c>
       <c r="B58">
-        <v>33709</v>
+        <v>33767</v>
       </c>
       <c r="C58">
         <v>422</v>
@@ -1035,10 +1035,10 @@
         <v>43934</v>
       </c>
       <c r="B59">
-        <v>34170</v>
+        <v>34234</v>
       </c>
       <c r="C59">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,10 @@
         <v>43935</v>
       </c>
       <c r="B60">
-        <v>34886</v>
+        <v>34970</v>
       </c>
       <c r="C60">
-        <v>716</v>
+        <v>736</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,10 +1057,10 @@
         <v>43936</v>
       </c>
       <c r="B61">
-        <v>35509</v>
+        <v>35881</v>
       </c>
       <c r="C61">
-        <v>623</v>
+        <v>911</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,10 +1068,32 @@
         <v>43937</v>
       </c>
       <c r="B62">
-        <v>35523</v>
+        <v>36703</v>
       </c>
       <c r="C62">
-        <v>14</v>
+        <v>822</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B63">
+        <v>37242</v>
+      </c>
+      <c r="C63">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B64">
+        <v>37254</v>
+      </c>
+      <c r="C64">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,7 +515,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>43885</v>
+        <v>43888</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -526,109 +526,109 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B14">
         <v>24</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B15">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B16">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B17">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B18">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B19">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B20">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B21">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C21">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B22">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C22">
         <v>19</v>
@@ -636,464 +636,475 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B23">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B24">
-        <v>247</v>
+        <v>352</v>
       </c>
       <c r="C24">
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B25">
-        <v>353</v>
+        <v>468</v>
       </c>
       <c r="C25">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B26">
-        <v>469</v>
+        <v>600</v>
       </c>
       <c r="C26">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B27">
-        <v>601</v>
+        <v>854</v>
       </c>
       <c r="C27">
-        <v>132</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B28">
-        <v>855</v>
+        <v>1087</v>
       </c>
       <c r="C28">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B29">
-        <v>1087</v>
+        <v>1252</v>
       </c>
       <c r="C29">
-        <v>232</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B30">
-        <v>1251</v>
+        <v>1521</v>
       </c>
       <c r="C30">
-        <v>164</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B31">
-        <v>1520</v>
+        <v>1988</v>
       </c>
       <c r="C31">
-        <v>269</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B32">
-        <v>1988</v>
+        <v>2709</v>
       </c>
       <c r="C32">
-        <v>468</v>
+        <v>721</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B33">
-        <v>2709</v>
+        <v>3495</v>
       </c>
       <c r="C33">
-        <v>721</v>
+        <v>786</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B34">
-        <v>3495</v>
+        <v>4409</v>
       </c>
       <c r="C34">
-        <v>786</v>
+        <v>914</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B35">
-        <v>4409</v>
+        <v>5477</v>
       </c>
       <c r="C35">
-        <v>914</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B36">
-        <v>5477</v>
+        <v>6085</v>
       </c>
       <c r="C36">
-        <v>1068</v>
+        <v>608</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B37">
-        <v>6085</v>
+        <v>6781</v>
       </c>
       <c r="C37">
-        <v>608</v>
+        <v>696</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B38">
-        <v>6780</v>
+        <v>7927</v>
       </c>
       <c r="C38">
-        <v>695</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B39">
-        <v>7925</v>
+        <v>9558</v>
       </c>
       <c r="C39">
-        <v>1145</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B40">
-        <v>9552</v>
+        <v>11199</v>
       </c>
       <c r="C40">
-        <v>1627</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B41">
-        <v>11194</v>
+        <v>12980</v>
       </c>
       <c r="C41">
-        <v>1642</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B42">
-        <v>12975</v>
+        <v>14441</v>
       </c>
       <c r="C42">
-        <v>1781</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B43">
-        <v>14436</v>
+        <v>15306</v>
       </c>
       <c r="C43">
-        <v>1461</v>
+        <v>865</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B44">
-        <v>15300</v>
+        <v>16320</v>
       </c>
       <c r="C44">
-        <v>864</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B45">
-        <v>16310</v>
+        <v>18100</v>
       </c>
       <c r="C45">
-        <v>1010</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B46">
-        <v>18089</v>
+        <v>20061</v>
       </c>
       <c r="C46">
-        <v>1779</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B47">
-        <v>20050</v>
+        <v>22020</v>
       </c>
       <c r="C47">
-        <v>1961</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B48">
-        <v>22010</v>
+        <v>24004</v>
       </c>
       <c r="C48">
-        <v>1960</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B49">
-        <v>23994</v>
+        <v>25445</v>
       </c>
       <c r="C49">
-        <v>1984</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B50">
-        <v>25435</v>
+        <v>26141</v>
       </c>
       <c r="C50">
-        <v>1441</v>
+        <v>696</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B51">
-        <v>26131</v>
+        <v>27277</v>
       </c>
       <c r="C51">
-        <v>696</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B52">
-        <v>27266</v>
+        <v>28789</v>
       </c>
       <c r="C52">
-        <v>1135</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B53">
-        <v>28777</v>
+        <v>30358</v>
       </c>
       <c r="C53">
-        <v>1511</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B54">
-        <v>30343</v>
+        <v>31645</v>
       </c>
       <c r="C54">
-        <v>1566</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B55">
-        <v>31627</v>
+        <v>32571</v>
       </c>
       <c r="C55">
-        <v>1284</v>
+        <v>926</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B56">
-        <v>32553</v>
+        <v>33364</v>
       </c>
       <c r="C56">
-        <v>926</v>
+        <v>793</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B57">
-        <v>33345</v>
+        <v>33787</v>
       </c>
       <c r="C57">
-        <v>792</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B58">
-        <v>33767</v>
+        <v>34255</v>
       </c>
       <c r="C58">
-        <v>422</v>
+        <v>468</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B59">
-        <v>34234</v>
+        <v>34992</v>
       </c>
       <c r="C59">
-        <v>467</v>
+        <v>737</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B60">
-        <v>34970</v>
+        <v>35912</v>
       </c>
       <c r="C60">
-        <v>736</v>
+        <v>920</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B61">
-        <v>35881</v>
+        <v>36769</v>
       </c>
       <c r="C61">
-        <v>911</v>
+        <v>857</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B62">
-        <v>36703</v>
+        <v>37528</v>
       </c>
       <c r="C62">
-        <v>822</v>
+        <v>759</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B63">
-        <v>37242</v>
+        <v>37928</v>
       </c>
       <c r="C63">
-        <v>539</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B64">
-        <v>37254</v>
+        <v>38214</v>
       </c>
       <c r="C64">
-        <v>12</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B65">
+        <v>38232</v>
+      </c>
+      <c r="C65">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,10 +705,10 @@
         <v>43905</v>
       </c>
       <c r="B29">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C29">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -716,7 +716,7 @@
         <v>43906</v>
       </c>
       <c r="B30">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C30">
         <v>269</v>
@@ -727,10 +727,10 @@
         <v>43907</v>
       </c>
       <c r="B31">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="C31">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -738,10 +738,10 @@
         <v>43908</v>
       </c>
       <c r="B32">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="C32">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -752,7 +752,7 @@
         <v>3495</v>
       </c>
       <c r="C33">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -826,10 +826,10 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11199</v>
+        <v>11200</v>
       </c>
       <c r="C40">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,7 +837,7 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>12980</v>
+        <v>12981</v>
       </c>
       <c r="C41">
         <v>1781</v>
@@ -848,7 +848,7 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14441</v>
+        <v>14442</v>
       </c>
       <c r="C42">
         <v>1461</v>
@@ -859,7 +859,7 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15306</v>
+        <v>15307</v>
       </c>
       <c r="C43">
         <v>865</v>
@@ -870,7 +870,7 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16320</v>
+        <v>16321</v>
       </c>
       <c r="C44">
         <v>1014</v>
@@ -881,10 +881,10 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18100</v>
+        <v>18103</v>
       </c>
       <c r="C45">
-        <v>1780</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -892,10 +892,10 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20061</v>
+        <v>20063</v>
       </c>
       <c r="C46">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,10 +903,10 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22020</v>
+        <v>22021</v>
       </c>
       <c r="C47">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,10 +914,10 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24004</v>
+        <v>24000</v>
       </c>
       <c r="C48">
-        <v>1984</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,10 +925,10 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25445</v>
+        <v>25442</v>
       </c>
       <c r="C49">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,10 +936,10 @@
         <v>43926</v>
       </c>
       <c r="B50">
-        <v>26141</v>
+        <v>26135</v>
       </c>
       <c r="C50">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -947,7 +947,7 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27277</v>
+        <v>27271</v>
       </c>
       <c r="C51">
         <v>1136</v>
@@ -958,10 +958,10 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28789</v>
+        <v>28778</v>
       </c>
       <c r="C52">
-        <v>1512</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30358</v>
+        <v>30350</v>
       </c>
       <c r="C53">
-        <v>1569</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31645</v>
+        <v>31640</v>
       </c>
       <c r="C54">
-        <v>1287</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,10 +991,10 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32571</v>
+        <v>32568</v>
       </c>
       <c r="C55">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,10 +1002,10 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33364</v>
+        <v>33360</v>
       </c>
       <c r="C56">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,10 +1013,10 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33787</v>
+        <v>33781</v>
       </c>
       <c r="C57">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1024,10 +1024,10 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34255</v>
+        <v>34247</v>
       </c>
       <c r="C58">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1035,10 +1035,10 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>34992</v>
+        <v>34987</v>
       </c>
       <c r="C59">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,10 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>35912</v>
+        <v>35908</v>
       </c>
       <c r="C60">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,10 +1057,10 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36769</v>
+        <v>36778</v>
       </c>
       <c r="C61">
-        <v>857</v>
+        <v>870</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,10 +1068,10 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37528</v>
+        <v>37583</v>
       </c>
       <c r="C62">
-        <v>759</v>
+        <v>805</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,10 +1079,10 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>37928</v>
+        <v>38062</v>
       </c>
       <c r="C63">
-        <v>400</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1090,10 +1090,10 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38214</v>
+        <v>38458</v>
       </c>
       <c r="C64">
-        <v>286</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1101,10 +1101,32 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>38232</v>
+        <v>38845</v>
       </c>
       <c r="C65">
-        <v>18</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B66">
+        <v>39187</v>
+      </c>
+      <c r="C66">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B67">
+        <v>39190</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,10 +650,10 @@
         <v>43900</v>
       </c>
       <c r="B24">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C24">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -661,7 +661,7 @@
         <v>43901</v>
       </c>
       <c r="B25">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C25">
         <v>116</v>
@@ -672,7 +672,7 @@
         <v>43902</v>
       </c>
       <c r="B26">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C26">
         <v>132</v>
@@ -686,7 +686,7 @@
         <v>854</v>
       </c>
       <c r="C27">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -694,10 +694,10 @@
         <v>43904</v>
       </c>
       <c r="B28">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C28">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -705,10 +705,10 @@
         <v>43905</v>
       </c>
       <c r="B29">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="C29">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -716,7 +716,7 @@
         <v>43906</v>
       </c>
       <c r="B30">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="C30">
         <v>269</v>
@@ -727,10 +727,10 @@
         <v>43907</v>
       </c>
       <c r="B31">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C31">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -738,7 +738,7 @@
         <v>43908</v>
       </c>
       <c r="B32">
-        <v>2708</v>
+        <v>2712</v>
       </c>
       <c r="C32">
         <v>722</v>
@@ -749,7 +749,7 @@
         <v>43909</v>
       </c>
       <c r="B33">
-        <v>3495</v>
+        <v>3499</v>
       </c>
       <c r="C33">
         <v>787</v>
@@ -760,7 +760,7 @@
         <v>43910</v>
       </c>
       <c r="B34">
-        <v>4409</v>
+        <v>4413</v>
       </c>
       <c r="C34">
         <v>914</v>
@@ -771,10 +771,10 @@
         <v>43911</v>
       </c>
       <c r="B35">
-        <v>5477</v>
+        <v>5482</v>
       </c>
       <c r="C35">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -782,10 +782,10 @@
         <v>43912</v>
       </c>
       <c r="B36">
-        <v>6085</v>
+        <v>6091</v>
       </c>
       <c r="C36">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -793,10 +793,10 @@
         <v>43913</v>
       </c>
       <c r="B37">
-        <v>6781</v>
+        <v>6786</v>
       </c>
       <c r="C37">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -804,7 +804,7 @@
         <v>43914</v>
       </c>
       <c r="B38">
-        <v>7927</v>
+        <v>7932</v>
       </c>
       <c r="C38">
         <v>1146</v>
@@ -815,10 +815,10 @@
         <v>43915</v>
       </c>
       <c r="B39">
-        <v>9558</v>
+        <v>9565</v>
       </c>
       <c r="C39">
-        <v>1631</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,10 +826,10 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11200</v>
+        <v>11208</v>
       </c>
       <c r="C40">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,7 +837,7 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>12981</v>
+        <v>12989</v>
       </c>
       <c r="C41">
         <v>1781</v>
@@ -848,10 +848,10 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14442</v>
+        <v>14451</v>
       </c>
       <c r="C42">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -859,7 +859,7 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15307</v>
+        <v>15316</v>
       </c>
       <c r="C43">
         <v>865</v>
@@ -870,10 +870,10 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16321</v>
+        <v>16331</v>
       </c>
       <c r="C44">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,10 +881,10 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18103</v>
+        <v>18114</v>
       </c>
       <c r="C45">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -892,10 +892,10 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20063</v>
+        <v>20075</v>
       </c>
       <c r="C46">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,10 +903,10 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22021</v>
+        <v>22031</v>
       </c>
       <c r="C47">
-        <v>1958</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,10 +914,10 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24000</v>
+        <v>24011</v>
       </c>
       <c r="C48">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,7 +925,7 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25442</v>
+        <v>25453</v>
       </c>
       <c r="C49">
         <v>1442</v>
@@ -936,7 +936,7 @@
         <v>43926</v>
       </c>
       <c r="B50">
-        <v>26135</v>
+        <v>26146</v>
       </c>
       <c r="C50">
         <v>693</v>
@@ -947,7 +947,7 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27271</v>
+        <v>27282</v>
       </c>
       <c r="C51">
         <v>1136</v>
@@ -958,7 +958,7 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28778</v>
+        <v>28789</v>
       </c>
       <c r="C52">
         <v>1507</v>
@@ -969,10 +969,10 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30350</v>
+        <v>30357</v>
       </c>
       <c r="C53">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31640</v>
+        <v>31646</v>
       </c>
       <c r="C54">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,10 +991,10 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32568</v>
+        <v>32573</v>
       </c>
       <c r="C55">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,10 +1002,10 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33360</v>
+        <v>33366</v>
       </c>
       <c r="C56">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,7 +1013,7 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33781</v>
+        <v>33787</v>
       </c>
       <c r="C57">
         <v>421</v>
@@ -1024,7 +1024,7 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34247</v>
+        <v>34253</v>
       </c>
       <c r="C58">
         <v>466</v>
@@ -1035,10 +1035,10 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>34987</v>
+        <v>34995</v>
       </c>
       <c r="C59">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,7 +1046,7 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>35908</v>
+        <v>35916</v>
       </c>
       <c r="C60">
         <v>921</v>
@@ -1057,10 +1057,10 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36778</v>
+        <v>36792</v>
       </c>
       <c r="C61">
-        <v>870</v>
+        <v>876</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,10 +1068,10 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37583</v>
+        <v>37604</v>
       </c>
       <c r="C62">
-        <v>805</v>
+        <v>812</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,10 +1079,10 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>38062</v>
+        <v>38090</v>
       </c>
       <c r="C63">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1090,10 +1090,10 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38458</v>
+        <v>38488</v>
       </c>
       <c r="C64">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1101,10 +1101,10 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>38845</v>
+        <v>38885</v>
       </c>
       <c r="C65">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1112,10 +1112,10 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39187</v>
+        <v>39367</v>
       </c>
       <c r="C66">
-        <v>342</v>
+        <v>482</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1123,10 +1123,21 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>39190</v>
+        <v>39806</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B68">
+        <v>39820</v>
+      </c>
+      <c r="C68">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +562,10 @@
         <v>43892</v>
       </c>
       <c r="B16">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -573,7 +573,7 @@
         <v>43893</v>
       </c>
       <c r="B17">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -584,7 +584,7 @@
         <v>43894</v>
       </c>
       <c r="B18">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -595,7 +595,7 @@
         <v>43895</v>
       </c>
       <c r="B19">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19">
         <v>22</v>
@@ -606,7 +606,7 @@
         <v>43896</v>
       </c>
       <c r="B20">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C20">
         <v>52</v>
@@ -617,7 +617,7 @@
         <v>43897</v>
       </c>
       <c r="B21">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -628,7 +628,7 @@
         <v>43898</v>
       </c>
       <c r="B22">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C22">
         <v>19</v>
@@ -639,10 +639,10 @@
         <v>43899</v>
       </c>
       <c r="B23">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C23">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -650,10 +650,10 @@
         <v>43900</v>
       </c>
       <c r="B24">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C24">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -661,10 +661,10 @@
         <v>43901</v>
       </c>
       <c r="B25">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C25">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -672,10 +672,10 @@
         <v>43902</v>
       </c>
       <c r="B26">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C26">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -683,7 +683,7 @@
         <v>43903</v>
       </c>
       <c r="B27">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="C27">
         <v>255</v>
@@ -694,7 +694,7 @@
         <v>43904</v>
       </c>
       <c r="B28">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="C28">
         <v>235</v>
@@ -705,7 +705,7 @@
         <v>43905</v>
       </c>
       <c r="B29">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="C29">
         <v>165</v>
@@ -716,7 +716,7 @@
         <v>43906</v>
       </c>
       <c r="B30">
-        <v>1523</v>
+        <v>1529</v>
       </c>
       <c r="C30">
         <v>269</v>
@@ -727,10 +727,10 @@
         <v>43907</v>
       </c>
       <c r="B31">
-        <v>1990</v>
+        <v>1997</v>
       </c>
       <c r="C31">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -738,7 +738,7 @@
         <v>43908</v>
       </c>
       <c r="B32">
-        <v>2712</v>
+        <v>2719</v>
       </c>
       <c r="C32">
         <v>722</v>
@@ -749,10 +749,10 @@
         <v>43909</v>
       </c>
       <c r="B33">
-        <v>3499</v>
+        <v>3508</v>
       </c>
       <c r="C33">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -760,7 +760,7 @@
         <v>43910</v>
       </c>
       <c r="B34">
-        <v>4413</v>
+        <v>4422</v>
       </c>
       <c r="C34">
         <v>914</v>
@@ -771,10 +771,10 @@
         <v>43911</v>
       </c>
       <c r="B35">
-        <v>5482</v>
+        <v>5492</v>
       </c>
       <c r="C35">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -782,10 +782,10 @@
         <v>43912</v>
       </c>
       <c r="B36">
-        <v>6091</v>
+        <v>6103</v>
       </c>
       <c r="C36">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -793,10 +793,10 @@
         <v>43913</v>
       </c>
       <c r="B37">
-        <v>6786</v>
+        <v>6800</v>
       </c>
       <c r="C37">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -804,10 +804,10 @@
         <v>43914</v>
       </c>
       <c r="B38">
-        <v>7932</v>
+        <v>7947</v>
       </c>
       <c r="C38">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,7 +815,7 @@
         <v>43915</v>
       </c>
       <c r="B39">
-        <v>9565</v>
+        <v>9580</v>
       </c>
       <c r="C39">
         <v>1633</v>
@@ -826,10 +826,10 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11208</v>
+        <v>11221</v>
       </c>
       <c r="C40">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,10 +837,10 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>12989</v>
+        <v>13003</v>
       </c>
       <c r="C41">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -848,7 +848,7 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14451</v>
+        <v>14465</v>
       </c>
       <c r="C42">
         <v>1462</v>
@@ -859,10 +859,10 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15316</v>
+        <v>15331</v>
       </c>
       <c r="C43">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -870,7 +870,7 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16331</v>
+        <v>16346</v>
       </c>
       <c r="C44">
         <v>1015</v>
@@ -881,7 +881,7 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18114</v>
+        <v>18129</v>
       </c>
       <c r="C45">
         <v>1783</v>
@@ -892,10 +892,10 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20075</v>
+        <v>20092</v>
       </c>
       <c r="C46">
-        <v>1961</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,7 +903,7 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22031</v>
+        <v>22048</v>
       </c>
       <c r="C47">
         <v>1956</v>
@@ -914,7 +914,7 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24011</v>
+        <v>24028</v>
       </c>
       <c r="C48">
         <v>1980</v>
@@ -925,10 +925,10 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25453</v>
+        <v>25469</v>
       </c>
       <c r="C49">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,10 +936,10 @@
         <v>43926</v>
       </c>
       <c r="B50">
-        <v>26146</v>
+        <v>26164</v>
       </c>
       <c r="C50">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -947,7 +947,7 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27282</v>
+        <v>27300</v>
       </c>
       <c r="C51">
         <v>1136</v>
@@ -958,10 +958,10 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28789</v>
+        <v>28819</v>
       </c>
       <c r="C52">
-        <v>1507</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30357</v>
+        <v>30386</v>
       </c>
       <c r="C53">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31646</v>
+        <v>31673</v>
       </c>
       <c r="C54">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,10 +991,10 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32573</v>
+        <v>32596</v>
       </c>
       <c r="C55">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,10 +1002,10 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33366</v>
+        <v>33392</v>
       </c>
       <c r="C56">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,10 +1013,10 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33787</v>
+        <v>33814</v>
       </c>
       <c r="C57">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1024,10 +1024,10 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34253</v>
+        <v>34281</v>
       </c>
       <c r="C58">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1035,10 +1035,10 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>34995</v>
+        <v>35027</v>
       </c>
       <c r="C59">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,10 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>35916</v>
+        <v>35946</v>
       </c>
       <c r="C60">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,10 +1057,10 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36792</v>
+        <v>36826</v>
       </c>
       <c r="C61">
-        <v>876</v>
+        <v>880</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,7 +1068,7 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37604</v>
+        <v>37638</v>
       </c>
       <c r="C62">
         <v>812</v>
@@ -1079,10 +1079,10 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>38090</v>
+        <v>38126</v>
       </c>
       <c r="C63">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1090,10 +1090,10 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38488</v>
+        <v>38526</v>
       </c>
       <c r="C64">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1101,10 +1101,10 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>38885</v>
+        <v>38930</v>
       </c>
       <c r="C65">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1112,10 +1112,10 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39367</v>
+        <v>39446</v>
       </c>
       <c r="C66">
-        <v>482</v>
+        <v>516</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1123,10 +1123,10 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>39806</v>
+        <v>40035</v>
       </c>
       <c r="C67">
-        <v>439</v>
+        <v>589</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1134,10 +1134,21 @@
         <v>43944</v>
       </c>
       <c r="B68">
-        <v>39820</v>
+        <v>40465</v>
       </c>
       <c r="C68">
-        <v>14</v>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B69">
+        <v>40473</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -760,10 +760,10 @@
         <v>43910</v>
       </c>
       <c r="B34">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="C34">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -771,7 +771,7 @@
         <v>43911</v>
       </c>
       <c r="B35">
-        <v>5492</v>
+        <v>5493</v>
       </c>
       <c r="C35">
         <v>1070</v>
@@ -782,7 +782,7 @@
         <v>43912</v>
       </c>
       <c r="B36">
-        <v>6103</v>
+        <v>6104</v>
       </c>
       <c r="C36">
         <v>611</v>
@@ -793,7 +793,7 @@
         <v>43913</v>
       </c>
       <c r="B37">
-        <v>6800</v>
+        <v>6801</v>
       </c>
       <c r="C37">
         <v>697</v>
@@ -804,10 +804,10 @@
         <v>43914</v>
       </c>
       <c r="B38">
-        <v>7947</v>
+        <v>7949</v>
       </c>
       <c r="C38">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,7 +815,7 @@
         <v>43915</v>
       </c>
       <c r="B39">
-        <v>9580</v>
+        <v>9582</v>
       </c>
       <c r="C39">
         <v>1633</v>
@@ -826,7 +826,7 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11221</v>
+        <v>11223</v>
       </c>
       <c r="C40">
         <v>1641</v>
@@ -837,7 +837,7 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>13003</v>
+        <v>13005</v>
       </c>
       <c r="C41">
         <v>1782</v>
@@ -848,7 +848,7 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14465</v>
+        <v>14467</v>
       </c>
       <c r="C42">
         <v>1462</v>
@@ -859,7 +859,7 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15331</v>
+        <v>15333</v>
       </c>
       <c r="C43">
         <v>866</v>
@@ -870,10 +870,10 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16346</v>
+        <v>16349</v>
       </c>
       <c r="C44">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,7 +881,7 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18129</v>
+        <v>18132</v>
       </c>
       <c r="C45">
         <v>1783</v>
@@ -892,10 +892,10 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20092</v>
+        <v>20096</v>
       </c>
       <c r="C46">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,7 +903,7 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22048</v>
+        <v>22052</v>
       </c>
       <c r="C47">
         <v>1956</v>
@@ -914,10 +914,10 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24028</v>
+        <v>24033</v>
       </c>
       <c r="C48">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,10 +925,10 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25469</v>
+        <v>25475</v>
       </c>
       <c r="C49">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,7 +936,7 @@
         <v>43926</v>
       </c>
       <c r="B50">
-        <v>26164</v>
+        <v>26170</v>
       </c>
       <c r="C50">
         <v>695</v>
@@ -947,7 +947,7 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27300</v>
+        <v>27306</v>
       </c>
       <c r="C51">
         <v>1136</v>
@@ -958,10 +958,10 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28819</v>
+        <v>28826</v>
       </c>
       <c r="C52">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30386</v>
+        <v>30392</v>
       </c>
       <c r="C53">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31673</v>
+        <v>31680</v>
       </c>
       <c r="C54">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,10 +991,10 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32596</v>
+        <v>32605</v>
       </c>
       <c r="C55">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,10 +1002,10 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33392</v>
+        <v>33400</v>
       </c>
       <c r="C56">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,10 +1013,10 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33814</v>
+        <v>33820</v>
       </c>
       <c r="C57">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1024,7 +1024,7 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34281</v>
+        <v>34287</v>
       </c>
       <c r="C58">
         <v>467</v>
@@ -1035,10 +1035,10 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>35027</v>
+        <v>35035</v>
       </c>
       <c r="C59">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,10 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>35946</v>
+        <v>35955</v>
       </c>
       <c r="C60">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,10 +1057,10 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36826</v>
+        <v>36836</v>
       </c>
       <c r="C61">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,10 +1068,10 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37638</v>
+        <v>37650</v>
       </c>
       <c r="C62">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,7 +1079,7 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>38126</v>
+        <v>38138</v>
       </c>
       <c r="C63">
         <v>488</v>
@@ -1090,10 +1090,10 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38526</v>
+        <v>38537</v>
       </c>
       <c r="C64">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1101,10 +1101,10 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>38930</v>
+        <v>38942</v>
       </c>
       <c r="C65">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1112,7 +1112,7 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39446</v>
+        <v>39458</v>
       </c>
       <c r="C66">
         <v>516</v>
@@ -1123,10 +1123,10 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>40035</v>
+        <v>40060</v>
       </c>
       <c r="C67">
-        <v>589</v>
+        <v>602</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1134,10 +1134,10 @@
         <v>43944</v>
       </c>
       <c r="B68">
-        <v>40465</v>
+        <v>40603</v>
       </c>
       <c r="C68">
-        <v>430</v>
+        <v>543</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1145,10 +1145,21 @@
         <v>43945</v>
       </c>
       <c r="B69">
-        <v>40473</v>
+        <v>40945</v>
       </c>
       <c r="C69">
-        <v>8</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B70">
+        <v>40951</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +562,10 @@
         <v>43892</v>
       </c>
       <c r="B16">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -573,7 +573,7 @@
         <v>43893</v>
       </c>
       <c r="B17">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -584,7 +584,7 @@
         <v>43894</v>
       </c>
       <c r="B18">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -595,7 +595,7 @@
         <v>43895</v>
       </c>
       <c r="B19">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <v>22</v>
@@ -606,7 +606,7 @@
         <v>43896</v>
       </c>
       <c r="B20">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20">
         <v>52</v>
@@ -617,7 +617,7 @@
         <v>43897</v>
       </c>
       <c r="B21">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -628,7 +628,7 @@
         <v>43898</v>
       </c>
       <c r="B22">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22">
         <v>19</v>
@@ -639,10 +639,10 @@
         <v>43899</v>
       </c>
       <c r="B23">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C23">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -650,7 +650,7 @@
         <v>43900</v>
       </c>
       <c r="B24">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C24">
         <v>106</v>
@@ -661,7 +661,7 @@
         <v>43901</v>
       </c>
       <c r="B25">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C25">
         <v>117</v>
@@ -672,10 +672,10 @@
         <v>43902</v>
       </c>
       <c r="B26">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C26">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -683,7 +683,7 @@
         <v>43903</v>
       </c>
       <c r="B27">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C27">
         <v>255</v>
@@ -694,7 +694,7 @@
         <v>43904</v>
       </c>
       <c r="B28">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C28">
         <v>235</v>
@@ -705,7 +705,7 @@
         <v>43905</v>
       </c>
       <c r="B29">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C29">
         <v>165</v>
@@ -716,7 +716,7 @@
         <v>43906</v>
       </c>
       <c r="B30">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C30">
         <v>269</v>
@@ -727,7 +727,7 @@
         <v>43907</v>
       </c>
       <c r="B31">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="C31">
         <v>468</v>
@@ -738,7 +738,7 @@
         <v>43908</v>
       </c>
       <c r="B32">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="C32">
         <v>722</v>
@@ -749,10 +749,10 @@
         <v>43909</v>
       </c>
       <c r="B33">
-        <v>3508</v>
+        <v>3504</v>
       </c>
       <c r="C33">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -760,7 +760,7 @@
         <v>43910</v>
       </c>
       <c r="B34">
-        <v>4423</v>
+        <v>4419</v>
       </c>
       <c r="C34">
         <v>915</v>
@@ -771,7 +771,7 @@
         <v>43911</v>
       </c>
       <c r="B35">
-        <v>5493</v>
+        <v>5489</v>
       </c>
       <c r="C35">
         <v>1070</v>
@@ -782,7 +782,7 @@
         <v>43912</v>
       </c>
       <c r="B36">
-        <v>6104</v>
+        <v>6100</v>
       </c>
       <c r="C36">
         <v>611</v>
@@ -793,10 +793,10 @@
         <v>43913</v>
       </c>
       <c r="B37">
-        <v>6801</v>
+        <v>6796</v>
       </c>
       <c r="C37">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -804,7 +804,7 @@
         <v>43914</v>
       </c>
       <c r="B38">
-        <v>7949</v>
+        <v>7944</v>
       </c>
       <c r="C38">
         <v>1148</v>
@@ -815,10 +815,10 @@
         <v>43915</v>
       </c>
       <c r="B39">
-        <v>9582</v>
+        <v>9576</v>
       </c>
       <c r="C39">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,10 +826,10 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11223</v>
+        <v>11216</v>
       </c>
       <c r="C40">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,7 +837,7 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>13005</v>
+        <v>12998</v>
       </c>
       <c r="C41">
         <v>1782</v>
@@ -848,7 +848,7 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14467</v>
+        <v>14460</v>
       </c>
       <c r="C42">
         <v>1462</v>
@@ -859,7 +859,7 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15333</v>
+        <v>15326</v>
       </c>
       <c r="C43">
         <v>866</v>
@@ -870,7 +870,7 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16349</v>
+        <v>16342</v>
       </c>
       <c r="C44">
         <v>1016</v>
@@ -881,7 +881,7 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18132</v>
+        <v>18125</v>
       </c>
       <c r="C45">
         <v>1783</v>
@@ -892,10 +892,10 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20096</v>
+        <v>20090</v>
       </c>
       <c r="C46">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,7 +903,7 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22052</v>
+        <v>22046</v>
       </c>
       <c r="C47">
         <v>1956</v>
@@ -914,10 +914,10 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24033</v>
+        <v>24024</v>
       </c>
       <c r="C48">
-        <v>1981</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,7 +925,7 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25475</v>
+        <v>25466</v>
       </c>
       <c r="C49">
         <v>1442</v>
@@ -936,7 +936,7 @@
         <v>43926</v>
       </c>
       <c r="B50">
-        <v>26170</v>
+        <v>26161</v>
       </c>
       <c r="C50">
         <v>695</v>
@@ -947,10 +947,10 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27306</v>
+        <v>27298</v>
       </c>
       <c r="C51">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -958,10 +958,10 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28826</v>
+        <v>28817</v>
       </c>
       <c r="C52">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30392</v>
+        <v>30384</v>
       </c>
       <c r="C53">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31680</v>
+        <v>31673</v>
       </c>
       <c r="C54">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,10 +991,10 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32605</v>
+        <v>32599</v>
       </c>
       <c r="C55">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,7 +1002,7 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33400</v>
+        <v>33394</v>
       </c>
       <c r="C56">
         <v>795</v>
@@ -1013,10 +1013,10 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33820</v>
+        <v>33813</v>
       </c>
       <c r="C57">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1024,7 +1024,7 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34287</v>
+        <v>34280</v>
       </c>
       <c r="C58">
         <v>467</v>
@@ -1035,10 +1035,10 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>35035</v>
+        <v>35026</v>
       </c>
       <c r="C59">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,7 +1046,7 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>35955</v>
+        <v>35946</v>
       </c>
       <c r="C60">
         <v>920</v>
@@ -1057,7 +1057,7 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36836</v>
+        <v>36827</v>
       </c>
       <c r="C61">
         <v>881</v>
@@ -1068,10 +1068,10 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37650</v>
+        <v>37643</v>
       </c>
       <c r="C62">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,7 +1079,7 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>38138</v>
+        <v>38131</v>
       </c>
       <c r="C63">
         <v>488</v>
@@ -1090,10 +1090,10 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38537</v>
+        <v>38528</v>
       </c>
       <c r="C64">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1101,10 +1101,10 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>38942</v>
+        <v>38934</v>
       </c>
       <c r="C65">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1112,7 +1112,7 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39458</v>
+        <v>39450</v>
       </c>
       <c r="C66">
         <v>516</v>
@@ -1123,10 +1123,10 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>40060</v>
+        <v>40051</v>
       </c>
       <c r="C67">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1134,10 +1134,10 @@
         <v>43944</v>
       </c>
       <c r="B68">
-        <v>40603</v>
+        <v>40611</v>
       </c>
       <c r="C68">
-        <v>543</v>
+        <v>560</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1145,10 +1145,10 @@
         <v>43945</v>
       </c>
       <c r="B69">
-        <v>40945</v>
+        <v>41073</v>
       </c>
       <c r="C69">
-        <v>342</v>
+        <v>462</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1156,10 +1156,32 @@
         <v>43946</v>
       </c>
       <c r="B70">
-        <v>40951</v>
+        <v>41340</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B71">
+        <v>41404</v>
+      </c>
+      <c r="C71">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B72">
+        <v>41415</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -793,10 +793,10 @@
         <v>43913</v>
       </c>
       <c r="B37">
-        <v>6796</v>
+        <v>6797</v>
       </c>
       <c r="C37">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -804,7 +804,7 @@
         <v>43914</v>
       </c>
       <c r="B38">
-        <v>7944</v>
+        <v>7945</v>
       </c>
       <c r="C38">
         <v>1148</v>
@@ -815,7 +815,7 @@
         <v>43915</v>
       </c>
       <c r="B39">
-        <v>9576</v>
+        <v>9577</v>
       </c>
       <c r="C39">
         <v>1632</v>
@@ -826,7 +826,7 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11216</v>
+        <v>11217</v>
       </c>
       <c r="C40">
         <v>1640</v>
@@ -837,10 +837,10 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>12998</v>
+        <v>13002</v>
       </c>
       <c r="C41">
-        <v>1782</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -848,7 +848,7 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14460</v>
+        <v>14464</v>
       </c>
       <c r="C42">
         <v>1462</v>
@@ -859,7 +859,7 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15326</v>
+        <v>15330</v>
       </c>
       <c r="C43">
         <v>866</v>
@@ -870,7 +870,7 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16342</v>
+        <v>16346</v>
       </c>
       <c r="C44">
         <v>1016</v>
@@ -881,7 +881,7 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18125</v>
+        <v>18129</v>
       </c>
       <c r="C45">
         <v>1783</v>
@@ -892,10 +892,10 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20090</v>
+        <v>20093</v>
       </c>
       <c r="C46">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,10 +903,10 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22046</v>
+        <v>22050</v>
       </c>
       <c r="C47">
-        <v>1956</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,10 +914,10 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24024</v>
+        <v>24026</v>
       </c>
       <c r="C48">
-        <v>1978</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,10 +925,10 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25466</v>
+        <v>25470</v>
       </c>
       <c r="C49">
-        <v>1442</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,10 +936,10 @@
         <v>43926</v>
       </c>
       <c r="B50">
-        <v>26161</v>
+        <v>26166</v>
       </c>
       <c r="C50">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -947,7 +947,7 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27298</v>
+        <v>27303</v>
       </c>
       <c r="C51">
         <v>1137</v>
@@ -958,7 +958,7 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28817</v>
+        <v>28822</v>
       </c>
       <c r="C52">
         <v>1519</v>
@@ -969,7 +969,7 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30384</v>
+        <v>30389</v>
       </c>
       <c r="C53">
         <v>1567</v>
@@ -980,10 +980,10 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31673</v>
+        <v>31677</v>
       </c>
       <c r="C54">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,10 +991,10 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32599</v>
+        <v>32602</v>
       </c>
       <c r="C55">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,7 +1002,7 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33394</v>
+        <v>33397</v>
       </c>
       <c r="C56">
         <v>795</v>
@@ -1013,10 +1013,10 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33813</v>
+        <v>33815</v>
       </c>
       <c r="C57">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1024,7 +1024,7 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34280</v>
+        <v>34282</v>
       </c>
       <c r="C58">
         <v>467</v>
@@ -1035,10 +1035,10 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>35026</v>
+        <v>35029</v>
       </c>
       <c r="C59">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,10 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>35946</v>
+        <v>35948</v>
       </c>
       <c r="C60">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,10 +1057,10 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36827</v>
+        <v>36828</v>
       </c>
       <c r="C61">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,7 +1068,7 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37643</v>
+        <v>37644</v>
       </c>
       <c r="C62">
         <v>816</v>
@@ -1082,7 +1082,7 @@
         <v>38131</v>
       </c>
       <c r="C63">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1112,10 +1112,10 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39450</v>
+        <v>39451</v>
       </c>
       <c r="C66">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1123,10 +1123,10 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>40051</v>
+        <v>40053</v>
       </c>
       <c r="C67">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1134,10 +1134,10 @@
         <v>43944</v>
       </c>
       <c r="B68">
-        <v>40611</v>
+        <v>40622</v>
       </c>
       <c r="C68">
-        <v>560</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1145,10 +1145,10 @@
         <v>43945</v>
       </c>
       <c r="B69">
-        <v>41073</v>
+        <v>41118</v>
       </c>
       <c r="C69">
-        <v>462</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1156,10 +1156,10 @@
         <v>43946</v>
       </c>
       <c r="B70">
-        <v>41340</v>
+        <v>41449</v>
       </c>
       <c r="C70">
-        <v>267</v>
+        <v>331</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1167,10 +1167,10 @@
         <v>43947</v>
       </c>
       <c r="B71">
-        <v>41404</v>
+        <v>41590</v>
       </c>
       <c r="C71">
-        <v>64</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1178,10 +1178,21 @@
         <v>43948</v>
       </c>
       <c r="B72">
-        <v>41415</v>
+        <v>41802</v>
       </c>
       <c r="C72">
-        <v>11</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B73">
+        <v>41804</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,10 +430,10 @@
         <v>43861</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,7 +441,7 @@
         <v>43864</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -452,7 +452,7 @@
         <v>43865</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -463,7 +463,7 @@
         <v>43866</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -474,7 +474,7 @@
         <v>43867</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -485,7 +485,7 @@
         <v>43868</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -496,7 +496,7 @@
         <v>43872</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -507,7 +507,7 @@
         <v>43873</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -518,7 +518,7 @@
         <v>43888</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -529,7 +529,7 @@
         <v>43889</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -540,7 +540,7 @@
         <v>43890</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -551,7 +551,7 @@
         <v>43891</v>
       </c>
       <c r="B15">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -562,7 +562,7 @@
         <v>43892</v>
       </c>
       <c r="B16">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -573,7 +573,7 @@
         <v>43893</v>
       </c>
       <c r="B17">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -584,7 +584,7 @@
         <v>43894</v>
       </c>
       <c r="B18">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -595,7 +595,7 @@
         <v>43895</v>
       </c>
       <c r="B19">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19">
         <v>22</v>
@@ -606,7 +606,7 @@
         <v>43896</v>
       </c>
       <c r="B20">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20">
         <v>52</v>
@@ -617,7 +617,7 @@
         <v>43897</v>
       </c>
       <c r="B21">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -628,7 +628,7 @@
         <v>43898</v>
       </c>
       <c r="B22">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22">
         <v>19</v>
@@ -639,7 +639,7 @@
         <v>43899</v>
       </c>
       <c r="B23">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C23">
         <v>84</v>
@@ -650,7 +650,7 @@
         <v>43900</v>
       </c>
       <c r="B24">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C24">
         <v>106</v>
@@ -661,7 +661,7 @@
         <v>43901</v>
       </c>
       <c r="B25">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C25">
         <v>117</v>
@@ -672,7 +672,7 @@
         <v>43902</v>
       </c>
       <c r="B26">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C26">
         <v>132</v>
@@ -683,7 +683,7 @@
         <v>43903</v>
       </c>
       <c r="B27">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C27">
         <v>255</v>
@@ -694,7 +694,7 @@
         <v>43904</v>
       </c>
       <c r="B28">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C28">
         <v>235</v>
@@ -705,7 +705,7 @@
         <v>43905</v>
       </c>
       <c r="B29">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C29">
         <v>165</v>
@@ -716,7 +716,7 @@
         <v>43906</v>
       </c>
       <c r="B30">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C30">
         <v>269</v>
@@ -727,10 +727,10 @@
         <v>43907</v>
       </c>
       <c r="B31">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="C31">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -738,10 +738,10 @@
         <v>43908</v>
       </c>
       <c r="B32">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="C32">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -749,10 +749,10 @@
         <v>43909</v>
       </c>
       <c r="B33">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="C33">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -760,10 +760,10 @@
         <v>43910</v>
       </c>
       <c r="B34">
-        <v>4419</v>
+        <v>4415</v>
       </c>
       <c r="C34">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -771,7 +771,7 @@
         <v>43911</v>
       </c>
       <c r="B35">
-        <v>5489</v>
+        <v>5485</v>
       </c>
       <c r="C35">
         <v>1070</v>
@@ -782,10 +782,10 @@
         <v>43912</v>
       </c>
       <c r="B36">
-        <v>6100</v>
+        <v>6097</v>
       </c>
       <c r="C36">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -793,10 +793,10 @@
         <v>43913</v>
       </c>
       <c r="B37">
-        <v>6797</v>
+        <v>6795</v>
       </c>
       <c r="C37">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -804,10 +804,10 @@
         <v>43914</v>
       </c>
       <c r="B38">
-        <v>7945</v>
+        <v>7941</v>
       </c>
       <c r="C38">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,7 +815,7 @@
         <v>43915</v>
       </c>
       <c r="B39">
-        <v>9577</v>
+        <v>9573</v>
       </c>
       <c r="C39">
         <v>1632</v>
@@ -826,10 +826,10 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11217</v>
+        <v>11216</v>
       </c>
       <c r="C40">
-        <v>1640</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,10 +837,10 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>13002</v>
+        <v>13003</v>
       </c>
       <c r="C41">
-        <v>1785</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -848,10 +848,10 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14464</v>
+        <v>14463</v>
       </c>
       <c r="C42">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -859,10 +859,10 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15330</v>
+        <v>15331</v>
       </c>
       <c r="C43">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -870,10 +870,10 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16346</v>
+        <v>16349</v>
       </c>
       <c r="C44">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,10 +881,10 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18129</v>
+        <v>18130</v>
       </c>
       <c r="C45">
-        <v>1783</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -892,7 +892,7 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20093</v>
+        <v>20094</v>
       </c>
       <c r="C46">
         <v>1964</v>
@@ -903,10 +903,10 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22050</v>
+        <v>22049</v>
       </c>
       <c r="C47">
-        <v>1957</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,7 +914,7 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24026</v>
+        <v>24025</v>
       </c>
       <c r="C48">
         <v>1976</v>
@@ -925,7 +925,7 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25470</v>
+        <v>25469</v>
       </c>
       <c r="C49">
         <v>1444</v>
@@ -939,7 +939,7 @@
         <v>26166</v>
       </c>
       <c r="C50">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30389</v>
+        <v>30390</v>
       </c>
       <c r="C53">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31677</v>
+        <v>31679</v>
       </c>
       <c r="C54">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,10 +991,10 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32602</v>
+        <v>32605</v>
       </c>
       <c r="C55">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,7 +1002,7 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33397</v>
+        <v>33400</v>
       </c>
       <c r="C56">
         <v>795</v>
@@ -1013,10 +1013,10 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33815</v>
+        <v>33817</v>
       </c>
       <c r="C57">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1024,7 +1024,7 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34282</v>
+        <v>34284</v>
       </c>
       <c r="C58">
         <v>467</v>
@@ -1035,10 +1035,10 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>35029</v>
+        <v>35033</v>
       </c>
       <c r="C59">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,10 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>35948</v>
+        <v>35953</v>
       </c>
       <c r="C60">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,10 +1057,10 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36828</v>
+        <v>36831</v>
       </c>
       <c r="C61">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,10 +1068,10 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37644</v>
+        <v>37650</v>
       </c>
       <c r="C62">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,7 +1079,7 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>38131</v>
+        <v>38137</v>
       </c>
       <c r="C63">
         <v>487</v>
@@ -1090,7 +1090,7 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38528</v>
+        <v>38534</v>
       </c>
       <c r="C64">
         <v>397</v>
@@ -1101,10 +1101,10 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>38934</v>
+        <v>38939</v>
       </c>
       <c r="C65">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1112,7 +1112,7 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39451</v>
+        <v>39456</v>
       </c>
       <c r="C66">
         <v>517</v>
@@ -1123,10 +1123,10 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>40053</v>
+        <v>40056</v>
       </c>
       <c r="C67">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1134,10 +1134,10 @@
         <v>43944</v>
       </c>
       <c r="B68">
-        <v>40622</v>
+        <v>40633</v>
       </c>
       <c r="C68">
-        <v>569</v>
+        <v>577</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1145,10 +1145,10 @@
         <v>43945</v>
       </c>
       <c r="B69">
-        <v>41118</v>
+        <v>41136</v>
       </c>
       <c r="C69">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1156,10 +1156,10 @@
         <v>43946</v>
       </c>
       <c r="B70">
-        <v>41449</v>
+        <v>41470</v>
       </c>
       <c r="C70">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1167,10 +1167,10 @@
         <v>43947</v>
       </c>
       <c r="B71">
-        <v>41590</v>
+        <v>41632</v>
       </c>
       <c r="C71">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1178,10 +1178,10 @@
         <v>43948</v>
       </c>
       <c r="B72">
-        <v>41802</v>
+        <v>41966</v>
       </c>
       <c r="C72">
-        <v>212</v>
+        <v>334</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1189,10 +1189,21 @@
         <v>43949</v>
       </c>
       <c r="B73">
-        <v>41804</v>
+        <v>42216</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B74">
+        <v>42217</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,10 +705,10 @@
         <v>43905</v>
       </c>
       <c r="B29">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C29">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -716,7 +716,7 @@
         <v>43906</v>
       </c>
       <c r="B30">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="C30">
         <v>269</v>
@@ -730,7 +730,7 @@
         <v>1992</v>
       </c>
       <c r="C31">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -738,10 +738,10 @@
         <v>43908</v>
       </c>
       <c r="B32">
-        <v>2717</v>
+        <v>2721</v>
       </c>
       <c r="C32">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -749,10 +749,10 @@
         <v>43909</v>
       </c>
       <c r="B33">
-        <v>3503</v>
+        <v>3505</v>
       </c>
       <c r="C33">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -760,7 +760,7 @@
         <v>43910</v>
       </c>
       <c r="B34">
-        <v>4415</v>
+        <v>4417</v>
       </c>
       <c r="C34">
         <v>912</v>
@@ -771,7 +771,7 @@
         <v>43911</v>
       </c>
       <c r="B35">
-        <v>5485</v>
+        <v>5487</v>
       </c>
       <c r="C35">
         <v>1070</v>
@@ -782,10 +782,10 @@
         <v>43912</v>
       </c>
       <c r="B36">
-        <v>6097</v>
+        <v>6100</v>
       </c>
       <c r="C36">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -793,10 +793,10 @@
         <v>43913</v>
       </c>
       <c r="B37">
-        <v>6795</v>
+        <v>6800</v>
       </c>
       <c r="C37">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -804,10 +804,10 @@
         <v>43914</v>
       </c>
       <c r="B38">
-        <v>7941</v>
+        <v>7943</v>
       </c>
       <c r="C38">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,10 +815,10 @@
         <v>43915</v>
       </c>
       <c r="B39">
-        <v>9573</v>
+        <v>9576</v>
       </c>
       <c r="C39">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,10 +826,10 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11216</v>
+        <v>11221</v>
       </c>
       <c r="C40">
-        <v>1643</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,7 +837,7 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>13003</v>
+        <v>13008</v>
       </c>
       <c r="C41">
         <v>1787</v>
@@ -848,10 +848,10 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14463</v>
+        <v>14472</v>
       </c>
       <c r="C42">
-        <v>1460</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -859,10 +859,10 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15331</v>
+        <v>15344</v>
       </c>
       <c r="C43">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -870,10 +870,10 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16349</v>
+        <v>16361</v>
       </c>
       <c r="C44">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,10 +881,10 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18130</v>
+        <v>18143</v>
       </c>
       <c r="C45">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -892,7 +892,7 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20094</v>
+        <v>20107</v>
       </c>
       <c r="C46">
         <v>1964</v>
@@ -903,10 +903,10 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22049</v>
+        <v>22065</v>
       </c>
       <c r="C47">
-        <v>1955</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,10 +914,10 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24025</v>
+        <v>24048</v>
       </c>
       <c r="C48">
-        <v>1976</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,10 +925,10 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25469</v>
+        <v>25493</v>
       </c>
       <c r="C49">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,10 +936,10 @@
         <v>43926</v>
       </c>
       <c r="B50">
-        <v>26166</v>
+        <v>26188</v>
       </c>
       <c r="C50">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -947,10 +947,10 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27303</v>
+        <v>27327</v>
       </c>
       <c r="C51">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -958,10 +958,10 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28822</v>
+        <v>28842</v>
       </c>
       <c r="C52">
-        <v>1519</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30390</v>
+        <v>30412</v>
       </c>
       <c r="C53">
-        <v>1568</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31679</v>
+        <v>31702</v>
       </c>
       <c r="C54">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,7 +991,7 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32605</v>
+        <v>32628</v>
       </c>
       <c r="C55">
         <v>926</v>
@@ -1002,10 +1002,10 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33400</v>
+        <v>33424</v>
       </c>
       <c r="C56">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,10 +1013,10 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33817</v>
+        <v>33842</v>
       </c>
       <c r="C57">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1024,10 +1024,10 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34284</v>
+        <v>34310</v>
       </c>
       <c r="C58">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1035,10 +1035,10 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>35033</v>
+        <v>35062</v>
       </c>
       <c r="C59">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,10 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>35953</v>
+        <v>35985</v>
       </c>
       <c r="C60">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,10 +1057,10 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36831</v>
+        <v>36864</v>
       </c>
       <c r="C61">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,7 +1068,7 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37650</v>
+        <v>37683</v>
       </c>
       <c r="C62">
         <v>819</v>
@@ -1079,10 +1079,10 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>38137</v>
+        <v>38171</v>
       </c>
       <c r="C63">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1090,10 +1090,10 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38534</v>
+        <v>38570</v>
       </c>
       <c r="C64">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1101,10 +1101,10 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>38939</v>
+        <v>38976</v>
       </c>
       <c r="C65">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1112,7 +1112,7 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39456</v>
+        <v>39493</v>
       </c>
       <c r="C66">
         <v>517</v>
@@ -1123,10 +1123,10 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>40056</v>
+        <v>40098</v>
       </c>
       <c r="C67">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1134,7 +1134,7 @@
         <v>43944</v>
       </c>
       <c r="B68">
-        <v>40633</v>
+        <v>40675</v>
       </c>
       <c r="C68">
         <v>577</v>
@@ -1145,10 +1145,10 @@
         <v>43945</v>
       </c>
       <c r="B69">
-        <v>41136</v>
+        <v>41193</v>
       </c>
       <c r="C69">
-        <v>503</v>
+        <v>518</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1156,10 +1156,10 @@
         <v>43946</v>
       </c>
       <c r="B70">
-        <v>41470</v>
+        <v>41528</v>
       </c>
       <c r="C70">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1167,10 +1167,10 @@
         <v>43947</v>
       </c>
       <c r="B71">
-        <v>41632</v>
+        <v>41696</v>
       </c>
       <c r="C71">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1178,10 +1178,10 @@
         <v>43948</v>
       </c>
       <c r="B72">
-        <v>41966</v>
+        <v>42060</v>
       </c>
       <c r="C72">
-        <v>334</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1189,10 +1189,10 @@
         <v>43949</v>
       </c>
       <c r="B73">
-        <v>42216</v>
+        <v>42397</v>
       </c>
       <c r="C73">
-        <v>250</v>
+        <v>337</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1200,10 +1200,32 @@
         <v>43950</v>
       </c>
       <c r="B74">
-        <v>42217</v>
+        <v>42708</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B75">
+        <v>42958</v>
+      </c>
+      <c r="C75">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B76">
+        <v>43050</v>
+      </c>
+      <c r="C76">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -804,10 +804,10 @@
         <v>43914</v>
       </c>
       <c r="B38">
-        <v>7943</v>
+        <v>7944</v>
       </c>
       <c r="C38">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,10 +815,10 @@
         <v>43915</v>
       </c>
       <c r="B39">
-        <v>9576</v>
+        <v>9578</v>
       </c>
       <c r="C39">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,7 +826,7 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11221</v>
+        <v>11223</v>
       </c>
       <c r="C40">
         <v>1645</v>
@@ -837,7 +837,7 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>13008</v>
+        <v>13010</v>
       </c>
       <c r="C41">
         <v>1787</v>
@@ -848,7 +848,7 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14472</v>
+        <v>14474</v>
       </c>
       <c r="C42">
         <v>1464</v>
@@ -859,7 +859,7 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15344</v>
+        <v>15346</v>
       </c>
       <c r="C43">
         <v>872</v>
@@ -870,7 +870,7 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16361</v>
+        <v>16363</v>
       </c>
       <c r="C44">
         <v>1017</v>
@@ -881,7 +881,7 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18143</v>
+        <v>18145</v>
       </c>
       <c r="C45">
         <v>1782</v>
@@ -892,10 +892,10 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20107</v>
+        <v>20112</v>
       </c>
       <c r="C46">
-        <v>1964</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,10 +903,10 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22065</v>
+        <v>22069</v>
       </c>
       <c r="C47">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,7 +914,7 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24048</v>
+        <v>24052</v>
       </c>
       <c r="C48">
         <v>1983</v>
@@ -925,7 +925,7 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25493</v>
+        <v>25497</v>
       </c>
       <c r="C49">
         <v>1445</v>
@@ -936,7 +936,7 @@
         <v>43926</v>
       </c>
       <c r="B50">
-        <v>26188</v>
+        <v>26192</v>
       </c>
       <c r="C50">
         <v>695</v>
@@ -947,7 +947,7 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27327</v>
+        <v>27331</v>
       </c>
       <c r="C51">
         <v>1139</v>
@@ -958,7 +958,7 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28842</v>
+        <v>28846</v>
       </c>
       <c r="C52">
         <v>1515</v>
@@ -969,7 +969,7 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30412</v>
+        <v>30416</v>
       </c>
       <c r="C53">
         <v>1570</v>
@@ -980,7 +980,7 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31702</v>
+        <v>31706</v>
       </c>
       <c r="C54">
         <v>1290</v>
@@ -991,7 +991,7 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32628</v>
+        <v>32632</v>
       </c>
       <c r="C55">
         <v>926</v>
@@ -1002,10 +1002,10 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33424</v>
+        <v>33429</v>
       </c>
       <c r="C56">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,7 +1013,7 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33842</v>
+        <v>33847</v>
       </c>
       <c r="C57">
         <v>418</v>
@@ -1024,7 +1024,7 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34310</v>
+        <v>34315</v>
       </c>
       <c r="C58">
         <v>468</v>
@@ -1035,7 +1035,7 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>35062</v>
+        <v>35067</v>
       </c>
       <c r="C59">
         <v>752</v>
@@ -1046,10 +1046,10 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>35985</v>
+        <v>35991</v>
       </c>
       <c r="C60">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,10 +1057,10 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36864</v>
+        <v>36871</v>
       </c>
       <c r="C61">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,10 +1068,10 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37683</v>
+        <v>37691</v>
       </c>
       <c r="C62">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,7 +1079,7 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>38171</v>
+        <v>38179</v>
       </c>
       <c r="C63">
         <v>488</v>
@@ -1090,7 +1090,7 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38570</v>
+        <v>38578</v>
       </c>
       <c r="C64">
         <v>399</v>
@@ -1101,7 +1101,7 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>38976</v>
+        <v>38984</v>
       </c>
       <c r="C65">
         <v>406</v>
@@ -1112,7 +1112,7 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39493</v>
+        <v>39501</v>
       </c>
       <c r="C66">
         <v>517</v>
@@ -1123,7 +1123,7 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>40098</v>
+        <v>40106</v>
       </c>
       <c r="C67">
         <v>605</v>
@@ -1134,10 +1134,10 @@
         <v>43944</v>
       </c>
       <c r="B68">
-        <v>40675</v>
+        <v>40682</v>
       </c>
       <c r="C68">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1145,10 +1145,10 @@
         <v>43945</v>
       </c>
       <c r="B69">
-        <v>41193</v>
+        <v>41199</v>
       </c>
       <c r="C69">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1156,10 +1156,10 @@
         <v>43946</v>
       </c>
       <c r="B70">
-        <v>41528</v>
+        <v>41536</v>
       </c>
       <c r="C70">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1167,7 +1167,7 @@
         <v>43947</v>
       </c>
       <c r="B71">
-        <v>41696</v>
+        <v>41704</v>
       </c>
       <c r="C71">
         <v>168</v>
@@ -1178,7 +1178,7 @@
         <v>43948</v>
       </c>
       <c r="B72">
-        <v>42060</v>
+        <v>42068</v>
       </c>
       <c r="C72">
         <v>364</v>
@@ -1189,10 +1189,10 @@
         <v>43949</v>
       </c>
       <c r="B73">
-        <v>42397</v>
+        <v>42409</v>
       </c>
       <c r="C73">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1200,10 +1200,10 @@
         <v>43950</v>
       </c>
       <c r="B74">
-        <v>42708</v>
+        <v>42722</v>
       </c>
       <c r="C74">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1211,10 +1211,10 @@
         <v>43951</v>
       </c>
       <c r="B75">
-        <v>42958</v>
+        <v>42978</v>
       </c>
       <c r="C75">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1222,10 +1222,32 @@
         <v>43952</v>
       </c>
       <c r="B76">
-        <v>43050</v>
+        <v>43091</v>
       </c>
       <c r="C76">
-        <v>92</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B77">
+        <v>43203</v>
+      </c>
+      <c r="C77">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B78">
+        <v>43204</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -848,10 +848,10 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14474</v>
+        <v>14475</v>
       </c>
       <c r="C42">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -859,7 +859,7 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15346</v>
+        <v>15347</v>
       </c>
       <c r="C43">
         <v>872</v>
@@ -870,7 +870,7 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16363</v>
+        <v>16364</v>
       </c>
       <c r="C44">
         <v>1017</v>
@@ -881,7 +881,7 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18145</v>
+        <v>18146</v>
       </c>
       <c r="C45">
         <v>1782</v>
@@ -892,7 +892,7 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20112</v>
+        <v>20113</v>
       </c>
       <c r="C46">
         <v>1967</v>
@@ -903,7 +903,7 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22069</v>
+        <v>22070</v>
       </c>
       <c r="C47">
         <v>1957</v>
@@ -914,7 +914,7 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24052</v>
+        <v>24053</v>
       </c>
       <c r="C48">
         <v>1983</v>
@@ -925,7 +925,7 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25497</v>
+        <v>25498</v>
       </c>
       <c r="C49">
         <v>1445</v>
@@ -936,7 +936,7 @@
         <v>43926</v>
       </c>
       <c r="B50">
-        <v>26192</v>
+        <v>26193</v>
       </c>
       <c r="C50">
         <v>695</v>
@@ -947,7 +947,7 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27331</v>
+        <v>27332</v>
       </c>
       <c r="C51">
         <v>1139</v>
@@ -958,7 +958,7 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28846</v>
+        <v>28847</v>
       </c>
       <c r="C52">
         <v>1515</v>
@@ -972,7 +972,7 @@
         <v>30416</v>
       </c>
       <c r="C53">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31706</v>
+        <v>31708</v>
       </c>
       <c r="C54">
-        <v>1290</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,7 +991,7 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32632</v>
+        <v>32634</v>
       </c>
       <c r="C55">
         <v>926</v>
@@ -1002,7 +1002,7 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33429</v>
+        <v>33431</v>
       </c>
       <c r="C56">
         <v>797</v>
@@ -1013,7 +1013,7 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33847</v>
+        <v>33849</v>
       </c>
       <c r="C57">
         <v>418</v>
@@ -1024,7 +1024,7 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34315</v>
+        <v>34317</v>
       </c>
       <c r="C58">
         <v>468</v>
@@ -1035,7 +1035,7 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>35067</v>
+        <v>35069</v>
       </c>
       <c r="C59">
         <v>752</v>
@@ -1046,7 +1046,7 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>35991</v>
+        <v>35993</v>
       </c>
       <c r="C60">
         <v>924</v>
@@ -1057,7 +1057,7 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36871</v>
+        <v>36873</v>
       </c>
       <c r="C61">
         <v>880</v>
@@ -1068,10 +1068,10 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37691</v>
+        <v>37692</v>
       </c>
       <c r="C62">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,7 +1079,7 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>38179</v>
+        <v>38180</v>
       </c>
       <c r="C63">
         <v>488</v>
@@ -1090,7 +1090,7 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38578</v>
+        <v>38579</v>
       </c>
       <c r="C64">
         <v>399</v>
@@ -1101,7 +1101,7 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>38984</v>
+        <v>38985</v>
       </c>
       <c r="C65">
         <v>406</v>
@@ -1112,7 +1112,7 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39501</v>
+        <v>39502</v>
       </c>
       <c r="C66">
         <v>517</v>
@@ -1123,7 +1123,7 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>40106</v>
+        <v>40107</v>
       </c>
       <c r="C67">
         <v>605</v>
@@ -1134,7 +1134,7 @@
         <v>43944</v>
       </c>
       <c r="B68">
-        <v>40682</v>
+        <v>40683</v>
       </c>
       <c r="C68">
         <v>576</v>
@@ -1145,10 +1145,10 @@
         <v>43945</v>
       </c>
       <c r="B69">
-        <v>41199</v>
+        <v>41201</v>
       </c>
       <c r="C69">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1156,10 +1156,10 @@
         <v>43946</v>
       </c>
       <c r="B70">
-        <v>41536</v>
+        <v>41539</v>
       </c>
       <c r="C70">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1167,7 +1167,7 @@
         <v>43947</v>
       </c>
       <c r="B71">
-        <v>41704</v>
+        <v>41707</v>
       </c>
       <c r="C71">
         <v>168</v>
@@ -1178,10 +1178,10 @@
         <v>43948</v>
       </c>
       <c r="B72">
-        <v>42068</v>
+        <v>42072</v>
       </c>
       <c r="C72">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1189,10 +1189,10 @@
         <v>43949</v>
       </c>
       <c r="B73">
-        <v>42409</v>
+        <v>42417</v>
       </c>
       <c r="C73">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1200,10 +1200,10 @@
         <v>43950</v>
       </c>
       <c r="B74">
-        <v>42722</v>
+        <v>42731</v>
       </c>
       <c r="C74">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1211,10 +1211,10 @@
         <v>43951</v>
       </c>
       <c r="B75">
-        <v>42978</v>
+        <v>43019</v>
       </c>
       <c r="C75">
-        <v>256</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1222,10 +1222,10 @@
         <v>43952</v>
       </c>
       <c r="B76">
-        <v>43091</v>
+        <v>43193</v>
       </c>
       <c r="C76">
-        <v>113</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1233,10 +1233,10 @@
         <v>43953</v>
       </c>
       <c r="B77">
-        <v>43203</v>
+        <v>43336</v>
       </c>
       <c r="C77">
-        <v>112</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1244,9 +1244,20 @@
         <v>43954</v>
       </c>
       <c r="B78">
-        <v>43204</v>
+        <v>43406</v>
       </c>
       <c r="C78">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B79">
+        <v>43407</v>
+      </c>
+      <c r="C79">
         <v>1</v>
       </c>
     </row>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -738,10 +738,10 @@
         <v>43908</v>
       </c>
       <c r="B32">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="C32">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -749,7 +749,7 @@
         <v>43909</v>
       </c>
       <c r="B33">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="C33">
         <v>784</v>
@@ -760,10 +760,10 @@
         <v>43910</v>
       </c>
       <c r="B34">
-        <v>4417</v>
+        <v>4419</v>
       </c>
       <c r="C34">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -771,10 +771,10 @@
         <v>43911</v>
       </c>
       <c r="B35">
-        <v>5487</v>
+        <v>5488</v>
       </c>
       <c r="C35">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -782,7 +782,7 @@
         <v>43912</v>
       </c>
       <c r="B36">
-        <v>6100</v>
+        <v>6101</v>
       </c>
       <c r="C36">
         <v>613</v>
@@ -793,7 +793,7 @@
         <v>43913</v>
       </c>
       <c r="B37">
-        <v>6800</v>
+        <v>6801</v>
       </c>
       <c r="C37">
         <v>700</v>
@@ -804,7 +804,7 @@
         <v>43914</v>
       </c>
       <c r="B38">
-        <v>7944</v>
+        <v>7945</v>
       </c>
       <c r="C38">
         <v>1144</v>
@@ -815,10 +815,10 @@
         <v>43915</v>
       </c>
       <c r="B39">
-        <v>9578</v>
+        <v>9580</v>
       </c>
       <c r="C39">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,10 +826,10 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11223</v>
+        <v>11226</v>
       </c>
       <c r="C40">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,7 +837,7 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>13010</v>
+        <v>13013</v>
       </c>
       <c r="C41">
         <v>1787</v>
@@ -848,10 +848,10 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14475</v>
+        <v>14480</v>
       </c>
       <c r="C42">
-        <v>1465</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -859,10 +859,10 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15347</v>
+        <v>15353</v>
       </c>
       <c r="C43">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -870,10 +870,10 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16364</v>
+        <v>16369</v>
       </c>
       <c r="C44">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,7 +881,7 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18146</v>
+        <v>18151</v>
       </c>
       <c r="C45">
         <v>1782</v>
@@ -892,7 +892,7 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20113</v>
+        <v>20118</v>
       </c>
       <c r="C46">
         <v>1967</v>
@@ -903,10 +903,10 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22070</v>
+        <v>22073</v>
       </c>
       <c r="C47">
-        <v>1957</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,10 +914,10 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24053</v>
+        <v>24058</v>
       </c>
       <c r="C48">
-        <v>1983</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,10 +925,10 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25498</v>
+        <v>25502</v>
       </c>
       <c r="C49">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,7 +936,7 @@
         <v>43926</v>
       </c>
       <c r="B50">
-        <v>26193</v>
+        <v>26197</v>
       </c>
       <c r="C50">
         <v>695</v>
@@ -947,7 +947,7 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27332</v>
+        <v>27336</v>
       </c>
       <c r="C51">
         <v>1139</v>
@@ -958,10 +958,10 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28847</v>
+        <v>28853</v>
       </c>
       <c r="C52">
-        <v>1515</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,7 +969,7 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30416</v>
+        <v>30422</v>
       </c>
       <c r="C53">
         <v>1569</v>
@@ -980,10 +980,10 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31708</v>
+        <v>31712</v>
       </c>
       <c r="C54">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,7 +991,7 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32634</v>
+        <v>32638</v>
       </c>
       <c r="C55">
         <v>926</v>
@@ -1002,10 +1002,10 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33431</v>
+        <v>33436</v>
       </c>
       <c r="C56">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,7 +1013,7 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33849</v>
+        <v>33854</v>
       </c>
       <c r="C57">
         <v>418</v>
@@ -1024,10 +1024,10 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34317</v>
+        <v>34323</v>
       </c>
       <c r="C58">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1035,10 +1035,10 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>35069</v>
+        <v>35076</v>
       </c>
       <c r="C59">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,10 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>35993</v>
+        <v>36001</v>
       </c>
       <c r="C60">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,7 +1057,7 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36873</v>
+        <v>36881</v>
       </c>
       <c r="C61">
         <v>880</v>
@@ -1068,10 +1068,10 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37692</v>
+        <v>37703</v>
       </c>
       <c r="C62">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,10 +1079,10 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>38180</v>
+        <v>38190</v>
       </c>
       <c r="C63">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1090,10 +1090,10 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38579</v>
+        <v>38588</v>
       </c>
       <c r="C64">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>38985</v>
+        <v>38994</v>
       </c>
       <c r="C65">
         <v>406</v>
@@ -1112,10 +1112,10 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39502</v>
+        <v>39512</v>
       </c>
       <c r="C66">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1123,7 +1123,7 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>40107</v>
+        <v>40117</v>
       </c>
       <c r="C67">
         <v>605</v>
@@ -1134,7 +1134,7 @@
         <v>43944</v>
       </c>
       <c r="B68">
-        <v>40683</v>
+        <v>40693</v>
       </c>
       <c r="C68">
         <v>576</v>
@@ -1145,10 +1145,10 @@
         <v>43945</v>
       </c>
       <c r="B69">
-        <v>41201</v>
+        <v>41212</v>
       </c>
       <c r="C69">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1156,10 +1156,10 @@
         <v>43946</v>
       </c>
       <c r="B70">
-        <v>41539</v>
+        <v>41551</v>
       </c>
       <c r="C70">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1167,10 +1167,10 @@
         <v>43947</v>
       </c>
       <c r="B71">
-        <v>41707</v>
+        <v>41720</v>
       </c>
       <c r="C71">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1178,10 +1178,10 @@
         <v>43948</v>
       </c>
       <c r="B72">
-        <v>42072</v>
+        <v>42084</v>
       </c>
       <c r="C72">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1189,10 +1189,10 @@
         <v>43949</v>
       </c>
       <c r="B73">
-        <v>42417</v>
+        <v>42431</v>
       </c>
       <c r="C73">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1200,10 +1200,10 @@
         <v>43950</v>
       </c>
       <c r="B74">
-        <v>42731</v>
+        <v>42740</v>
       </c>
       <c r="C74">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1211,10 +1211,10 @@
         <v>43951</v>
       </c>
       <c r="B75">
-        <v>43019</v>
+        <v>43041</v>
       </c>
       <c r="C75">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1222,10 +1222,10 @@
         <v>43952</v>
       </c>
       <c r="B76">
-        <v>43193</v>
+        <v>43230</v>
       </c>
       <c r="C76">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1233,10 +1233,10 @@
         <v>43953</v>
       </c>
       <c r="B77">
-        <v>43336</v>
+        <v>43387</v>
       </c>
       <c r="C77">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1244,10 +1244,10 @@
         <v>43954</v>
       </c>
       <c r="B78">
-        <v>43406</v>
+        <v>43468</v>
       </c>
       <c r="C78">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1255,10 +1255,21 @@
         <v>43955</v>
       </c>
       <c r="B79">
-        <v>43407</v>
+        <v>43593</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B80">
+        <v>43596</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,10 +650,10 @@
         <v>43900</v>
       </c>
       <c r="B24">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C24">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -661,10 +661,10 @@
         <v>43901</v>
       </c>
       <c r="B25">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C25">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -672,7 +672,7 @@
         <v>43902</v>
       </c>
       <c r="B26">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C26">
         <v>132</v>
@@ -683,10 +683,10 @@
         <v>43903</v>
       </c>
       <c r="B27">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C27">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -694,7 +694,7 @@
         <v>43904</v>
       </c>
       <c r="B28">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C28">
         <v>235</v>
@@ -705,10 +705,10 @@
         <v>43905</v>
       </c>
       <c r="B29">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C29">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -716,10 +716,10 @@
         <v>43906</v>
       </c>
       <c r="B30">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="C30">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -727,10 +727,10 @@
         <v>43907</v>
       </c>
       <c r="B31">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="C31">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -738,10 +738,10 @@
         <v>43908</v>
       </c>
       <c r="B32">
-        <v>2722</v>
+        <v>2717</v>
       </c>
       <c r="C32">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -749,10 +749,10 @@
         <v>43909</v>
       </c>
       <c r="B33">
-        <v>3506</v>
+        <v>3499</v>
       </c>
       <c r="C33">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -760,10 +760,10 @@
         <v>43910</v>
       </c>
       <c r="B34">
-        <v>4419</v>
+        <v>4411</v>
       </c>
       <c r="C34">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -771,10 +771,10 @@
         <v>43911</v>
       </c>
       <c r="B35">
-        <v>5488</v>
+        <v>5479</v>
       </c>
       <c r="C35">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -782,10 +782,10 @@
         <v>43912</v>
       </c>
       <c r="B36">
-        <v>6101</v>
+        <v>6089</v>
       </c>
       <c r="C36">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -793,10 +793,10 @@
         <v>43913</v>
       </c>
       <c r="B37">
-        <v>6801</v>
+        <v>6790</v>
       </c>
       <c r="C37">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -804,10 +804,10 @@
         <v>43914</v>
       </c>
       <c r="B38">
-        <v>7945</v>
+        <v>7932</v>
       </c>
       <c r="C38">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,10 +815,10 @@
         <v>43915</v>
       </c>
       <c r="B39">
-        <v>9580</v>
+        <v>9564</v>
       </c>
       <c r="C39">
-        <v>1635</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,7 +826,7 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11226</v>
+        <v>11210</v>
       </c>
       <c r="C40">
         <v>1646</v>
@@ -837,10 +837,10 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>13013</v>
+        <v>12996</v>
       </c>
       <c r="C41">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -848,10 +848,10 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14480</v>
+        <v>14464</v>
       </c>
       <c r="C42">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -859,10 +859,10 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15353</v>
+        <v>15336</v>
       </c>
       <c r="C43">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -870,10 +870,10 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16369</v>
+        <v>16353</v>
       </c>
       <c r="C44">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,7 +881,7 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18151</v>
+        <v>18135</v>
       </c>
       <c r="C45">
         <v>1782</v>
@@ -892,10 +892,10 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20118</v>
+        <v>20100</v>
       </c>
       <c r="C46">
-        <v>1967</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,10 +903,10 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22073</v>
+        <v>22057</v>
       </c>
       <c r="C47">
-        <v>1955</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,10 +914,10 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24058</v>
+        <v>24040</v>
       </c>
       <c r="C48">
-        <v>1985</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,10 +925,10 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25502</v>
+        <v>25485</v>
       </c>
       <c r="C49">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,10 +936,10 @@
         <v>43926</v>
       </c>
       <c r="B50">
-        <v>26197</v>
+        <v>26182</v>
       </c>
       <c r="C50">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -947,10 +947,10 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27336</v>
+        <v>27323</v>
       </c>
       <c r="C51">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -958,10 +958,10 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28853</v>
+        <v>28844</v>
       </c>
       <c r="C52">
-        <v>1517</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30422</v>
+        <v>30412</v>
       </c>
       <c r="C53">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31712</v>
+        <v>31705</v>
       </c>
       <c r="C54">
-        <v>1290</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,10 +991,10 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32638</v>
+        <v>32630</v>
       </c>
       <c r="C55">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,10 +1002,10 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33436</v>
+        <v>33425</v>
       </c>
       <c r="C56">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,7 +1013,7 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33854</v>
+        <v>33843</v>
       </c>
       <c r="C57">
         <v>418</v>
@@ -1024,10 +1024,10 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34323</v>
+        <v>34310</v>
       </c>
       <c r="C58">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1035,10 +1035,10 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>35076</v>
+        <v>35062</v>
       </c>
       <c r="C59">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,10 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>36001</v>
+        <v>35985</v>
       </c>
       <c r="C60">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,10 +1057,10 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36881</v>
+        <v>36866</v>
       </c>
       <c r="C61">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,7 +1068,7 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37703</v>
+        <v>37688</v>
       </c>
       <c r="C62">
         <v>822</v>
@@ -1079,10 +1079,10 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>38190</v>
+        <v>38174</v>
       </c>
       <c r="C63">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1090,7 +1090,7 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38588</v>
+        <v>38572</v>
       </c>
       <c r="C64">
         <v>398</v>
@@ -1101,7 +1101,7 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>38994</v>
+        <v>38978</v>
       </c>
       <c r="C65">
         <v>406</v>
@@ -1112,7 +1112,7 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39512</v>
+        <v>39496</v>
       </c>
       <c r="C66">
         <v>518</v>
@@ -1123,10 +1123,10 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>40117</v>
+        <v>40099</v>
       </c>
       <c r="C67">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1134,10 +1134,10 @@
         <v>43944</v>
       </c>
       <c r="B68">
-        <v>40693</v>
+        <v>40683</v>
       </c>
       <c r="C68">
-        <v>576</v>
+        <v>584</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1145,10 +1145,10 @@
         <v>43945</v>
       </c>
       <c r="B69">
-        <v>41212</v>
+        <v>41204</v>
       </c>
       <c r="C69">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1156,7 +1156,7 @@
         <v>43946</v>
       </c>
       <c r="B70">
-        <v>41551</v>
+        <v>41543</v>
       </c>
       <c r="C70">
         <v>339</v>
@@ -1167,10 +1167,10 @@
         <v>43947</v>
       </c>
       <c r="B71">
-        <v>41720</v>
+        <v>41716</v>
       </c>
       <c r="C71">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1178,10 +1178,10 @@
         <v>43948</v>
       </c>
       <c r="B72">
-        <v>42084</v>
+        <v>42076</v>
       </c>
       <c r="C72">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1189,10 +1189,10 @@
         <v>43949</v>
       </c>
       <c r="B73">
-        <v>42431</v>
+        <v>42432</v>
       </c>
       <c r="C73">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>42740</v>
       </c>
       <c r="C74">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1211,10 +1211,10 @@
         <v>43951</v>
       </c>
       <c r="B75">
-        <v>43041</v>
+        <v>43047</v>
       </c>
       <c r="C75">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1222,10 +1222,10 @@
         <v>43952</v>
       </c>
       <c r="B76">
-        <v>43230</v>
+        <v>43254</v>
       </c>
       <c r="C76">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1233,10 +1233,10 @@
         <v>43953</v>
       </c>
       <c r="B77">
-        <v>43387</v>
+        <v>43407</v>
       </c>
       <c r="C77">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1244,10 +1244,10 @@
         <v>43954</v>
       </c>
       <c r="B78">
-        <v>43468</v>
+        <v>43496</v>
       </c>
       <c r="C78">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1255,10 +1255,10 @@
         <v>43955</v>
       </c>
       <c r="B79">
-        <v>43593</v>
+        <v>43668</v>
       </c>
       <c r="C79">
-        <v>125</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1266,9 +1266,31 @@
         <v>43956</v>
       </c>
       <c r="B80">
-        <v>43596</v>
+        <v>43863</v>
       </c>
       <c r="C80">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B81">
+        <v>44061</v>
+      </c>
+      <c r="C81">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B82">
+        <v>44064</v>
+      </c>
+      <c r="C82">
         <v>3</v>
       </c>
     </row>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,10 +639,10 @@
         <v>43899</v>
       </c>
       <c r="B23">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C23">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -650,7 +650,7 @@
         <v>43900</v>
       </c>
       <c r="B24">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C24">
         <v>105</v>
@@ -661,7 +661,7 @@
         <v>43901</v>
       </c>
       <c r="B25">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C25">
         <v>116</v>
@@ -672,7 +672,7 @@
         <v>43902</v>
       </c>
       <c r="B26">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C26">
         <v>132</v>
@@ -683,7 +683,7 @@
         <v>43903</v>
       </c>
       <c r="B27">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C27">
         <v>256</v>
@@ -694,7 +694,7 @@
         <v>43904</v>
       </c>
       <c r="B28">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C28">
         <v>235</v>
@@ -705,7 +705,7 @@
         <v>43905</v>
       </c>
       <c r="B29">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C29">
         <v>165</v>
@@ -716,10 +716,10 @@
         <v>43906</v>
       </c>
       <c r="B30">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="C30">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -727,10 +727,10 @@
         <v>43907</v>
       </c>
       <c r="B31">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="C31">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -738,7 +738,7 @@
         <v>43908</v>
       </c>
       <c r="B32">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="C32">
         <v>731</v>
@@ -749,10 +749,10 @@
         <v>43909</v>
       </c>
       <c r="B33">
-        <v>3499</v>
+        <v>3494</v>
       </c>
       <c r="C33">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -760,10 +760,10 @@
         <v>43910</v>
       </c>
       <c r="B34">
-        <v>4411</v>
+        <v>4405</v>
       </c>
       <c r="C34">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -771,10 +771,10 @@
         <v>43911</v>
       </c>
       <c r="B35">
-        <v>5479</v>
+        <v>5470</v>
       </c>
       <c r="C35">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -782,7 +782,7 @@
         <v>43912</v>
       </c>
       <c r="B36">
-        <v>6089</v>
+        <v>6080</v>
       </c>
       <c r="C36">
         <v>610</v>
@@ -793,10 +793,10 @@
         <v>43913</v>
       </c>
       <c r="B37">
-        <v>6790</v>
+        <v>6783</v>
       </c>
       <c r="C37">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -804,10 +804,10 @@
         <v>43914</v>
       </c>
       <c r="B38">
-        <v>7932</v>
+        <v>7924</v>
       </c>
       <c r="C38">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,10 +815,10 @@
         <v>43915</v>
       </c>
       <c r="B39">
-        <v>9564</v>
+        <v>9553</v>
       </c>
       <c r="C39">
-        <v>1632</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,7 +826,7 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11210</v>
+        <v>11199</v>
       </c>
       <c r="C40">
         <v>1646</v>
@@ -837,7 +837,7 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>12996</v>
+        <v>12985</v>
       </c>
       <c r="C41">
         <v>1786</v>
@@ -848,7 +848,7 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14464</v>
+        <v>14453</v>
       </c>
       <c r="C42">
         <v>1468</v>
@@ -859,7 +859,7 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15336</v>
+        <v>15325</v>
       </c>
       <c r="C43">
         <v>872</v>
@@ -870,7 +870,7 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16353</v>
+        <v>16342</v>
       </c>
       <c r="C44">
         <v>1017</v>
@@ -881,10 +881,10 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18135</v>
+        <v>18125</v>
       </c>
       <c r="C45">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -892,10 +892,10 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20100</v>
+        <v>20092</v>
       </c>
       <c r="C46">
-        <v>1965</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,10 +903,10 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22057</v>
+        <v>22051</v>
       </c>
       <c r="C47">
-        <v>1957</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -917,7 +917,7 @@
         <v>24040</v>
       </c>
       <c r="C48">
-        <v>1983</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31705</v>
+        <v>31706</v>
       </c>
       <c r="C54">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,7 +991,7 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32630</v>
+        <v>32631</v>
       </c>
       <c r="C55">
         <v>925</v>
@@ -1002,7 +1002,7 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33425</v>
+        <v>33426</v>
       </c>
       <c r="C56">
         <v>795</v>
@@ -1013,7 +1013,7 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33843</v>
+        <v>33844</v>
       </c>
       <c r="C57">
         <v>418</v>
@@ -1024,7 +1024,7 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34310</v>
+        <v>34311</v>
       </c>
       <c r="C58">
         <v>467</v>
@@ -1035,7 +1035,7 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>35062</v>
+        <v>35063</v>
       </c>
       <c r="C59">
         <v>752</v>
@@ -1046,7 +1046,7 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>35985</v>
+        <v>35986</v>
       </c>
       <c r="C60">
         <v>923</v>
@@ -1057,7 +1057,7 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36866</v>
+        <v>36867</v>
       </c>
       <c r="C61">
         <v>881</v>
@@ -1071,7 +1071,7 @@
         <v>37688</v>
       </c>
       <c r="C62">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1101,10 +1101,10 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>38978</v>
+        <v>38980</v>
       </c>
       <c r="C65">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1112,7 +1112,7 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39496</v>
+        <v>39498</v>
       </c>
       <c r="C66">
         <v>518</v>
@@ -1123,10 +1123,10 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>40099</v>
+        <v>40100</v>
       </c>
       <c r="C67">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1134,10 +1134,10 @@
         <v>43944</v>
       </c>
       <c r="B68">
-        <v>40683</v>
+        <v>40685</v>
       </c>
       <c r="C68">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>41204</v>
       </c>
       <c r="C69">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1178,10 +1178,10 @@
         <v>43948</v>
       </c>
       <c r="B72">
-        <v>42076</v>
+        <v>42075</v>
       </c>
       <c r="C72">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>42432</v>
       </c>
       <c r="C73">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1222,10 +1222,10 @@
         <v>43952</v>
       </c>
       <c r="B76">
-        <v>43254</v>
+        <v>43256</v>
       </c>
       <c r="C76">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1233,7 +1233,7 @@
         <v>43953</v>
       </c>
       <c r="B77">
-        <v>43407</v>
+        <v>43409</v>
       </c>
       <c r="C77">
         <v>153</v>
@@ -1244,7 +1244,7 @@
         <v>43954</v>
       </c>
       <c r="B78">
-        <v>43496</v>
+        <v>43498</v>
       </c>
       <c r="C78">
         <v>89</v>
@@ -1255,10 +1255,10 @@
         <v>43955</v>
       </c>
       <c r="B79">
-        <v>43668</v>
+        <v>43673</v>
       </c>
       <c r="C79">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1266,10 +1266,10 @@
         <v>43956</v>
       </c>
       <c r="B80">
-        <v>43863</v>
+        <v>43881</v>
       </c>
       <c r="C80">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1277,10 +1277,10 @@
         <v>43957</v>
       </c>
       <c r="B81">
-        <v>44061</v>
+        <v>44137</v>
       </c>
       <c r="C81">
-        <v>198</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1288,10 +1288,21 @@
         <v>43958</v>
       </c>
       <c r="B82">
-        <v>44064</v>
+        <v>44291</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B83">
+        <v>44295</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -738,10 +738,10 @@
         <v>43908</v>
       </c>
       <c r="B32">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="C32">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -749,7 +749,7 @@
         <v>43909</v>
       </c>
       <c r="B33">
-        <v>3494</v>
+        <v>3495</v>
       </c>
       <c r="C33">
         <v>780</v>
@@ -760,7 +760,7 @@
         <v>43910</v>
       </c>
       <c r="B34">
-        <v>4405</v>
+        <v>4406</v>
       </c>
       <c r="C34">
         <v>911</v>
@@ -771,7 +771,7 @@
         <v>43911</v>
       </c>
       <c r="B35">
-        <v>5470</v>
+        <v>5471</v>
       </c>
       <c r="C35">
         <v>1065</v>
@@ -782,7 +782,7 @@
         <v>43912</v>
       </c>
       <c r="B36">
-        <v>6080</v>
+        <v>6081</v>
       </c>
       <c r="C36">
         <v>610</v>
@@ -793,7 +793,7 @@
         <v>43913</v>
       </c>
       <c r="B37">
-        <v>6783</v>
+        <v>6784</v>
       </c>
       <c r="C37">
         <v>703</v>
@@ -807,7 +807,7 @@
         <v>7924</v>
       </c>
       <c r="C38">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -826,10 +826,10 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11199</v>
+        <v>11200</v>
       </c>
       <c r="C40">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,7 +837,7 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>12985</v>
+        <v>12986</v>
       </c>
       <c r="C41">
         <v>1786</v>
@@ -848,7 +848,7 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14453</v>
+        <v>14454</v>
       </c>
       <c r="C42">
         <v>1468</v>
@@ -859,7 +859,7 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15325</v>
+        <v>15326</v>
       </c>
       <c r="C43">
         <v>872</v>
@@ -870,10 +870,10 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16342</v>
+        <v>16344</v>
       </c>
       <c r="C44">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,7 +881,7 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18125</v>
+        <v>18127</v>
       </c>
       <c r="C45">
         <v>1783</v>
@@ -892,10 +892,10 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20092</v>
+        <v>20093</v>
       </c>
       <c r="C46">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,10 +903,10 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22051</v>
+        <v>22053</v>
       </c>
       <c r="C47">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,10 +914,10 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24040</v>
+        <v>24043</v>
       </c>
       <c r="C48">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,10 +925,10 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25485</v>
+        <v>25489</v>
       </c>
       <c r="C49">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,7 +936,7 @@
         <v>43926</v>
       </c>
       <c r="B50">
-        <v>26182</v>
+        <v>26186</v>
       </c>
       <c r="C50">
         <v>697</v>
@@ -947,7 +947,7 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27323</v>
+        <v>27327</v>
       </c>
       <c r="C51">
         <v>1141</v>
@@ -958,7 +958,7 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28844</v>
+        <v>28848</v>
       </c>
       <c r="C52">
         <v>1521</v>
@@ -969,10 +969,10 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30412</v>
+        <v>30418</v>
       </c>
       <c r="C53">
-        <v>1568</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,7 +980,7 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31706</v>
+        <v>31712</v>
       </c>
       <c r="C54">
         <v>1294</v>
@@ -991,10 +991,10 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32631</v>
+        <v>32639</v>
       </c>
       <c r="C55">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,10 +1002,10 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33426</v>
+        <v>33435</v>
       </c>
       <c r="C56">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,7 +1013,7 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33844</v>
+        <v>33853</v>
       </c>
       <c r="C57">
         <v>418</v>
@@ -1024,10 +1024,10 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34311</v>
+        <v>34319</v>
       </c>
       <c r="C58">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1035,10 +1035,10 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>35063</v>
+        <v>35072</v>
       </c>
       <c r="C59">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,7 +1046,7 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>35986</v>
+        <v>35995</v>
       </c>
       <c r="C60">
         <v>923</v>
@@ -1057,7 +1057,7 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36867</v>
+        <v>36876</v>
       </c>
       <c r="C61">
         <v>881</v>
@@ -1068,10 +1068,10 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37688</v>
+        <v>37698</v>
       </c>
       <c r="C62">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,7 +1079,7 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>38174</v>
+        <v>38184</v>
       </c>
       <c r="C63">
         <v>486</v>
@@ -1090,10 +1090,10 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38572</v>
+        <v>38583</v>
       </c>
       <c r="C64">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1101,10 +1101,10 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>38980</v>
+        <v>38992</v>
       </c>
       <c r="C65">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1112,7 +1112,7 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39498</v>
+        <v>39510</v>
       </c>
       <c r="C66">
         <v>518</v>
@@ -1123,10 +1123,10 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>40100</v>
+        <v>40113</v>
       </c>
       <c r="C67">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1134,7 +1134,7 @@
         <v>43944</v>
       </c>
       <c r="B68">
-        <v>40685</v>
+        <v>40698</v>
       </c>
       <c r="C68">
         <v>585</v>
@@ -1145,7 +1145,7 @@
         <v>43945</v>
       </c>
       <c r="B69">
-        <v>41204</v>
+        <v>41217</v>
       </c>
       <c r="C69">
         <v>519</v>
@@ -1156,10 +1156,10 @@
         <v>43946</v>
       </c>
       <c r="B70">
-        <v>41543</v>
+        <v>41557</v>
       </c>
       <c r="C70">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1167,7 +1167,7 @@
         <v>43947</v>
       </c>
       <c r="B71">
-        <v>41716</v>
+        <v>41730</v>
       </c>
       <c r="C71">
         <v>173</v>
@@ -1178,7 +1178,7 @@
         <v>43948</v>
       </c>
       <c r="B72">
-        <v>42075</v>
+        <v>42089</v>
       </c>
       <c r="C72">
         <v>359</v>
@@ -1189,7 +1189,7 @@
         <v>43949</v>
       </c>
       <c r="B73">
-        <v>42432</v>
+        <v>42446</v>
       </c>
       <c r="C73">
         <v>357</v>
@@ -1200,7 +1200,7 @@
         <v>43950</v>
       </c>
       <c r="B74">
-        <v>42740</v>
+        <v>42754</v>
       </c>
       <c r="C74">
         <v>308</v>
@@ -1211,7 +1211,7 @@
         <v>43951</v>
       </c>
       <c r="B75">
-        <v>43047</v>
+        <v>43061</v>
       </c>
       <c r="C75">
         <v>307</v>
@@ -1222,10 +1222,10 @@
         <v>43952</v>
       </c>
       <c r="B76">
-        <v>43256</v>
+        <v>43268</v>
       </c>
       <c r="C76">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1233,7 +1233,7 @@
         <v>43953</v>
       </c>
       <c r="B77">
-        <v>43409</v>
+        <v>43421</v>
       </c>
       <c r="C77">
         <v>153</v>
@@ -1244,7 +1244,7 @@
         <v>43954</v>
       </c>
       <c r="B78">
-        <v>43498</v>
+        <v>43510</v>
       </c>
       <c r="C78">
         <v>89</v>
@@ -1255,10 +1255,10 @@
         <v>43955</v>
       </c>
       <c r="B79">
-        <v>43673</v>
+        <v>43684</v>
       </c>
       <c r="C79">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1266,7 +1266,7 @@
         <v>43956</v>
       </c>
       <c r="B80">
-        <v>43881</v>
+        <v>43892</v>
       </c>
       <c r="C80">
         <v>208</v>
@@ -1277,10 +1277,10 @@
         <v>43957</v>
       </c>
       <c r="B81">
-        <v>44137</v>
+        <v>44155</v>
       </c>
       <c r="C81">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1288,10 +1288,10 @@
         <v>43958</v>
       </c>
       <c r="B82">
-        <v>44291</v>
+        <v>44367</v>
       </c>
       <c r="C82">
-        <v>154</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1299,10 +1299,10 @@
         <v>43959</v>
       </c>
       <c r="B83">
-        <v>44295</v>
+        <v>44527</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,10 +672,10 @@
         <v>43902</v>
       </c>
       <c r="B26">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C26">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -683,7 +683,7 @@
         <v>43903</v>
       </c>
       <c r="B27">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C27">
         <v>256</v>
@@ -697,7 +697,7 @@
         <v>1089</v>
       </c>
       <c r="C28">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -771,10 +771,10 @@
         <v>43911</v>
       </c>
       <c r="B35">
-        <v>5471</v>
+        <v>5472</v>
       </c>
       <c r="C35">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -785,7 +785,7 @@
         <v>6081</v>
       </c>
       <c r="C36">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -815,10 +815,10 @@
         <v>43915</v>
       </c>
       <c r="B39">
-        <v>9553</v>
+        <v>9555</v>
       </c>
       <c r="C39">
-        <v>1629</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -829,7 +829,7 @@
         <v>11200</v>
       </c>
       <c r="C40">
-        <v>1647</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,10 +837,10 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>12986</v>
+        <v>12984</v>
       </c>
       <c r="C41">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -848,10 +848,10 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14454</v>
+        <v>14451</v>
       </c>
       <c r="C42">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -859,7 +859,7 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15326</v>
+        <v>15323</v>
       </c>
       <c r="C43">
         <v>872</v>
@@ -870,10 +870,10 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16344</v>
+        <v>16340</v>
       </c>
       <c r="C44">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,10 +881,10 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18127</v>
+        <v>18124</v>
       </c>
       <c r="C45">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -892,10 +892,10 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20093</v>
+        <v>20089</v>
       </c>
       <c r="C46">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,7 +903,7 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22053</v>
+        <v>22049</v>
       </c>
       <c r="C47">
         <v>1960</v>
@@ -914,10 +914,10 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24043</v>
+        <v>24040</v>
       </c>
       <c r="C48">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,10 +925,10 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25489</v>
+        <v>25484</v>
       </c>
       <c r="C49">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,10 +936,10 @@
         <v>43926</v>
       </c>
       <c r="B50">
-        <v>26186</v>
+        <v>26182</v>
       </c>
       <c r="C50">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -947,7 +947,7 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27327</v>
+        <v>27323</v>
       </c>
       <c r="C51">
         <v>1141</v>
@@ -958,10 +958,10 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28848</v>
+        <v>28851</v>
       </c>
       <c r="C52">
-        <v>1521</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,7 +969,7 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30418</v>
+        <v>30421</v>
       </c>
       <c r="C53">
         <v>1570</v>
@@ -980,7 +980,7 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31712</v>
+        <v>31715</v>
       </c>
       <c r="C54">
         <v>1294</v>
@@ -991,7 +991,7 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32639</v>
+        <v>32642</v>
       </c>
       <c r="C55">
         <v>927</v>
@@ -1002,10 +1002,10 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33435</v>
+        <v>33436</v>
       </c>
       <c r="C56">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>33853</v>
       </c>
       <c r="C57">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1035,10 +1035,10 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>35072</v>
+        <v>35070</v>
       </c>
       <c r="C59">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,7 +1046,7 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>35995</v>
+        <v>35993</v>
       </c>
       <c r="C60">
         <v>923</v>
@@ -1057,10 +1057,10 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36876</v>
+        <v>36873</v>
       </c>
       <c r="C61">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,10 +1068,10 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37698</v>
+        <v>37696</v>
       </c>
       <c r="C62">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,7 +1079,7 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>38184</v>
+        <v>38182</v>
       </c>
       <c r="C63">
         <v>486</v>
@@ -1090,7 +1090,7 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38583</v>
+        <v>38581</v>
       </c>
       <c r="C64">
         <v>399</v>
@@ -1101,7 +1101,7 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>38992</v>
+        <v>38990</v>
       </c>
       <c r="C65">
         <v>409</v>
@@ -1112,7 +1112,7 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39510</v>
+        <v>39508</v>
       </c>
       <c r="C66">
         <v>518</v>
@@ -1123,7 +1123,7 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>40113</v>
+        <v>40111</v>
       </c>
       <c r="C67">
         <v>603</v>
@@ -1137,7 +1137,7 @@
         <v>40698</v>
       </c>
       <c r="C68">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1145,10 +1145,10 @@
         <v>43945</v>
       </c>
       <c r="B69">
-        <v>41217</v>
+        <v>41216</v>
       </c>
       <c r="C69">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1156,7 +1156,7 @@
         <v>43946</v>
       </c>
       <c r="B70">
-        <v>41557</v>
+        <v>41556</v>
       </c>
       <c r="C70">
         <v>340</v>
@@ -1167,7 +1167,7 @@
         <v>43947</v>
       </c>
       <c r="B71">
-        <v>41730</v>
+        <v>41729</v>
       </c>
       <c r="C71">
         <v>173</v>
@@ -1181,7 +1181,7 @@
         <v>42089</v>
       </c>
       <c r="C72">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1189,10 +1189,10 @@
         <v>43949</v>
       </c>
       <c r="B73">
-        <v>42446</v>
+        <v>42447</v>
       </c>
       <c r="C73">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>43950</v>
       </c>
       <c r="B74">
-        <v>42754</v>
+        <v>42755</v>
       </c>
       <c r="C74">
         <v>308</v>
@@ -1211,7 +1211,7 @@
         <v>43951</v>
       </c>
       <c r="B75">
-        <v>43061</v>
+        <v>43062</v>
       </c>
       <c r="C75">
         <v>307</v>
@@ -1222,7 +1222,7 @@
         <v>43952</v>
       </c>
       <c r="B76">
-        <v>43268</v>
+        <v>43269</v>
       </c>
       <c r="C76">
         <v>207</v>
@@ -1233,7 +1233,7 @@
         <v>43953</v>
       </c>
       <c r="B77">
-        <v>43421</v>
+        <v>43422</v>
       </c>
       <c r="C77">
         <v>153</v>
@@ -1244,7 +1244,7 @@
         <v>43954</v>
       </c>
       <c r="B78">
-        <v>43510</v>
+        <v>43511</v>
       </c>
       <c r="C78">
         <v>89</v>
@@ -1255,7 +1255,7 @@
         <v>43955</v>
       </c>
       <c r="B79">
-        <v>43684</v>
+        <v>43685</v>
       </c>
       <c r="C79">
         <v>174</v>
@@ -1266,10 +1266,10 @@
         <v>43956</v>
       </c>
       <c r="B80">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="C80">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1277,10 +1277,10 @@
         <v>43957</v>
       </c>
       <c r="B81">
-        <v>44155</v>
+        <v>44163</v>
       </c>
       <c r="C81">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1288,10 +1288,10 @@
         <v>43958</v>
       </c>
       <c r="B82">
-        <v>44367</v>
+        <v>44396</v>
       </c>
       <c r="C82">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1299,10 +1299,43 @@
         <v>43959</v>
       </c>
       <c r="B83">
-        <v>44527</v>
+        <v>44575</v>
       </c>
       <c r="C83">
-        <v>160</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B84">
+        <v>44669</v>
+      </c>
+      <c r="C84">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B85">
+        <v>44702</v>
+      </c>
+      <c r="C85">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B86">
+        <v>44714</v>
+      </c>
+      <c r="C86">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,10 +650,10 @@
         <v>43900</v>
       </c>
       <c r="B24">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C24">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -661,7 +661,7 @@
         <v>43901</v>
       </c>
       <c r="B25">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C25">
         <v>116</v>
@@ -675,7 +675,7 @@
         <v>599</v>
       </c>
       <c r="C26">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -727,10 +727,10 @@
         <v>43907</v>
       </c>
       <c r="B31">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C31">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -738,10 +738,10 @@
         <v>43908</v>
       </c>
       <c r="B32">
-        <v>2715</v>
+        <v>2711</v>
       </c>
       <c r="C32">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -749,7 +749,7 @@
         <v>43909</v>
       </c>
       <c r="B33">
-        <v>3495</v>
+        <v>3491</v>
       </c>
       <c r="C33">
         <v>780</v>
@@ -760,7 +760,7 @@
         <v>43910</v>
       </c>
       <c r="B34">
-        <v>4406</v>
+        <v>4402</v>
       </c>
       <c r="C34">
         <v>911</v>
@@ -771,10 +771,10 @@
         <v>43911</v>
       </c>
       <c r="B35">
-        <v>5472</v>
+        <v>5469</v>
       </c>
       <c r="C35">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -782,7 +782,7 @@
         <v>43912</v>
       </c>
       <c r="B36">
-        <v>6081</v>
+        <v>6078</v>
       </c>
       <c r="C36">
         <v>609</v>
@@ -793,10 +793,10 @@
         <v>43913</v>
       </c>
       <c r="B37">
-        <v>6784</v>
+        <v>6782</v>
       </c>
       <c r="C37">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -804,10 +804,10 @@
         <v>43914</v>
       </c>
       <c r="B38">
-        <v>7924</v>
+        <v>7921</v>
       </c>
       <c r="C38">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,10 +815,10 @@
         <v>43915</v>
       </c>
       <c r="B39">
-        <v>9555</v>
+        <v>9551</v>
       </c>
       <c r="C39">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,10 +826,10 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11200</v>
+        <v>11198</v>
       </c>
       <c r="C40">
-        <v>1645</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,7 +837,7 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>12984</v>
+        <v>12982</v>
       </c>
       <c r="C41">
         <v>1784</v>
@@ -848,10 +848,10 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14451</v>
+        <v>14450</v>
       </c>
       <c r="C42">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -859,7 +859,7 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15323</v>
+        <v>15322</v>
       </c>
       <c r="C43">
         <v>872</v>
@@ -870,10 +870,10 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16340</v>
+        <v>16338</v>
       </c>
       <c r="C44">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,10 +881,10 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18124</v>
+        <v>18121</v>
       </c>
       <c r="C45">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -892,7 +892,7 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20089</v>
+        <v>20086</v>
       </c>
       <c r="C46">
         <v>1965</v>
@@ -903,10 +903,10 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22049</v>
+        <v>22045</v>
       </c>
       <c r="C47">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,7 +914,7 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24040</v>
+        <v>24036</v>
       </c>
       <c r="C48">
         <v>1991</v>
@@ -925,10 +925,10 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25484</v>
+        <v>25474</v>
       </c>
       <c r="C49">
-        <v>1444</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,10 +936,10 @@
         <v>43926</v>
       </c>
       <c r="B50">
-        <v>26182</v>
+        <v>26173</v>
       </c>
       <c r="C50">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -947,7 +947,7 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27323</v>
+        <v>27314</v>
       </c>
       <c r="C51">
         <v>1141</v>
@@ -958,7 +958,7 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28851</v>
+        <v>28842</v>
       </c>
       <c r="C52">
         <v>1528</v>
@@ -969,7 +969,7 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30421</v>
+        <v>30412</v>
       </c>
       <c r="C53">
         <v>1570</v>
@@ -980,10 +980,10 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31715</v>
+        <v>31709</v>
       </c>
       <c r="C54">
-        <v>1294</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,10 +991,10 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32642</v>
+        <v>32637</v>
       </c>
       <c r="C55">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,10 +1002,10 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33436</v>
+        <v>33430</v>
       </c>
       <c r="C56">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,7 +1013,7 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33853</v>
+        <v>33847</v>
       </c>
       <c r="C57">
         <v>417</v>
@@ -1024,7 +1024,7 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34319</v>
+        <v>34313</v>
       </c>
       <c r="C58">
         <v>466</v>
@@ -1035,10 +1035,10 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>35070</v>
+        <v>35066</v>
       </c>
       <c r="C59">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,10 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>35993</v>
+        <v>35990</v>
       </c>
       <c r="C60">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,10 +1057,10 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36873</v>
+        <v>36869</v>
       </c>
       <c r="C61">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,10 +1068,10 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37696</v>
+        <v>37688</v>
       </c>
       <c r="C62">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,7 +1079,7 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>38182</v>
+        <v>38174</v>
       </c>
       <c r="C63">
         <v>486</v>
@@ -1090,7 +1090,7 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38581</v>
+        <v>38573</v>
       </c>
       <c r="C64">
         <v>399</v>
@@ -1101,7 +1101,7 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>38990</v>
+        <v>38982</v>
       </c>
       <c r="C65">
         <v>409</v>
@@ -1112,7 +1112,7 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39508</v>
+        <v>39500</v>
       </c>
       <c r="C66">
         <v>518</v>
@@ -1123,10 +1123,10 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>40111</v>
+        <v>40105</v>
       </c>
       <c r="C67">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1134,10 +1134,10 @@
         <v>43944</v>
       </c>
       <c r="B68">
-        <v>40698</v>
+        <v>40691</v>
       </c>
       <c r="C68">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1145,10 +1145,10 @@
         <v>43945</v>
       </c>
       <c r="B69">
-        <v>41216</v>
+        <v>41210</v>
       </c>
       <c r="C69">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1156,10 +1156,10 @@
         <v>43946</v>
       </c>
       <c r="B70">
-        <v>41556</v>
+        <v>41549</v>
       </c>
       <c r="C70">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1167,7 +1167,7 @@
         <v>43947</v>
       </c>
       <c r="B71">
-        <v>41729</v>
+        <v>41722</v>
       </c>
       <c r="C71">
         <v>173</v>
@@ -1178,10 +1178,10 @@
         <v>43948</v>
       </c>
       <c r="B72">
-        <v>42089</v>
+        <v>42083</v>
       </c>
       <c r="C72">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1189,10 +1189,10 @@
         <v>43949</v>
       </c>
       <c r="B73">
-        <v>42447</v>
+        <v>42442</v>
       </c>
       <c r="C73">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1200,10 +1200,10 @@
         <v>43950</v>
       </c>
       <c r="B74">
-        <v>42755</v>
+        <v>42753</v>
       </c>
       <c r="C74">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1211,7 +1211,7 @@
         <v>43951</v>
       </c>
       <c r="B75">
-        <v>43062</v>
+        <v>43060</v>
       </c>
       <c r="C75">
         <v>307</v>
@@ -1222,7 +1222,7 @@
         <v>43952</v>
       </c>
       <c r="B76">
-        <v>43269</v>
+        <v>43267</v>
       </c>
       <c r="C76">
         <v>207</v>
@@ -1233,10 +1233,10 @@
         <v>43953</v>
       </c>
       <c r="B77">
-        <v>43422</v>
+        <v>43419</v>
       </c>
       <c r="C77">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1244,10 +1244,10 @@
         <v>43954</v>
       </c>
       <c r="B78">
-        <v>43511</v>
+        <v>43509</v>
       </c>
       <c r="C78">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1255,10 +1255,10 @@
         <v>43955</v>
       </c>
       <c r="B79">
-        <v>43685</v>
+        <v>43684</v>
       </c>
       <c r="C79">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>43895</v>
       </c>
       <c r="C80">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1288,10 +1288,10 @@
         <v>43958</v>
       </c>
       <c r="B82">
-        <v>44396</v>
+        <v>44399</v>
       </c>
       <c r="C82">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1299,10 +1299,10 @@
         <v>43959</v>
       </c>
       <c r="B83">
-        <v>44575</v>
+        <v>44605</v>
       </c>
       <c r="C83">
-        <v>179</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1310,10 +1310,10 @@
         <v>43960</v>
       </c>
       <c r="B84">
-        <v>44669</v>
+        <v>44724</v>
       </c>
       <c r="C84">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1321,10 +1321,10 @@
         <v>43961</v>
       </c>
       <c r="B85">
-        <v>44702</v>
+        <v>44805</v>
       </c>
       <c r="C85">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1332,10 +1332,32 @@
         <v>43962</v>
       </c>
       <c r="B86">
-        <v>44714</v>
+        <v>44994</v>
       </c>
       <c r="C86">
-        <v>12</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B87">
+        <v>45152</v>
+      </c>
+      <c r="C87">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B88">
+        <v>45154</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,10 +617,10 @@
         <v>43897</v>
       </c>
       <c r="B21">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -628,10 +628,10 @@
         <v>43898</v>
       </c>
       <c r="B22">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -639,7 +639,7 @@
         <v>43899</v>
       </c>
       <c r="B23">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C23">
         <v>83</v>
@@ -650,10 +650,10 @@
         <v>43900</v>
       </c>
       <c r="B24">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C24">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -661,10 +661,10 @@
         <v>43901</v>
       </c>
       <c r="B25">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C25">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -672,10 +672,10 @@
         <v>43902</v>
       </c>
       <c r="B26">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="C26">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -686,7 +686,7 @@
         <v>855</v>
       </c>
       <c r="C27">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -749,10 +749,10 @@
         <v>43909</v>
       </c>
       <c r="B33">
-        <v>3491</v>
+        <v>3520</v>
       </c>
       <c r="C33">
-        <v>780</v>
+        <v>809</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -760,10 +760,10 @@
         <v>43910</v>
       </c>
       <c r="B34">
-        <v>4402</v>
+        <v>4416</v>
       </c>
       <c r="C34">
-        <v>911</v>
+        <v>896</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -771,10 +771,10 @@
         <v>43911</v>
       </c>
       <c r="B35">
-        <v>5469</v>
+        <v>5509</v>
       </c>
       <c r="C35">
-        <v>1067</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -782,10 +782,10 @@
         <v>43912</v>
       </c>
       <c r="B36">
-        <v>6078</v>
+        <v>6082</v>
       </c>
       <c r="C36">
-        <v>609</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -793,10 +793,10 @@
         <v>43913</v>
       </c>
       <c r="B37">
-        <v>6782</v>
+        <v>6799</v>
       </c>
       <c r="C37">
-        <v>704</v>
+        <v>717</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -804,10 +804,10 @@
         <v>43914</v>
       </c>
       <c r="B38">
-        <v>7921</v>
+        <v>7976</v>
       </c>
       <c r="C38">
-        <v>1139</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,10 +815,10 @@
         <v>43915</v>
       </c>
       <c r="B39">
-        <v>9551</v>
+        <v>9633</v>
       </c>
       <c r="C39">
-        <v>1630</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,10 +826,10 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11198</v>
+        <v>11367</v>
       </c>
       <c r="C40">
-        <v>1647</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,10 +837,10 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>12982</v>
+        <v>13046</v>
       </c>
       <c r="C41">
-        <v>1784</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -848,10 +848,10 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14450</v>
+        <v>14478</v>
       </c>
       <c r="C42">
-        <v>1468</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -859,10 +859,10 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15322</v>
+        <v>15345</v>
       </c>
       <c r="C43">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -870,10 +870,10 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16338</v>
+        <v>16355</v>
       </c>
       <c r="C44">
-        <v>1016</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,10 +881,10 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18121</v>
+        <v>18201</v>
       </c>
       <c r="C45">
-        <v>1783</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -892,10 +892,10 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20086</v>
+        <v>20215</v>
       </c>
       <c r="C46">
-        <v>1965</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,10 +903,10 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22045</v>
+        <v>22120</v>
       </c>
       <c r="C47">
-        <v>1959</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,10 +914,10 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24036</v>
+        <v>24042</v>
       </c>
       <c r="C48">
-        <v>1991</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,10 +925,10 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25474</v>
+        <v>25526</v>
       </c>
       <c r="C49">
-        <v>1438</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,10 +936,10 @@
         <v>43926</v>
       </c>
       <c r="B50">
-        <v>26173</v>
+        <v>26238</v>
       </c>
       <c r="C50">
-        <v>699</v>
+        <v>712</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -947,10 +947,10 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27314</v>
+        <v>27371</v>
       </c>
       <c r="C51">
-        <v>1141</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -958,10 +958,10 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28842</v>
+        <v>28881</v>
       </c>
       <c r="C52">
-        <v>1528</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30412</v>
+        <v>30419</v>
       </c>
       <c r="C53">
-        <v>1570</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31709</v>
+        <v>31718</v>
       </c>
       <c r="C54">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,7 +991,7 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32637</v>
+        <v>32646</v>
       </c>
       <c r="C55">
         <v>928</v>
@@ -1002,10 +1002,10 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33430</v>
+        <v>33441</v>
       </c>
       <c r="C56">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,7 +1013,7 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33847</v>
+        <v>33858</v>
       </c>
       <c r="C57">
         <v>417</v>
@@ -1024,7 +1024,7 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34313</v>
+        <v>34324</v>
       </c>
       <c r="C58">
         <v>466</v>
@@ -1035,10 +1035,10 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>35066</v>
+        <v>35076</v>
       </c>
       <c r="C59">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,7 +1046,7 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>35990</v>
+        <v>36000</v>
       </c>
       <c r="C60">
         <v>924</v>
@@ -1057,10 +1057,10 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36869</v>
+        <v>36880</v>
       </c>
       <c r="C61">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,10 +1068,10 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37688</v>
+        <v>37700</v>
       </c>
       <c r="C62">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,10 +1079,10 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>38174</v>
+        <v>38187</v>
       </c>
       <c r="C63">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1090,10 +1090,10 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38573</v>
+        <v>38587</v>
       </c>
       <c r="C64">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>38982</v>
+        <v>38996</v>
       </c>
       <c r="C65">
         <v>409</v>
@@ -1112,7 +1112,7 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39500</v>
+        <v>39514</v>
       </c>
       <c r="C66">
         <v>518</v>
@@ -1123,10 +1123,10 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>40105</v>
+        <v>40118</v>
       </c>
       <c r="C67">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1134,10 +1134,10 @@
         <v>43944</v>
       </c>
       <c r="B68">
-        <v>40691</v>
+        <v>40703</v>
       </c>
       <c r="C68">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1145,10 +1145,10 @@
         <v>43945</v>
       </c>
       <c r="B69">
-        <v>41210</v>
+        <v>41223</v>
       </c>
       <c r="C69">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1156,10 +1156,10 @@
         <v>43946</v>
       </c>
       <c r="B70">
-        <v>41549</v>
+        <v>41563</v>
       </c>
       <c r="C70">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1167,10 +1167,10 @@
         <v>43947</v>
       </c>
       <c r="B71">
-        <v>41722</v>
+        <v>41735</v>
       </c>
       <c r="C71">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1178,7 +1178,7 @@
         <v>43948</v>
       </c>
       <c r="B72">
-        <v>42083</v>
+        <v>42096</v>
       </c>
       <c r="C72">
         <v>361</v>
@@ -1189,10 +1189,10 @@
         <v>43949</v>
       </c>
       <c r="B73">
-        <v>42442</v>
+        <v>42456</v>
       </c>
       <c r="C73">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>43950</v>
       </c>
       <c r="B74">
-        <v>42753</v>
+        <v>42767</v>
       </c>
       <c r="C74">
         <v>311</v>
@@ -1211,10 +1211,10 @@
         <v>43951</v>
       </c>
       <c r="B75">
-        <v>43060</v>
+        <v>43073</v>
       </c>
       <c r="C75">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1222,10 +1222,10 @@
         <v>43952</v>
       </c>
       <c r="B76">
-        <v>43267</v>
+        <v>43283</v>
       </c>
       <c r="C76">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1233,7 +1233,7 @@
         <v>43953</v>
       </c>
       <c r="B77">
-        <v>43419</v>
+        <v>43435</v>
       </c>
       <c r="C77">
         <v>152</v>
@@ -1244,7 +1244,7 @@
         <v>43954</v>
       </c>
       <c r="B78">
-        <v>43509</v>
+        <v>43525</v>
       </c>
       <c r="C78">
         <v>90</v>
@@ -1255,7 +1255,7 @@
         <v>43955</v>
       </c>
       <c r="B79">
-        <v>43684</v>
+        <v>43700</v>
       </c>
       <c r="C79">
         <v>175</v>
@@ -1266,10 +1266,10 @@
         <v>43956</v>
       </c>
       <c r="B80">
-        <v>43895</v>
+        <v>43912</v>
       </c>
       <c r="C80">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1277,7 +1277,7 @@
         <v>43957</v>
       </c>
       <c r="B81">
-        <v>44163</v>
+        <v>44180</v>
       </c>
       <c r="C81">
         <v>268</v>
@@ -1288,10 +1288,10 @@
         <v>43958</v>
       </c>
       <c r="B82">
-        <v>44399</v>
+        <v>44415</v>
       </c>
       <c r="C82">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1299,10 +1299,10 @@
         <v>43959</v>
       </c>
       <c r="B83">
-        <v>44605</v>
+        <v>44620</v>
       </c>
       <c r="C83">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1310,10 +1310,10 @@
         <v>43960</v>
       </c>
       <c r="B84">
-        <v>44724</v>
+        <v>44740</v>
       </c>
       <c r="C84">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1321,7 +1321,7 @@
         <v>43961</v>
       </c>
       <c r="B85">
-        <v>44805</v>
+        <v>44821</v>
       </c>
       <c r="C85">
         <v>81</v>
@@ -1332,7 +1332,7 @@
         <v>43962</v>
       </c>
       <c r="B86">
-        <v>44994</v>
+        <v>45010</v>
       </c>
       <c r="C86">
         <v>189</v>
@@ -1343,10 +1343,10 @@
         <v>43963</v>
       </c>
       <c r="B87">
-        <v>45152</v>
+        <v>45226</v>
       </c>
       <c r="C87">
-        <v>158</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1354,10 +1354,32 @@
         <v>43964</v>
       </c>
       <c r="B88">
-        <v>45154</v>
+        <v>45400</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B89">
+        <v>45523</v>
+      </c>
+      <c r="C89">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B90">
+        <v>45532</v>
+      </c>
+      <c r="C90">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,10 +540,10 @@
         <v>43890</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -551,7 +551,7 @@
         <v>43891</v>
       </c>
       <c r="B15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -562,7 +562,7 @@
         <v>43892</v>
       </c>
       <c r="B16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -576,7 +576,7 @@
         <v>40</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -639,10 +639,10 @@
         <v>43899</v>
       </c>
       <c r="B23">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C23">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -650,10 +650,10 @@
         <v>43900</v>
       </c>
       <c r="B24">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C24">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -661,10 +661,10 @@
         <v>43901</v>
       </c>
       <c r="B25">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C25">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -675,7 +675,7 @@
         <v>606</v>
       </c>
       <c r="C26">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -683,10 +683,10 @@
         <v>43903</v>
       </c>
       <c r="B27">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C27">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -694,7 +694,7 @@
         <v>43904</v>
       </c>
       <c r="B28">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C28">
         <v>234</v>
@@ -708,7 +708,7 @@
         <v>1254</v>
       </c>
       <c r="C29">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -716,10 +716,10 @@
         <v>43906</v>
       </c>
       <c r="B30">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C30">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -727,10 +727,10 @@
         <v>43907</v>
       </c>
       <c r="B31">
-        <v>1982</v>
+        <v>1987</v>
       </c>
       <c r="C31">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -738,10 +738,10 @@
         <v>43908</v>
       </c>
       <c r="B32">
-        <v>2711</v>
+        <v>2717</v>
       </c>
       <c r="C32">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -749,10 +749,10 @@
         <v>43909</v>
       </c>
       <c r="B33">
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="C33">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -763,7 +763,7 @@
         <v>4416</v>
       </c>
       <c r="C34">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -793,10 +793,10 @@
         <v>43913</v>
       </c>
       <c r="B37">
-        <v>6799</v>
+        <v>6800</v>
       </c>
       <c r="C37">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -804,10 +804,10 @@
         <v>43914</v>
       </c>
       <c r="B38">
-        <v>7976</v>
+        <v>8004</v>
       </c>
       <c r="C38">
-        <v>1177</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,10 +815,10 @@
         <v>43915</v>
       </c>
       <c r="B39">
-        <v>9633</v>
+        <v>9707</v>
       </c>
       <c r="C39">
-        <v>1657</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,10 +826,10 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11367</v>
+        <v>11397</v>
       </c>
       <c r="C40">
-        <v>1734</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,10 +837,10 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>13046</v>
+        <v>13048</v>
       </c>
       <c r="C41">
-        <v>1679</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -848,7 +848,7 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14478</v>
+        <v>14480</v>
       </c>
       <c r="C42">
         <v>1432</v>
@@ -859,7 +859,7 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15345</v>
+        <v>15347</v>
       </c>
       <c r="C43">
         <v>867</v>
@@ -870,10 +870,10 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16355</v>
+        <v>16358</v>
       </c>
       <c r="C44">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,7 +881,7 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18201</v>
+        <v>18204</v>
       </c>
       <c r="C45">
         <v>1846</v>
@@ -892,10 +892,10 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20215</v>
+        <v>20221</v>
       </c>
       <c r="C46">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,10 +903,10 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22120</v>
+        <v>22155</v>
       </c>
       <c r="C47">
-        <v>1905</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,10 +914,10 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24042</v>
+        <v>24048</v>
       </c>
       <c r="C48">
-        <v>1922</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,10 +925,10 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25526</v>
+        <v>25529</v>
       </c>
       <c r="C49">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,10 +936,10 @@
         <v>43926</v>
       </c>
       <c r="B50">
-        <v>26238</v>
+        <v>26240</v>
       </c>
       <c r="C50">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -947,10 +947,10 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27371</v>
+        <v>27372</v>
       </c>
       <c r="C51">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -958,10 +958,10 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28881</v>
+        <v>28886</v>
       </c>
       <c r="C52">
-        <v>1510</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30419</v>
+        <v>30410</v>
       </c>
       <c r="C53">
-        <v>1538</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31718</v>
+        <v>31738</v>
       </c>
       <c r="C54">
-        <v>1299</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,10 +991,10 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32646</v>
+        <v>32665</v>
       </c>
       <c r="C55">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,10 +1002,10 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33441</v>
+        <v>33445</v>
       </c>
       <c r="C56">
-        <v>795</v>
+        <v>780</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,10 +1013,10 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33858</v>
+        <v>33861</v>
       </c>
       <c r="C57">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1024,7 +1024,7 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34324</v>
+        <v>34327</v>
       </c>
       <c r="C58">
         <v>466</v>
@@ -1035,10 +1035,10 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>35076</v>
+        <v>35101</v>
       </c>
       <c r="C59">
-        <v>752</v>
+        <v>774</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,10 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>36000</v>
+        <v>36060</v>
       </c>
       <c r="C60">
-        <v>924</v>
+        <v>959</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,10 +1057,10 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36880</v>
+        <v>36919</v>
       </c>
       <c r="C61">
-        <v>880</v>
+        <v>859</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,10 +1068,10 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37700</v>
+        <v>37711</v>
       </c>
       <c r="C62">
-        <v>820</v>
+        <v>792</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,10 +1079,10 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>38187</v>
+        <v>38208</v>
       </c>
       <c r="C63">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1090,10 +1090,10 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38587</v>
+        <v>38616</v>
       </c>
       <c r="C64">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>38996</v>
       </c>
       <c r="C65">
-        <v>409</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1134,10 +1134,10 @@
         <v>43944</v>
       </c>
       <c r="B68">
-        <v>40703</v>
+        <v>40701</v>
       </c>
       <c r="C68">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1145,7 +1145,7 @@
         <v>43945</v>
       </c>
       <c r="B69">
-        <v>41223</v>
+        <v>41221</v>
       </c>
       <c r="C69">
         <v>520</v>
@@ -1156,10 +1156,10 @@
         <v>43946</v>
       </c>
       <c r="B70">
-        <v>41563</v>
+        <v>41562</v>
       </c>
       <c r="C70">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1167,7 +1167,7 @@
         <v>43947</v>
       </c>
       <c r="B71">
-        <v>41735</v>
+        <v>41734</v>
       </c>
       <c r="C71">
         <v>172</v>
@@ -1181,7 +1181,7 @@
         <v>42096</v>
       </c>
       <c r="C72">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1189,10 +1189,10 @@
         <v>43949</v>
       </c>
       <c r="B73">
-        <v>42456</v>
+        <v>42454</v>
       </c>
       <c r="C73">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1200,10 +1200,10 @@
         <v>43950</v>
       </c>
       <c r="B74">
-        <v>42767</v>
+        <v>42766</v>
       </c>
       <c r="C74">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1211,7 +1211,7 @@
         <v>43951</v>
       </c>
       <c r="B75">
-        <v>43073</v>
+        <v>43072</v>
       </c>
       <c r="C75">
         <v>306</v>
@@ -1225,7 +1225,7 @@
         <v>43283</v>
       </c>
       <c r="C76">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1299,10 +1299,10 @@
         <v>43959</v>
       </c>
       <c r="B83">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="C83">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1310,7 +1310,7 @@
         <v>43960</v>
       </c>
       <c r="B84">
-        <v>44740</v>
+        <v>44739</v>
       </c>
       <c r="C84">
         <v>120</v>
@@ -1321,10 +1321,10 @@
         <v>43961</v>
       </c>
       <c r="B85">
-        <v>44821</v>
+        <v>44818</v>
       </c>
       <c r="C85">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1332,7 +1332,7 @@
         <v>43962</v>
       </c>
       <c r="B86">
-        <v>45010</v>
+        <v>45007</v>
       </c>
       <c r="C86">
         <v>189</v>
@@ -1343,10 +1343,10 @@
         <v>43963</v>
       </c>
       <c r="B87">
-        <v>45226</v>
+        <v>45224</v>
       </c>
       <c r="C87">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1354,10 +1354,10 @@
         <v>43964</v>
       </c>
       <c r="B88">
-        <v>45400</v>
+        <v>45409</v>
       </c>
       <c r="C88">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1365,10 +1365,10 @@
         <v>43965</v>
       </c>
       <c r="B89">
-        <v>45523</v>
+        <v>45609</v>
       </c>
       <c r="C89">
-        <v>123</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1376,10 +1376,21 @@
         <v>43966</v>
       </c>
       <c r="B90">
-        <v>45532</v>
+        <v>45718</v>
       </c>
       <c r="C90">
-        <v>9</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B91">
+        <v>45777</v>
+      </c>
+      <c r="C91">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -716,10 +716,10 @@
         <v>43906</v>
       </c>
       <c r="B30">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C30">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -727,7 +727,7 @@
         <v>43907</v>
       </c>
       <c r="B31">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C31">
         <v>466</v>
@@ -738,10 +738,10 @@
         <v>43908</v>
       </c>
       <c r="B32">
-        <v>2717</v>
+        <v>2731</v>
       </c>
       <c r="C32">
-        <v>730</v>
+        <v>745</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -749,10 +749,10 @@
         <v>43909</v>
       </c>
       <c r="B33">
-        <v>3521</v>
+        <v>3546</v>
       </c>
       <c r="C33">
-        <v>804</v>
+        <v>815</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -760,10 +760,10 @@
         <v>43910</v>
       </c>
       <c r="B34">
-        <v>4416</v>
+        <v>4419</v>
       </c>
       <c r="C34">
-        <v>895</v>
+        <v>873</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -771,10 +771,10 @@
         <v>43911</v>
       </c>
       <c r="B35">
-        <v>5509</v>
+        <v>5511</v>
       </c>
       <c r="C35">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -782,7 +782,7 @@
         <v>43912</v>
       </c>
       <c r="B36">
-        <v>6082</v>
+        <v>6084</v>
       </c>
       <c r="C36">
         <v>573</v>
@@ -793,10 +793,10 @@
         <v>43913</v>
       </c>
       <c r="B37">
-        <v>6800</v>
+        <v>6801</v>
       </c>
       <c r="C37">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -804,10 +804,10 @@
         <v>43914</v>
       </c>
       <c r="B38">
-        <v>8004</v>
+        <v>8007</v>
       </c>
       <c r="C38">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,10 +815,10 @@
         <v>43915</v>
       </c>
       <c r="B39">
-        <v>9707</v>
+        <v>9708</v>
       </c>
       <c r="C39">
-        <v>1703</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,7 +826,7 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11397</v>
+        <v>11398</v>
       </c>
       <c r="C40">
         <v>1690</v>
@@ -837,7 +837,7 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>13048</v>
+        <v>13049</v>
       </c>
       <c r="C41">
         <v>1651</v>
@@ -848,7 +848,7 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14480</v>
+        <v>14481</v>
       </c>
       <c r="C42">
         <v>1432</v>
@@ -862,7 +862,7 @@
         <v>15347</v>
       </c>
       <c r="C43">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -870,10 +870,10 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16358</v>
+        <v>16360</v>
       </c>
       <c r="C44">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,10 +881,10 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18204</v>
+        <v>18205</v>
       </c>
       <c r="C45">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -892,10 +892,10 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20221</v>
+        <v>20225</v>
       </c>
       <c r="C46">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,10 +903,10 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22155</v>
+        <v>22169</v>
       </c>
       <c r="C47">
-        <v>1934</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,10 +914,10 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24048</v>
+        <v>24049</v>
       </c>
       <c r="C48">
-        <v>1893</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,7 +925,7 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25529</v>
+        <v>25530</v>
       </c>
       <c r="C49">
         <v>1481</v>
@@ -939,7 +939,7 @@
         <v>26240</v>
       </c>
       <c r="C50">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -947,10 +947,10 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27372</v>
+        <v>27373</v>
       </c>
       <c r="C51">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -958,10 +958,10 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28886</v>
+        <v>28914</v>
       </c>
       <c r="C52">
-        <v>1514</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30410</v>
+        <v>30467</v>
       </c>
       <c r="C53">
-        <v>1524</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31738</v>
+        <v>31741</v>
       </c>
       <c r="C54">
-        <v>1328</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,10 +991,10 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32665</v>
+        <v>32672</v>
       </c>
       <c r="C55">
-        <v>927</v>
+        <v>931</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,10 +1002,10 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33445</v>
+        <v>33451</v>
       </c>
       <c r="C56">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,10 +1013,10 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33861</v>
+        <v>33868</v>
       </c>
       <c r="C57">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1024,10 +1024,10 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34327</v>
+        <v>34333</v>
       </c>
       <c r="C58">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1035,10 +1035,10 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>35101</v>
+        <v>35104</v>
       </c>
       <c r="C59">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,10 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>36060</v>
+        <v>36065</v>
       </c>
       <c r="C60">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,7 +1057,7 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36919</v>
+        <v>36924</v>
       </c>
       <c r="C61">
         <v>859</v>
@@ -1068,10 +1068,10 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37711</v>
+        <v>37720</v>
       </c>
       <c r="C62">
-        <v>792</v>
+        <v>796</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,10 +1079,10 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>38208</v>
+        <v>38223</v>
       </c>
       <c r="C63">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1090,10 +1090,10 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38616</v>
+        <v>38624</v>
       </c>
       <c r="C64">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1101,10 +1101,10 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>38996</v>
+        <v>39010</v>
       </c>
       <c r="C65">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1112,10 +1112,10 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39514</v>
+        <v>39526</v>
       </c>
       <c r="C66">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1123,10 +1123,10 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>40118</v>
+        <v>40134</v>
       </c>
       <c r="C67">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1134,10 +1134,10 @@
         <v>43944</v>
       </c>
       <c r="B68">
-        <v>40701</v>
+        <v>40714</v>
       </c>
       <c r="C68">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1145,10 +1145,10 @@
         <v>43945</v>
       </c>
       <c r="B69">
-        <v>41221</v>
+        <v>41226</v>
       </c>
       <c r="C69">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1156,10 +1156,10 @@
         <v>43946</v>
       </c>
       <c r="B70">
-        <v>41562</v>
+        <v>41566</v>
       </c>
       <c r="C70">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1167,10 +1167,10 @@
         <v>43947</v>
       </c>
       <c r="B71">
-        <v>41734</v>
+        <v>41744</v>
       </c>
       <c r="C71">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1178,10 +1178,10 @@
         <v>43948</v>
       </c>
       <c r="B72">
-        <v>42096</v>
+        <v>42102</v>
       </c>
       <c r="C72">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1189,10 +1189,10 @@
         <v>43949</v>
       </c>
       <c r="B73">
-        <v>42454</v>
+        <v>42461</v>
       </c>
       <c r="C73">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1200,10 +1200,10 @@
         <v>43950</v>
       </c>
       <c r="B74">
-        <v>42766</v>
+        <v>42771</v>
       </c>
       <c r="C74">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1211,10 +1211,10 @@
         <v>43951</v>
       </c>
       <c r="B75">
-        <v>43072</v>
+        <v>43075</v>
       </c>
       <c r="C75">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1222,10 +1222,10 @@
         <v>43952</v>
       </c>
       <c r="B76">
-        <v>43283</v>
+        <v>43296</v>
       </c>
       <c r="C76">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1233,10 +1233,10 @@
         <v>43953</v>
       </c>
       <c r="B77">
-        <v>43435</v>
+        <v>43433</v>
       </c>
       <c r="C77">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>43525</v>
       </c>
       <c r="C78">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1255,10 +1255,10 @@
         <v>43955</v>
       </c>
       <c r="B79">
-        <v>43700</v>
+        <v>43699</v>
       </c>
       <c r="C79">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1266,10 +1266,10 @@
         <v>43956</v>
       </c>
       <c r="B80">
-        <v>43912</v>
+        <v>43917</v>
       </c>
       <c r="C80">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1277,10 +1277,10 @@
         <v>43957</v>
       </c>
       <c r="B81">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="C81">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1288,10 +1288,10 @@
         <v>43958</v>
       </c>
       <c r="B82">
-        <v>44415</v>
+        <v>44417</v>
       </c>
       <c r="C82">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1299,10 +1299,10 @@
         <v>43959</v>
       </c>
       <c r="B83">
-        <v>44619</v>
+        <v>44622</v>
       </c>
       <c r="C83">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1310,7 +1310,7 @@
         <v>43960</v>
       </c>
       <c r="B84">
-        <v>44739</v>
+        <v>44742</v>
       </c>
       <c r="C84">
         <v>120</v>
@@ -1321,7 +1321,7 @@
         <v>43961</v>
       </c>
       <c r="B85">
-        <v>44818</v>
+        <v>44821</v>
       </c>
       <c r="C85">
         <v>79</v>
@@ -1332,10 +1332,10 @@
         <v>43962</v>
       </c>
       <c r="B86">
-        <v>45007</v>
+        <v>45011</v>
       </c>
       <c r="C86">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1343,10 +1343,10 @@
         <v>43963</v>
       </c>
       <c r="B87">
-        <v>45224</v>
+        <v>45227</v>
       </c>
       <c r="C87">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1354,10 +1354,10 @@
         <v>43964</v>
       </c>
       <c r="B88">
-        <v>45409</v>
+        <v>45416</v>
       </c>
       <c r="C88">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1365,10 +1365,10 @@
         <v>43965</v>
       </c>
       <c r="B89">
-        <v>45609</v>
+        <v>45617</v>
       </c>
       <c r="C89">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1376,10 +1376,10 @@
         <v>43966</v>
       </c>
       <c r="B90">
-        <v>45718</v>
+        <v>45740</v>
       </c>
       <c r="C90">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1387,10 +1387,43 @@
         <v>43967</v>
       </c>
       <c r="B91">
-        <v>45777</v>
+        <v>45838</v>
       </c>
       <c r="C91">
-        <v>59</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B92">
+        <v>45896</v>
+      </c>
+      <c r="C92">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B93">
+        <v>45965</v>
+      </c>
+      <c r="C93">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B94">
+        <v>45966</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,10 +650,10 @@
         <v>43900</v>
       </c>
       <c r="B24">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C24">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -661,7 +661,7 @@
         <v>43901</v>
       </c>
       <c r="B25">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C25">
         <v>117</v>
@@ -672,7 +672,7 @@
         <v>43902</v>
       </c>
       <c r="B26">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C26">
         <v>132</v>
@@ -683,7 +683,7 @@
         <v>43903</v>
       </c>
       <c r="B27">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C27">
         <v>250</v>
@@ -697,7 +697,7 @@
         <v>1090</v>
       </c>
       <c r="C28">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -705,10 +705,10 @@
         <v>43905</v>
       </c>
       <c r="B29">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C29">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -716,7 +716,7 @@
         <v>43906</v>
       </c>
       <c r="B30">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C30">
         <v>266</v>
@@ -727,7 +727,7 @@
         <v>43907</v>
       </c>
       <c r="B31">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C31">
         <v>466</v>
@@ -738,7 +738,7 @@
         <v>43908</v>
       </c>
       <c r="B32">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="C32">
         <v>745</v>
@@ -749,7 +749,7 @@
         <v>43909</v>
       </c>
       <c r="B33">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="C33">
         <v>815</v>
@@ -760,7 +760,7 @@
         <v>43910</v>
       </c>
       <c r="B34">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="C34">
         <v>873</v>
@@ -774,7 +774,7 @@
         <v>5511</v>
       </c>
       <c r="C35">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -826,10 +826,10 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11398</v>
+        <v>11401</v>
       </c>
       <c r="C40">
-        <v>1690</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,10 +837,10 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>13049</v>
+        <v>13054</v>
       </c>
       <c r="C41">
-        <v>1651</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -848,10 +848,10 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14481</v>
+        <v>14487</v>
       </c>
       <c r="C42">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -859,7 +859,7 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15347</v>
+        <v>15353</v>
       </c>
       <c r="C43">
         <v>866</v>
@@ -870,10 +870,10 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16360</v>
+        <v>16367</v>
       </c>
       <c r="C44">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,10 +881,10 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18205</v>
+        <v>18215</v>
       </c>
       <c r="C45">
-        <v>1845</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -892,10 +892,10 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20225</v>
+        <v>20232</v>
       </c>
       <c r="C46">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,7 +903,7 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22169</v>
+        <v>22176</v>
       </c>
       <c r="C47">
         <v>1944</v>
@@ -914,7 +914,7 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24049</v>
+        <v>24056</v>
       </c>
       <c r="C48">
         <v>1880</v>
@@ -925,10 +925,10 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25530</v>
+        <v>25543</v>
       </c>
       <c r="C49">
-        <v>1481</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,10 +936,10 @@
         <v>43926</v>
       </c>
       <c r="B50">
-        <v>26240</v>
+        <v>26255</v>
       </c>
       <c r="C50">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -947,10 +947,10 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27373</v>
+        <v>27382</v>
       </c>
       <c r="C51">
-        <v>1133</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -958,10 +958,10 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28914</v>
+        <v>28920</v>
       </c>
       <c r="C52">
-        <v>1541</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,7 +969,7 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30467</v>
+        <v>30473</v>
       </c>
       <c r="C53">
         <v>1553</v>
@@ -980,7 +980,7 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31741</v>
+        <v>31747</v>
       </c>
       <c r="C54">
         <v>1274</v>
@@ -991,7 +991,7 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32672</v>
+        <v>32678</v>
       </c>
       <c r="C55">
         <v>931</v>
@@ -1002,7 +1002,7 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33451</v>
+        <v>33457</v>
       </c>
       <c r="C56">
         <v>779</v>
@@ -1013,10 +1013,10 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33868</v>
+        <v>33875</v>
       </c>
       <c r="C57">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1024,7 +1024,7 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34333</v>
+        <v>34340</v>
       </c>
       <c r="C58">
         <v>465</v>
@@ -1035,10 +1035,10 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>35104</v>
+        <v>35114</v>
       </c>
       <c r="C59">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,10 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>36065</v>
+        <v>36072</v>
       </c>
       <c r="C60">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,10 +1057,10 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36924</v>
+        <v>36932</v>
       </c>
       <c r="C61">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,10 +1068,10 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37720</v>
+        <v>37729</v>
       </c>
       <c r="C62">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,7 +1079,7 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>38223</v>
+        <v>38232</v>
       </c>
       <c r="C63">
         <v>503</v>
@@ -1090,7 +1090,7 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38624</v>
+        <v>38633</v>
       </c>
       <c r="C64">
         <v>401</v>
@@ -1101,7 +1101,7 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>39010</v>
+        <v>39019</v>
       </c>
       <c r="C65">
         <v>386</v>
@@ -1112,7 +1112,7 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39526</v>
+        <v>39535</v>
       </c>
       <c r="C66">
         <v>516</v>
@@ -1123,7 +1123,7 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>40134</v>
+        <v>40143</v>
       </c>
       <c r="C67">
         <v>608</v>
@@ -1134,7 +1134,7 @@
         <v>43944</v>
       </c>
       <c r="B68">
-        <v>40714</v>
+        <v>40723</v>
       </c>
       <c r="C68">
         <v>580</v>
@@ -1145,10 +1145,10 @@
         <v>43945</v>
       </c>
       <c r="B69">
-        <v>41226</v>
+        <v>41236</v>
       </c>
       <c r="C69">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1156,7 +1156,7 @@
         <v>43946</v>
       </c>
       <c r="B70">
-        <v>41566</v>
+        <v>41576</v>
       </c>
       <c r="C70">
         <v>340</v>
@@ -1167,7 +1167,7 @@
         <v>43947</v>
       </c>
       <c r="B71">
-        <v>41744</v>
+        <v>41754</v>
       </c>
       <c r="C71">
         <v>178</v>
@@ -1178,10 +1178,10 @@
         <v>43948</v>
       </c>
       <c r="B72">
-        <v>42102</v>
+        <v>42111</v>
       </c>
       <c r="C72">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1189,10 +1189,10 @@
         <v>43949</v>
       </c>
       <c r="B73">
-        <v>42461</v>
+        <v>42471</v>
       </c>
       <c r="C73">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>43950</v>
       </c>
       <c r="B74">
-        <v>42771</v>
+        <v>42781</v>
       </c>
       <c r="C74">
         <v>310</v>
@@ -1211,7 +1211,7 @@
         <v>43951</v>
       </c>
       <c r="B75">
-        <v>43075</v>
+        <v>43085</v>
       </c>
       <c r="C75">
         <v>304</v>
@@ -1222,10 +1222,10 @@
         <v>43952</v>
       </c>
       <c r="B76">
-        <v>43296</v>
+        <v>43307</v>
       </c>
       <c r="C76">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1233,7 +1233,7 @@
         <v>43953</v>
       </c>
       <c r="B77">
-        <v>43433</v>
+        <v>43444</v>
       </c>
       <c r="C77">
         <v>137</v>
@@ -1244,7 +1244,7 @@
         <v>43954</v>
       </c>
       <c r="B78">
-        <v>43525</v>
+        <v>43536</v>
       </c>
       <c r="C78">
         <v>92</v>
@@ -1255,7 +1255,7 @@
         <v>43955</v>
       </c>
       <c r="B79">
-        <v>43699</v>
+        <v>43710</v>
       </c>
       <c r="C79">
         <v>174</v>
@@ -1266,7 +1266,7 @@
         <v>43956</v>
       </c>
       <c r="B80">
-        <v>43917</v>
+        <v>43928</v>
       </c>
       <c r="C80">
         <v>218</v>
@@ -1277,7 +1277,7 @@
         <v>43957</v>
       </c>
       <c r="B81">
-        <v>44179</v>
+        <v>44190</v>
       </c>
       <c r="C81">
         <v>262</v>
@@ -1288,7 +1288,7 @@
         <v>43958</v>
       </c>
       <c r="B82">
-        <v>44417</v>
+        <v>44428</v>
       </c>
       <c r="C82">
         <v>238</v>
@@ -1299,7 +1299,7 @@
         <v>43959</v>
       </c>
       <c r="B83">
-        <v>44622</v>
+        <v>44633</v>
       </c>
       <c r="C83">
         <v>205</v>
@@ -1310,7 +1310,7 @@
         <v>43960</v>
       </c>
       <c r="B84">
-        <v>44742</v>
+        <v>44753</v>
       </c>
       <c r="C84">
         <v>120</v>
@@ -1321,7 +1321,7 @@
         <v>43961</v>
       </c>
       <c r="B85">
-        <v>44821</v>
+        <v>44832</v>
       </c>
       <c r="C85">
         <v>79</v>
@@ -1332,10 +1332,10 @@
         <v>43962</v>
       </c>
       <c r="B86">
-        <v>45011</v>
+        <v>45024</v>
       </c>
       <c r="C86">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1343,7 +1343,7 @@
         <v>43963</v>
       </c>
       <c r="B87">
-        <v>45227</v>
+        <v>45240</v>
       </c>
       <c r="C87">
         <v>216</v>
@@ -1354,10 +1354,10 @@
         <v>43964</v>
       </c>
       <c r="B88">
-        <v>45416</v>
+        <v>45428</v>
       </c>
       <c r="C88">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1365,7 +1365,7 @@
         <v>43965</v>
       </c>
       <c r="B89">
-        <v>45617</v>
+        <v>45629</v>
       </c>
       <c r="C89">
         <v>201</v>
@@ -1376,10 +1376,10 @@
         <v>43966</v>
       </c>
       <c r="B90">
-        <v>45740</v>
+        <v>45754</v>
       </c>
       <c r="C90">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1387,10 +1387,10 @@
         <v>43967</v>
       </c>
       <c r="B91">
-        <v>45838</v>
+        <v>45853</v>
       </c>
       <c r="C91">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1398,7 +1398,7 @@
         <v>43968</v>
       </c>
       <c r="B92">
-        <v>45896</v>
+        <v>45911</v>
       </c>
       <c r="C92">
         <v>58</v>
@@ -1409,10 +1409,10 @@
         <v>43969</v>
       </c>
       <c r="B93">
-        <v>45965</v>
+        <v>45992</v>
       </c>
       <c r="C93">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1420,9 +1420,20 @@
         <v>43970</v>
       </c>
       <c r="B94">
-        <v>45966</v>
+        <v>46083</v>
       </c>
       <c r="C94">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B95">
+        <v>46084</v>
+      </c>
+      <c r="C95">
         <v>1</v>
       </c>
     </row>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,10 +650,10 @@
         <v>43900</v>
       </c>
       <c r="B24">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C24">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -664,7 +664,7 @@
         <v>473</v>
       </c>
       <c r="C25">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -683,10 +683,10 @@
         <v>43903</v>
       </c>
       <c r="B27">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C27">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -694,7 +694,7 @@
         <v>43904</v>
       </c>
       <c r="B28">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C28">
         <v>235</v>
@@ -705,10 +705,10 @@
         <v>43905</v>
       </c>
       <c r="B29">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C29">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -716,10 +716,10 @@
         <v>43906</v>
       </c>
       <c r="B30">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="C30">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -727,7 +727,7 @@
         <v>43907</v>
       </c>
       <c r="B31">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="C31">
         <v>466</v>
@@ -738,10 +738,10 @@
         <v>43908</v>
       </c>
       <c r="B32">
-        <v>2730</v>
+        <v>2735</v>
       </c>
       <c r="C32">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -749,7 +749,7 @@
         <v>43909</v>
       </c>
       <c r="B33">
-        <v>3545</v>
+        <v>3550</v>
       </c>
       <c r="C33">
         <v>815</v>
@@ -760,10 +760,10 @@
         <v>43910</v>
       </c>
       <c r="B34">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="C34">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -771,10 +771,10 @@
         <v>43911</v>
       </c>
       <c r="B35">
-        <v>5511</v>
+        <v>5515</v>
       </c>
       <c r="C35">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -782,7 +782,7 @@
         <v>43912</v>
       </c>
       <c r="B36">
-        <v>6084</v>
+        <v>6088</v>
       </c>
       <c r="C36">
         <v>573</v>
@@ -793,7 +793,7 @@
         <v>43913</v>
       </c>
       <c r="B37">
-        <v>6801</v>
+        <v>6805</v>
       </c>
       <c r="C37">
         <v>717</v>
@@ -804,10 +804,10 @@
         <v>43914</v>
       </c>
       <c r="B38">
-        <v>8007</v>
+        <v>8010</v>
       </c>
       <c r="C38">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,10 +815,10 @@
         <v>43915</v>
       </c>
       <c r="B39">
-        <v>9708</v>
+        <v>9710</v>
       </c>
       <c r="C39">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,10 +826,10 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11401</v>
+        <v>11404</v>
       </c>
       <c r="C40">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,10 +837,10 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>13054</v>
+        <v>13061</v>
       </c>
       <c r="C41">
-        <v>1653</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -848,10 +848,10 @@
         <v>43918</v>
       </c>
       <c r="B42">
-        <v>14487</v>
+        <v>14488</v>
       </c>
       <c r="C42">
-        <v>1433</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -859,7 +859,7 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15353</v>
+        <v>15354</v>
       </c>
       <c r="C43">
         <v>866</v>
@@ -870,10 +870,10 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16367</v>
+        <v>16370</v>
       </c>
       <c r="C44">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,10 +881,10 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18215</v>
+        <v>18219</v>
       </c>
       <c r="C45">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -892,7 +892,7 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20232</v>
+        <v>20236</v>
       </c>
       <c r="C46">
         <v>2017</v>
@@ -906,7 +906,7 @@
         <v>22176</v>
       </c>
       <c r="C47">
-        <v>1944</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,10 +914,10 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24056</v>
+        <v>24055</v>
       </c>
       <c r="C48">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,7 +925,7 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25543</v>
+        <v>25542</v>
       </c>
       <c r="C49">
         <v>1487</v>
@@ -936,10 +936,10 @@
         <v>43926</v>
       </c>
       <c r="B50">
-        <v>26255</v>
+        <v>26253</v>
       </c>
       <c r="C50">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -947,10 +947,10 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27382</v>
+        <v>27378</v>
       </c>
       <c r="C51">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -958,10 +958,10 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28920</v>
+        <v>28914</v>
       </c>
       <c r="C52">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30473</v>
+        <v>30468</v>
       </c>
       <c r="C53">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31747</v>
+        <v>31743</v>
       </c>
       <c r="C54">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,7 +991,7 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32678</v>
+        <v>32674</v>
       </c>
       <c r="C55">
         <v>931</v>
@@ -1002,10 +1002,10 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33457</v>
+        <v>33450</v>
       </c>
       <c r="C56">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,10 +1013,10 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33875</v>
+        <v>33870</v>
       </c>
       <c r="C57">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1024,7 +1024,7 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34340</v>
+        <v>34335</v>
       </c>
       <c r="C58">
         <v>465</v>
@@ -1035,10 +1035,10 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>35114</v>
+        <v>35108</v>
       </c>
       <c r="C59">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,10 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>36072</v>
+        <v>36065</v>
       </c>
       <c r="C60">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,10 +1057,10 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36932</v>
+        <v>36943</v>
       </c>
       <c r="C61">
-        <v>860</v>
+        <v>878</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,10 +1068,10 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37729</v>
+        <v>37723</v>
       </c>
       <c r="C62">
-        <v>797</v>
+        <v>780</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,10 +1079,10 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>38232</v>
+        <v>38225</v>
       </c>
       <c r="C63">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1090,10 +1090,10 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38633</v>
+        <v>38627</v>
       </c>
       <c r="C64">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1101,10 +1101,10 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>39019</v>
+        <v>39015</v>
       </c>
       <c r="C65">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1112,10 +1112,10 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39535</v>
+        <v>39529</v>
       </c>
       <c r="C66">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1123,10 +1123,10 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>40143</v>
+        <v>40135</v>
       </c>
       <c r="C67">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1134,10 +1134,10 @@
         <v>43944</v>
       </c>
       <c r="B68">
-        <v>40723</v>
+        <v>40713</v>
       </c>
       <c r="C68">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1145,10 +1145,10 @@
         <v>43945</v>
       </c>
       <c r="B69">
-        <v>41236</v>
+        <v>41225</v>
       </c>
       <c r="C69">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1156,7 +1156,7 @@
         <v>43946</v>
       </c>
       <c r="B70">
-        <v>41576</v>
+        <v>41565</v>
       </c>
       <c r="C70">
         <v>340</v>
@@ -1167,10 +1167,10 @@
         <v>43947</v>
       </c>
       <c r="B71">
-        <v>41754</v>
+        <v>41745</v>
       </c>
       <c r="C71">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1178,7 +1178,7 @@
         <v>43948</v>
       </c>
       <c r="B72">
-        <v>42111</v>
+        <v>42102</v>
       </c>
       <c r="C72">
         <v>357</v>
@@ -1189,10 +1189,10 @@
         <v>43949</v>
       </c>
       <c r="B73">
-        <v>42471</v>
+        <v>42463</v>
       </c>
       <c r="C73">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>43950</v>
       </c>
       <c r="B74">
-        <v>42781</v>
+        <v>42773</v>
       </c>
       <c r="C74">
         <v>310</v>
@@ -1211,10 +1211,10 @@
         <v>43951</v>
       </c>
       <c r="B75">
-        <v>43085</v>
+        <v>43076</v>
       </c>
       <c r="C75">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1222,7 +1222,7 @@
         <v>43952</v>
       </c>
       <c r="B76">
-        <v>43307</v>
+        <v>43298</v>
       </c>
       <c r="C76">
         <v>222</v>
@@ -1233,7 +1233,7 @@
         <v>43953</v>
       </c>
       <c r="B77">
-        <v>43444</v>
+        <v>43435</v>
       </c>
       <c r="C77">
         <v>137</v>
@@ -1244,7 +1244,7 @@
         <v>43954</v>
       </c>
       <c r="B78">
-        <v>43536</v>
+        <v>43527</v>
       </c>
       <c r="C78">
         <v>92</v>
@@ -1255,10 +1255,10 @@
         <v>43955</v>
       </c>
       <c r="B79">
-        <v>43710</v>
+        <v>43700</v>
       </c>
       <c r="C79">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1266,7 +1266,7 @@
         <v>43956</v>
       </c>
       <c r="B80">
-        <v>43928</v>
+        <v>43918</v>
       </c>
       <c r="C80">
         <v>218</v>
@@ -1277,7 +1277,7 @@
         <v>43957</v>
       </c>
       <c r="B81">
-        <v>44190</v>
+        <v>44180</v>
       </c>
       <c r="C81">
         <v>262</v>
@@ -1288,10 +1288,10 @@
         <v>43958</v>
       </c>
       <c r="B82">
-        <v>44428</v>
+        <v>44417</v>
       </c>
       <c r="C82">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1299,10 +1299,10 @@
         <v>43959</v>
       </c>
       <c r="B83">
-        <v>44633</v>
+        <v>44621</v>
       </c>
       <c r="C83">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1310,7 +1310,7 @@
         <v>43960</v>
       </c>
       <c r="B84">
-        <v>44753</v>
+        <v>44741</v>
       </c>
       <c r="C84">
         <v>120</v>
@@ -1321,7 +1321,7 @@
         <v>43961</v>
       </c>
       <c r="B85">
-        <v>44832</v>
+        <v>44820</v>
       </c>
       <c r="C85">
         <v>79</v>
@@ -1332,7 +1332,7 @@
         <v>43962</v>
       </c>
       <c r="B86">
-        <v>45024</v>
+        <v>45012</v>
       </c>
       <c r="C86">
         <v>192</v>
@@ -1343,10 +1343,10 @@
         <v>43963</v>
       </c>
       <c r="B87">
-        <v>45240</v>
+        <v>45227</v>
       </c>
       <c r="C87">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1354,7 +1354,7 @@
         <v>43964</v>
       </c>
       <c r="B88">
-        <v>45428</v>
+        <v>45415</v>
       </c>
       <c r="C88">
         <v>188</v>
@@ -1365,7 +1365,7 @@
         <v>43965</v>
       </c>
       <c r="B89">
-        <v>45629</v>
+        <v>45616</v>
       </c>
       <c r="C89">
         <v>201</v>
@@ -1376,10 +1376,10 @@
         <v>43966</v>
       </c>
       <c r="B90">
-        <v>45754</v>
+        <v>45744</v>
       </c>
       <c r="C90">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1387,10 +1387,10 @@
         <v>43967</v>
       </c>
       <c r="B91">
-        <v>45853</v>
+        <v>45844</v>
       </c>
       <c r="C91">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1398,7 +1398,7 @@
         <v>43968</v>
       </c>
       <c r="B92">
-        <v>45911</v>
+        <v>45902</v>
       </c>
       <c r="C92">
         <v>58</v>
@@ -1409,10 +1409,10 @@
         <v>43969</v>
       </c>
       <c r="B93">
-        <v>45992</v>
+        <v>45986</v>
       </c>
       <c r="C93">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1420,10 +1420,10 @@
         <v>43970</v>
       </c>
       <c r="B94">
-        <v>46083</v>
+        <v>46094</v>
       </c>
       <c r="C94">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1431,9 +1431,42 @@
         <v>43971</v>
       </c>
       <c r="B95">
-        <v>46084</v>
+        <v>46278</v>
       </c>
       <c r="C95">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B96">
+        <v>46362</v>
+      </c>
+      <c r="C96">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B97">
+        <v>46437</v>
+      </c>
+      <c r="C97">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>43974</v>
+      </c>
+      <c r="B98">
+        <v>46438</v>
+      </c>
+      <c r="C98">
         <v>1</v>
       </c>
     </row>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +529,10 @@
         <v>43889</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -540,7 +540,7 @@
         <v>43890</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -551,7 +551,7 @@
         <v>43891</v>
       </c>
       <c r="B15">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -562,7 +562,7 @@
         <v>43892</v>
       </c>
       <c r="B16">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -573,7 +573,7 @@
         <v>43893</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -584,7 +584,7 @@
         <v>43894</v>
       </c>
       <c r="B18">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -595,7 +595,7 @@
         <v>43895</v>
       </c>
       <c r="B19">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19">
         <v>22</v>
@@ -606,7 +606,7 @@
         <v>43896</v>
       </c>
       <c r="B20">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20">
         <v>52</v>
@@ -617,7 +617,7 @@
         <v>43897</v>
       </c>
       <c r="B21">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -631,7 +631,7 @@
         <v>164</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -650,10 +650,10 @@
         <v>43900</v>
       </c>
       <c r="B24">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C24">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -661,7 +661,7 @@
         <v>43901</v>
       </c>
       <c r="B25">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C25">
         <v>116</v>
@@ -675,7 +675,7 @@
         <v>605</v>
       </c>
       <c r="C26">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -683,10 +683,10 @@
         <v>43903</v>
       </c>
       <c r="B27">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C27">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -694,10 +694,10 @@
         <v>43904</v>
       </c>
       <c r="B28">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C28">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -708,7 +708,7 @@
         <v>1255</v>
       </c>
       <c r="C29">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -727,10 +727,10 @@
         <v>43907</v>
       </c>
       <c r="B31">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="C31">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -738,10 +738,10 @@
         <v>43908</v>
       </c>
       <c r="B32">
-        <v>2735</v>
+        <v>2739</v>
       </c>
       <c r="C32">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -749,10 +749,10 @@
         <v>43909</v>
       </c>
       <c r="B33">
-        <v>3550</v>
+        <v>3553</v>
       </c>
       <c r="C33">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -760,10 +760,10 @@
         <v>43910</v>
       </c>
       <c r="B34">
-        <v>4421</v>
+        <v>4426</v>
       </c>
       <c r="C34">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -771,10 +771,10 @@
         <v>43911</v>
       </c>
       <c r="B35">
-        <v>5515</v>
+        <v>5530</v>
       </c>
       <c r="C35">
-        <v>1094</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -782,10 +782,10 @@
         <v>43912</v>
       </c>
       <c r="B36">
-        <v>6088</v>
+        <v>6092</v>
       </c>
       <c r="C36">
-        <v>573</v>
+        <v>562</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -793,7 +793,7 @@
         <v>43913</v>
       </c>
       <c r="B37">
-        <v>6805</v>
+        <v>6809</v>
       </c>
       <c r="C37">
         <v>717</v>
@@ -804,10 +804,10 @@
         <v>43914</v>
       </c>
       <c r="B38">
-        <v>8010</v>
+        <v>8027</v>
       </c>
       <c r="C38">
-        <v>1205</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,10 +815,10 @@
         <v>43915</v>
       </c>
       <c r="B39">
-        <v>9710</v>
+        <v>9709</v>
       </c>
       <c r="C39">
-        <v>1700</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,10 +826,10 @@
         <v>43916</v>
       </c>
       <c r="B40">
-        <v>11404</v>
+        <v>11416</v>
       </c>
       <c r="C40">
-        <v>1694</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,10 +837,10 @@
         <v>43917</v>
       </c>
       <c r="B41">
-        <v>13061</v>
+        <v>13063</v>
       </c>
       <c r="C41">
-        <v>1657</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -851,7 +851,7 @@
         <v>14488</v>
       </c>
       <c r="C42">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -859,10 +859,10 @@
         <v>43919</v>
       </c>
       <c r="B43">
-        <v>15354</v>
+        <v>15349</v>
       </c>
       <c r="C43">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -870,10 +870,10 @@
         <v>43920</v>
       </c>
       <c r="B44">
-        <v>16370</v>
+        <v>16368</v>
       </c>
       <c r="C44">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,10 +881,10 @@
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>18219</v>
+        <v>18209</v>
       </c>
       <c r="C45">
-        <v>1849</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -892,10 +892,10 @@
         <v>43922</v>
       </c>
       <c r="B46">
-        <v>20236</v>
+        <v>20221</v>
       </c>
       <c r="C46">
-        <v>2017</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,10 +903,10 @@
         <v>43923</v>
       </c>
       <c r="B47">
-        <v>22176</v>
+        <v>22159</v>
       </c>
       <c r="C47">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,10 +914,10 @@
         <v>43924</v>
       </c>
       <c r="B48">
-        <v>24055</v>
+        <v>24033</v>
       </c>
       <c r="C48">
-        <v>1879</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,10 +925,10 @@
         <v>43925</v>
       </c>
       <c r="B49">
-        <v>25542</v>
+        <v>25524</v>
       </c>
       <c r="C49">
-        <v>1487</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,7 +936,7 @@
         <v>43926</v>
       </c>
       <c r="B50">
-        <v>26253</v>
+        <v>26235</v>
       </c>
       <c r="C50">
         <v>711</v>
@@ -947,10 +947,10 @@
         <v>43927</v>
       </c>
       <c r="B51">
-        <v>27378</v>
+        <v>27365</v>
       </c>
       <c r="C51">
-        <v>1125</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -958,10 +958,10 @@
         <v>43928</v>
       </c>
       <c r="B52">
-        <v>28914</v>
+        <v>28892</v>
       </c>
       <c r="C52">
-        <v>1536</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43929</v>
       </c>
       <c r="B53">
-        <v>30468</v>
+        <v>30443</v>
       </c>
       <c r="C53">
-        <v>1554</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43930</v>
       </c>
       <c r="B54">
-        <v>31743</v>
+        <v>31713</v>
       </c>
       <c r="C54">
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,10 +991,10 @@
         <v>43931</v>
       </c>
       <c r="B55">
-        <v>32674</v>
+        <v>32643</v>
       </c>
       <c r="C55">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,10 +1002,10 @@
         <v>43932</v>
       </c>
       <c r="B56">
-        <v>33450</v>
+        <v>33422</v>
       </c>
       <c r="C56">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1013,10 +1013,10 @@
         <v>43933</v>
       </c>
       <c r="B57">
-        <v>33870</v>
+        <v>33844</v>
       </c>
       <c r="C57">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1024,7 +1024,7 @@
         <v>43934</v>
       </c>
       <c r="B58">
-        <v>34335</v>
+        <v>34309</v>
       </c>
       <c r="C58">
         <v>465</v>
@@ -1035,10 +1035,10 @@
         <v>43935</v>
       </c>
       <c r="B59">
-        <v>35108</v>
+        <v>35070</v>
       </c>
       <c r="C59">
-        <v>773</v>
+        <v>761</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,10 @@
         <v>43936</v>
       </c>
       <c r="B60">
-        <v>36065</v>
+        <v>36036</v>
       </c>
       <c r="C60">
-        <v>957</v>
+        <v>966</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,10 +1057,10 @@
         <v>43937</v>
       </c>
       <c r="B61">
-        <v>36943</v>
+        <v>36908</v>
       </c>
       <c r="C61">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,10 +1068,10 @@
         <v>43938</v>
       </c>
       <c r="B62">
-        <v>37723</v>
+        <v>37690</v>
       </c>
       <c r="C62">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,10 +1079,10 @@
         <v>43939</v>
       </c>
       <c r="B63">
-        <v>38225</v>
+        <v>38201</v>
       </c>
       <c r="C63">
-        <v>502</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1090,10 +1090,10 @@
         <v>43940</v>
       </c>
       <c r="B64">
-        <v>38627</v>
+        <v>38597</v>
       </c>
       <c r="C64">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1101,10 +1101,10 @@
         <v>43941</v>
       </c>
       <c r="B65">
-        <v>39015</v>
+        <v>38980</v>
       </c>
       <c r="C65">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1112,10 +1112,10 @@
         <v>43942</v>
       </c>
       <c r="B66">
-        <v>39529</v>
+        <v>39492</v>
       </c>
       <c r="C66">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1123,10 +1123,10 @@
         <v>43943</v>
       </c>
       <c r="B67">
-        <v>40135</v>
+        <v>40096</v>
       </c>
       <c r="C67">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1134,10 +1134,10 @@
         <v>43944</v>
       </c>
       <c r="B68">
-        <v>40713</v>
+        <v>40676</v>
       </c>
       <c r="C68">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1145,10 +1145,10 @@
         <v>43945</v>
       </c>
       <c r="B69">
-        <v>41225</v>
+        <v>41183</v>
       </c>
       <c r="C69">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1156,10 +1156,10 @@
         <v>43946</v>
       </c>
       <c r="B70">
-        <v>41565</v>
+        <v>41526</v>
       </c>
       <c r="C70">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1167,10 +1167,10 @@
         <v>43947</v>
       </c>
       <c r="B71">
-        <v>41745</v>
+        <v>41712</v>
       </c>
       <c r="C71">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1178,10 +1178,10 @@
         <v>43948</v>
       </c>
       <c r="B72">
-        <v>42102</v>
+        <v>42064</v>
       </c>
       <c r="C72">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1189,10 +1189,10 @@
         <v>43949</v>
       </c>
       <c r="B73">
-        <v>42463</v>
+        <v>42433</v>
       </c>
       <c r="C73">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1200,10 +1200,10 @@
         <v>43950</v>
       </c>
       <c r="B74">
-        <v>42773</v>
+        <v>42737</v>
       </c>
       <c r="C74">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1211,10 +1211,10 @@
         <v>43951</v>
       </c>
       <c r="B75">
-        <v>43076</v>
+        <v>43035</v>
       </c>
       <c r="C75">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1222,10 +1222,10 @@
         <v>43952</v>
       </c>
       <c r="B76">
-        <v>43298</v>
+        <v>43258</v>
       </c>
       <c r="C76">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1233,7 +1233,7 @@
         <v>43953</v>
       </c>
       <c r="B77">
-        <v>43435</v>
+        <v>43395</v>
       </c>
       <c r="C77">
         <v>137</v>
@@ -1244,7 +1244,7 @@
         <v>43954</v>
       </c>
       <c r="B78">
-        <v>43527</v>
+        <v>43487</v>
       </c>
       <c r="C78">
         <v>92</v>
@@ -1255,10 +1255,10 @@
         <v>43955</v>
       </c>
       <c r="B79">
-        <v>43700</v>
+        <v>43658</v>
       </c>
       <c r="C79">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1266,7 +1266,7 @@
         <v>43956</v>
       </c>
       <c r="B80">
-        <v>43918</v>
+        <v>43876</v>
       </c>
       <c r="C80">
         <v>218</v>
@@ -1277,7 +1277,7 @@
         <v>43957</v>
       </c>
       <c r="B81">
-        <v>44180</v>
+        <v>44138</v>
       </c>
       <c r="C81">
         <v>262</v>
@@ -1288,10 +1288,10 @@
         <v>43958</v>
       </c>
       <c r="B82">
-        <v>44417</v>
+        <v>44374</v>
       </c>
       <c r="C82">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1299,10 +1299,10 @@
         <v>43959</v>
       </c>
       <c r="B83">
-        <v>44621</v>
+        <v>44579</v>
       </c>
       <c r="C83">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1310,10 +1310,10 @@
         <v>43960</v>
       </c>
       <c r="B84">
-        <v>44741</v>
+        <v>44701</v>
       </c>
       <c r="C84">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1321,10 +1321,10 @@
         <v>43961</v>
       </c>
       <c r="B85">
-        <v>44820</v>
+        <v>44779</v>
       </c>
       <c r="C85">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1332,10 +1332,10 @@
         <v>43962</v>
       </c>
       <c r="B86">
-        <v>45012</v>
+        <v>44970</v>
       </c>
       <c r="C86">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1343,10 +1343,10 @@
         <v>43963</v>
       </c>
       <c r="B87">
-        <v>45227</v>
+        <v>45183</v>
       </c>
       <c r="C87">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1354,10 +1354,10 @@
         <v>43964</v>
       </c>
       <c r="B88">
-        <v>45415</v>
+        <v>45373</v>
       </c>
       <c r="C88">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1365,10 +1365,10 @@
         <v>43965</v>
       </c>
       <c r="B89">
-        <v>45616</v>
+        <v>45577</v>
       </c>
       <c r="C89">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1376,10 +1376,10 @@
         <v>43966</v>
       </c>
       <c r="B90">
-        <v>45744</v>
+        <v>45708</v>
       </c>
       <c r="C90">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1387,7 +1387,7 @@
         <v>43967</v>
       </c>
       <c r="B91">
-        <v>45844</v>
+        <v>45808</v>
       </c>
       <c r="C91">
         <v>100</v>
@@ -1398,10 +1398,10 @@
         <v>43968</v>
       </c>
       <c r="B92">
-        <v>45902</v>
+        <v>45867</v>
       </c>
       <c r="C92">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1409,10 +1409,10 @@
         <v>43969</v>
       </c>
       <c r="B93">
-        <v>45986</v>
+        <v>45954</v>
       </c>
       <c r="C93">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1420,7 +1420,7 @@
         <v>43970</v>
       </c>
       <c r="B94">
-        <v>46094</v>
+        <v>46062</v>
       </c>
       <c r="C94">
         <v>108</v>
@@ -1431,10 +1431,10 @@
         <v>43971</v>
       </c>
       <c r="B95">
-        <v>46278</v>
+        <v>46253</v>
       </c>
       <c r="C95">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1442,10 +1442,10 @@
         <v>43972</v>
       </c>
       <c r="B96">
-        <v>46362</v>
+        <v>46350</v>
       </c>
       <c r="C96">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1453,10 +1453,10 @@
         <v>43973</v>
       </c>
       <c r="B97">
-        <v>46437</v>
+        <v>46468</v>
       </c>
       <c r="C97">
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1464,10 +1464,76 @@
         <v>43974</v>
       </c>
       <c r="B98">
-        <v>46438</v>
+        <v>46547</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>43975</v>
+      </c>
+      <c r="B99">
+        <v>46642</v>
+      </c>
+      <c r="C99">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B100">
+        <v>46732</v>
+      </c>
+      <c r="C100">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B101">
+        <v>46880</v>
+      </c>
+      <c r="C101">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B102">
+        <v>46991</v>
+      </c>
+      <c r="C102">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B103">
+        <v>47070</v>
+      </c>
+      <c r="C103">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B104">
+        <v>47073</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -452,18 +452,18 @@
         <v>43865</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -471,10 +471,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -482,32 +482,32 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>43868</v>
+        <v>43872</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>43873</v>
+        <v>43888</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -515,18 +515,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B12">
         <v>19</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B13">
         <v>21</v>
@@ -537,32 +537,32 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B15">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B16">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -570,970 +570,1036 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B17">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B18">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B19">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B20">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C20">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B21">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B22">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B23">
-        <v>248</v>
+        <v>354</v>
       </c>
       <c r="C23">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B24">
-        <v>356</v>
+        <v>471</v>
       </c>
       <c r="C24">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B25">
-        <v>472</v>
+        <v>604</v>
       </c>
       <c r="C25">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B26">
-        <v>605</v>
+        <v>856</v>
       </c>
       <c r="C26">
-        <v>133</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B27">
-        <v>857</v>
+        <v>1088</v>
       </c>
       <c r="C27">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B28">
-        <v>1089</v>
+        <v>1255</v>
       </c>
       <c r="C28">
-        <v>232</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B29">
-        <v>1255</v>
+        <v>1522</v>
       </c>
       <c r="C29">
-        <v>166</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B30">
-        <v>1522</v>
+        <v>1986</v>
       </c>
       <c r="C30">
-        <v>267</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B31">
-        <v>1990</v>
+        <v>2727</v>
       </c>
       <c r="C31">
-        <v>468</v>
+        <v>741</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B32">
-        <v>2739</v>
+        <v>3547</v>
       </c>
       <c r="C32">
-        <v>749</v>
+        <v>820</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B33">
-        <v>3553</v>
+        <v>4409</v>
       </c>
       <c r="C33">
-        <v>814</v>
+        <v>862</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B34">
-        <v>4426</v>
+        <v>5514</v>
       </c>
       <c r="C34">
-        <v>873</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B35">
-        <v>5530</v>
+        <v>6073</v>
       </c>
       <c r="C35">
-        <v>1104</v>
+        <v>559</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B36">
-        <v>6092</v>
+        <v>6791</v>
       </c>
       <c r="C36">
-        <v>562</v>
+        <v>718</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B37">
-        <v>6809</v>
+        <v>8011</v>
       </c>
       <c r="C37">
-        <v>717</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B38">
-        <v>8027</v>
+        <v>9692</v>
       </c>
       <c r="C38">
-        <v>1218</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B39">
-        <v>9709</v>
+        <v>11399</v>
       </c>
       <c r="C39">
-        <v>1682</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B40">
-        <v>11416</v>
+        <v>13043</v>
       </c>
       <c r="C40">
-        <v>1707</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B41">
-        <v>13063</v>
+        <v>14464</v>
       </c>
       <c r="C41">
-        <v>1647</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B42">
-        <v>14488</v>
+        <v>15324</v>
       </c>
       <c r="C42">
-        <v>1425</v>
+        <v>860</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B43">
-        <v>15349</v>
+        <v>16360</v>
       </c>
       <c r="C43">
-        <v>861</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B44">
-        <v>16368</v>
+        <v>18185</v>
       </c>
       <c r="C44">
-        <v>1019</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B45">
-        <v>18209</v>
+        <v>20186</v>
       </c>
       <c r="C45">
-        <v>1841</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B46">
-        <v>20221</v>
+        <v>22121</v>
       </c>
       <c r="C46">
-        <v>2012</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B47">
-        <v>22159</v>
+        <v>23994</v>
       </c>
       <c r="C47">
-        <v>1938</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B48">
-        <v>24033</v>
+        <v>25487</v>
       </c>
       <c r="C48">
-        <v>1874</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B49">
-        <v>25524</v>
+        <v>26199</v>
       </c>
       <c r="C49">
-        <v>1491</v>
+        <v>712</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B50">
-        <v>26235</v>
+        <v>27326</v>
       </c>
       <c r="C50">
-        <v>711</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B51">
-        <v>27365</v>
+        <v>28852</v>
       </c>
       <c r="C51">
-        <v>1130</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B52">
-        <v>28892</v>
+        <v>30398</v>
       </c>
       <c r="C52">
-        <v>1527</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B53">
-        <v>30443</v>
+        <v>31664</v>
       </c>
       <c r="C53">
-        <v>1551</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B54">
-        <v>31713</v>
+        <v>32605</v>
       </c>
       <c r="C54">
-        <v>1270</v>
+        <v>941</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B55">
-        <v>32643</v>
+        <v>33369</v>
       </c>
       <c r="C55">
-        <v>930</v>
+        <v>764</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B56">
-        <v>33422</v>
+        <v>33787</v>
       </c>
       <c r="C56">
-        <v>779</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B57">
-        <v>33844</v>
+        <v>34252</v>
       </c>
       <c r="C57">
-        <v>422</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B58">
-        <v>34309</v>
+        <v>35007</v>
       </c>
       <c r="C58">
-        <v>465</v>
+        <v>755</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B59">
-        <v>35070</v>
+        <v>35966</v>
       </c>
       <c r="C59">
-        <v>761</v>
+        <v>959</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B60">
-        <v>36036</v>
+        <v>36834</v>
       </c>
       <c r="C60">
-        <v>966</v>
+        <v>868</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B61">
-        <v>36908</v>
+        <v>37615</v>
       </c>
       <c r="C61">
-        <v>872</v>
+        <v>781</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B62">
-        <v>37690</v>
+        <v>38126</v>
       </c>
       <c r="C62">
-        <v>782</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B63">
-        <v>38201</v>
+        <v>38513</v>
       </c>
       <c r="C63">
-        <v>511</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B64">
-        <v>38597</v>
+        <v>38892</v>
       </c>
       <c r="C64">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B65">
-        <v>38980</v>
+        <v>39401</v>
       </c>
       <c r="C65">
-        <v>383</v>
+        <v>509</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B66">
-        <v>39492</v>
+        <v>39998</v>
       </c>
       <c r="C66">
-        <v>512</v>
+        <v>597</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B67">
-        <v>40096</v>
+        <v>40574</v>
       </c>
       <c r="C67">
-        <v>604</v>
+        <v>576</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B68">
-        <v>40676</v>
+        <v>41106</v>
       </c>
       <c r="C68">
-        <v>580</v>
+        <v>532</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B69">
-        <v>41183</v>
+        <v>41414</v>
       </c>
       <c r="C69">
-        <v>507</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B70">
-        <v>41526</v>
+        <v>41602</v>
       </c>
       <c r="C70">
-        <v>343</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B71">
-        <v>41712</v>
+        <v>41945</v>
       </c>
       <c r="C71">
-        <v>186</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B72">
-        <v>42064</v>
+        <v>42309</v>
       </c>
       <c r="C72">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B73">
-        <v>42433</v>
+        <v>42608</v>
       </c>
       <c r="C73">
-        <v>369</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B74">
-        <v>42737</v>
+        <v>42896</v>
       </c>
       <c r="C74">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B75">
-        <v>43035</v>
+        <v>43118</v>
       </c>
       <c r="C75">
-        <v>298</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B76">
-        <v>43258</v>
+        <v>43254</v>
       </c>
       <c r="C76">
-        <v>223</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B77">
-        <v>43395</v>
+        <v>43346</v>
       </c>
       <c r="C77">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B78">
-        <v>43487</v>
+        <v>43512</v>
       </c>
       <c r="C78">
-        <v>92</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B79">
-        <v>43658</v>
+        <v>43727</v>
       </c>
       <c r="C79">
-        <v>171</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B80">
-        <v>43876</v>
+        <v>43990</v>
       </c>
       <c r="C80">
-        <v>218</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B81">
-        <v>44138</v>
+        <v>44222</v>
       </c>
       <c r="C81">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B82">
-        <v>44374</v>
+        <v>44431</v>
       </c>
       <c r="C82">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B83">
-        <v>44579</v>
+        <v>44553</v>
       </c>
       <c r="C83">
-        <v>205</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B84">
-        <v>44701</v>
+        <v>44631</v>
       </c>
       <c r="C84">
-        <v>122</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B85">
-        <v>44779</v>
+        <v>44819</v>
       </c>
       <c r="C85">
-        <v>78</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B86">
-        <v>44970</v>
+        <v>45029</v>
       </c>
       <c r="C86">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B87">
-        <v>45183</v>
+        <v>45218</v>
       </c>
       <c r="C87">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B88">
-        <v>45373</v>
+        <v>45425</v>
       </c>
       <c r="C88">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B89">
-        <v>45577</v>
+        <v>45558</v>
       </c>
       <c r="C89">
-        <v>204</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B90">
-        <v>45708</v>
+        <v>45659</v>
       </c>
       <c r="C90">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B91">
-        <v>45808</v>
+        <v>45716</v>
       </c>
       <c r="C91">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B92">
-        <v>45867</v>
+        <v>45803</v>
       </c>
       <c r="C92">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B93">
-        <v>45954</v>
+        <v>45912</v>
       </c>
       <c r="C93">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B94">
-        <v>46062</v>
+        <v>46105</v>
       </c>
       <c r="C94">
-        <v>108</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B95">
-        <v>46253</v>
+        <v>46198</v>
       </c>
       <c r="C95">
-        <v>191</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B96">
-        <v>46350</v>
+        <v>46315</v>
       </c>
       <c r="C96">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B97">
-        <v>46468</v>
+        <v>46394</v>
       </c>
       <c r="C97">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B98">
-        <v>46547</v>
+        <v>46488</v>
       </c>
       <c r="C98">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B99">
-        <v>46642</v>
+        <v>46576</v>
       </c>
       <c r="C99">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B100">
-        <v>46732</v>
+        <v>46708</v>
       </c>
       <c r="C100">
-        <v>90</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B101">
-        <v>46880</v>
+        <v>46822</v>
       </c>
       <c r="C101">
-        <v>148</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B102">
-        <v>46991</v>
+        <v>46910</v>
       </c>
       <c r="C102">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B103">
-        <v>47070</v>
+        <v>46987</v>
       </c>
       <c r="C103">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B104">
-        <v>47073</v>
+        <v>47070</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B105">
+        <v>47110</v>
+      </c>
+      <c r="C105">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B106">
+        <v>47130</v>
+      </c>
+      <c r="C106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B107">
+        <v>47165</v>
+      </c>
+      <c r="C107">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>43985</v>
+      </c>
+      <c r="B108">
+        <v>47219</v>
+      </c>
+      <c r="C108">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>43986</v>
+      </c>
+      <c r="B109">
+        <v>47300</v>
+      </c>
+      <c r="C109">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>43987</v>
+      </c>
+      <c r="B110">
+        <v>47350</v>
+      </c>
+      <c r="C110">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,10 +584,10 @@
         <v>43895</v>
       </c>
       <c r="B18">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -595,10 +595,10 @@
         <v>43896</v>
       </c>
       <c r="B19">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C19">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -606,10 +606,10 @@
         <v>43897</v>
       </c>
       <c r="B20">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -617,10 +617,10 @@
         <v>43898</v>
       </c>
       <c r="B21">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -628,10 +628,10 @@
         <v>43899</v>
       </c>
       <c r="B22">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C22">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -639,10 +639,10 @@
         <v>43900</v>
       </c>
       <c r="B23">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C23">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -650,10 +650,10 @@
         <v>43901</v>
       </c>
       <c r="B24">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C24">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -661,10 +661,10 @@
         <v>43902</v>
       </c>
       <c r="B25">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C25">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -672,7 +672,7 @@
         <v>43903</v>
       </c>
       <c r="B26">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="C26">
         <v>252</v>
@@ -683,10 +683,10 @@
         <v>43904</v>
       </c>
       <c r="B27">
-        <v>1088</v>
+        <v>1077</v>
       </c>
       <c r="C27">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -694,10 +694,10 @@
         <v>43905</v>
       </c>
       <c r="B28">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="C28">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -705,10 +705,10 @@
         <v>43906</v>
       </c>
       <c r="B29">
-        <v>1522</v>
+        <v>1511</v>
       </c>
       <c r="C29">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -716,10 +716,10 @@
         <v>43907</v>
       </c>
       <c r="B30">
-        <v>1986</v>
+        <v>1973</v>
       </c>
       <c r="C30">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -727,10 +727,10 @@
         <v>43908</v>
       </c>
       <c r="B31">
-        <v>2727</v>
+        <v>2715</v>
       </c>
       <c r="C31">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -738,10 +738,10 @@
         <v>43909</v>
       </c>
       <c r="B32">
-        <v>3547</v>
+        <v>3534</v>
       </c>
       <c r="C32">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -749,10 +749,10 @@
         <v>43910</v>
       </c>
       <c r="B33">
-        <v>4409</v>
+        <v>4392</v>
       </c>
       <c r="C33">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -760,10 +760,10 @@
         <v>43911</v>
       </c>
       <c r="B34">
-        <v>5514</v>
+        <v>5499</v>
       </c>
       <c r="C34">
-        <v>1105</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -771,7 +771,7 @@
         <v>43912</v>
       </c>
       <c r="B35">
-        <v>6073</v>
+        <v>6058</v>
       </c>
       <c r="C35">
         <v>559</v>
@@ -782,10 +782,10 @@
         <v>43913</v>
       </c>
       <c r="B36">
-        <v>6791</v>
+        <v>6779</v>
       </c>
       <c r="C36">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -793,7 +793,7 @@
         <v>43914</v>
       </c>
       <c r="B37">
-        <v>8011</v>
+        <v>7999</v>
       </c>
       <c r="C37">
         <v>1220</v>
@@ -804,10 +804,10 @@
         <v>43915</v>
       </c>
       <c r="B38">
-        <v>9692</v>
+        <v>9677</v>
       </c>
       <c r="C38">
-        <v>1681</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,10 +815,10 @@
         <v>43916</v>
       </c>
       <c r="B39">
-        <v>11399</v>
+        <v>11379</v>
       </c>
       <c r="C39">
-        <v>1707</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,10 +826,10 @@
         <v>43917</v>
       </c>
       <c r="B40">
-        <v>13043</v>
+        <v>13025</v>
       </c>
       <c r="C40">
-        <v>1644</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,7 +837,7 @@
         <v>43918</v>
       </c>
       <c r="B41">
-        <v>14464</v>
+        <v>14446</v>
       </c>
       <c r="C41">
         <v>1421</v>
@@ -848,10 +848,10 @@
         <v>43919</v>
       </c>
       <c r="B42">
-        <v>15324</v>
+        <v>15308</v>
       </c>
       <c r="C42">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -859,7 +859,7 @@
         <v>43920</v>
       </c>
       <c r="B43">
-        <v>16360</v>
+        <v>16344</v>
       </c>
       <c r="C43">
         <v>1036</v>
@@ -870,10 +870,10 @@
         <v>43921</v>
       </c>
       <c r="B44">
-        <v>18185</v>
+        <v>18186</v>
       </c>
       <c r="C44">
-        <v>1825</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,10 +881,10 @@
         <v>43922</v>
       </c>
       <c r="B45">
-        <v>20186</v>
+        <v>20173</v>
       </c>
       <c r="C45">
-        <v>2001</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -892,10 +892,10 @@
         <v>43923</v>
       </c>
       <c r="B46">
-        <v>22121</v>
+        <v>22113</v>
       </c>
       <c r="C46">
-        <v>1935</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,10 +903,10 @@
         <v>43924</v>
       </c>
       <c r="B47">
-        <v>23994</v>
+        <v>23974</v>
       </c>
       <c r="C47">
-        <v>1873</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,10 +914,10 @@
         <v>43925</v>
       </c>
       <c r="B48">
-        <v>25487</v>
+        <v>25470</v>
       </c>
       <c r="C48">
-        <v>1493</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,10 +925,10 @@
         <v>43926</v>
       </c>
       <c r="B49">
-        <v>26199</v>
+        <v>26184</v>
       </c>
       <c r="C49">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,7 +936,7 @@
         <v>43927</v>
       </c>
       <c r="B50">
-        <v>27326</v>
+        <v>27311</v>
       </c>
       <c r="C50">
         <v>1127</v>
@@ -947,10 +947,10 @@
         <v>43928</v>
       </c>
       <c r="B51">
-        <v>28852</v>
+        <v>28841</v>
       </c>
       <c r="C51">
-        <v>1526</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -958,10 +958,10 @@
         <v>43929</v>
       </c>
       <c r="B52">
-        <v>30398</v>
+        <v>30389</v>
       </c>
       <c r="C52">
-        <v>1546</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43930</v>
       </c>
       <c r="B53">
-        <v>31664</v>
+        <v>31653</v>
       </c>
       <c r="C53">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43931</v>
       </c>
       <c r="B54">
-        <v>32605</v>
+        <v>32589</v>
       </c>
       <c r="C54">
-        <v>941</v>
+        <v>936</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,7 +991,7 @@
         <v>43932</v>
       </c>
       <c r="B55">
-        <v>33369</v>
+        <v>33353</v>
       </c>
       <c r="C55">
         <v>764</v>
@@ -1002,7 +1002,7 @@
         <v>43933</v>
       </c>
       <c r="B56">
-        <v>33787</v>
+        <v>33771</v>
       </c>
       <c r="C56">
         <v>418</v>
@@ -1013,7 +1013,7 @@
         <v>43934</v>
       </c>
       <c r="B57">
-        <v>34252</v>
+        <v>34236</v>
       </c>
       <c r="C57">
         <v>465</v>
@@ -1024,7 +1024,7 @@
         <v>43935</v>
       </c>
       <c r="B58">
-        <v>35007</v>
+        <v>34991</v>
       </c>
       <c r="C58">
         <v>755</v>
@@ -1035,10 +1035,10 @@
         <v>43936</v>
       </c>
       <c r="B59">
-        <v>35966</v>
+        <v>35955</v>
       </c>
       <c r="C59">
-        <v>959</v>
+        <v>964</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,10 @@
         <v>43937</v>
       </c>
       <c r="B60">
-        <v>36834</v>
+        <v>36817</v>
       </c>
       <c r="C60">
-        <v>868</v>
+        <v>862</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,10 +1057,10 @@
         <v>43938</v>
       </c>
       <c r="B61">
-        <v>37615</v>
+        <v>37597</v>
       </c>
       <c r="C61">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,10 +1068,10 @@
         <v>43939</v>
       </c>
       <c r="B62">
-        <v>38126</v>
+        <v>38115</v>
       </c>
       <c r="C62">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,10 +1079,10 @@
         <v>43940</v>
       </c>
       <c r="B63">
-        <v>38513</v>
+        <v>38501</v>
       </c>
       <c r="C63">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1090,10 +1090,10 @@
         <v>43941</v>
       </c>
       <c r="B64">
-        <v>38892</v>
+        <v>38876</v>
       </c>
       <c r="C64">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1101,10 +1101,10 @@
         <v>43942</v>
       </c>
       <c r="B65">
-        <v>39401</v>
+        <v>39381</v>
       </c>
       <c r="C65">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1112,7 +1112,7 @@
         <v>43943</v>
       </c>
       <c r="B66">
-        <v>39998</v>
+        <v>39978</v>
       </c>
       <c r="C66">
         <v>597</v>
@@ -1123,10 +1123,10 @@
         <v>43944</v>
       </c>
       <c r="B67">
-        <v>40574</v>
+        <v>40548</v>
       </c>
       <c r="C67">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1134,10 +1134,10 @@
         <v>43945</v>
       </c>
       <c r="B68">
-        <v>41106</v>
+        <v>41079</v>
       </c>
       <c r="C68">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1145,10 +1145,10 @@
         <v>43946</v>
       </c>
       <c r="B69">
-        <v>41414</v>
+        <v>41386</v>
       </c>
       <c r="C69">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1156,7 +1156,7 @@
         <v>43947</v>
       </c>
       <c r="B70">
-        <v>41602</v>
+        <v>41574</v>
       </c>
       <c r="C70">
         <v>188</v>
@@ -1167,10 +1167,10 @@
         <v>43948</v>
       </c>
       <c r="B71">
-        <v>41945</v>
+        <v>41918</v>
       </c>
       <c r="C71">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1178,10 +1178,10 @@
         <v>43949</v>
       </c>
       <c r="B72">
-        <v>42309</v>
+        <v>42279</v>
       </c>
       <c r="C72">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1189,10 +1189,10 @@
         <v>43950</v>
       </c>
       <c r="B73">
-        <v>42608</v>
+        <v>42577</v>
       </c>
       <c r="C73">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>43951</v>
       </c>
       <c r="B74">
-        <v>42896</v>
+        <v>42865</v>
       </c>
       <c r="C74">
         <v>288</v>
@@ -1211,7 +1211,7 @@
         <v>43952</v>
       </c>
       <c r="B75">
-        <v>43118</v>
+        <v>43087</v>
       </c>
       <c r="C75">
         <v>222</v>
@@ -1222,7 +1222,7 @@
         <v>43953</v>
       </c>
       <c r="B76">
-        <v>43254</v>
+        <v>43223</v>
       </c>
       <c r="C76">
         <v>136</v>
@@ -1233,10 +1233,10 @@
         <v>43954</v>
       </c>
       <c r="B77">
-        <v>43346</v>
+        <v>43313</v>
       </c>
       <c r="C77">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1244,10 +1244,10 @@
         <v>43955</v>
       </c>
       <c r="B78">
-        <v>43512</v>
+        <v>43478</v>
       </c>
       <c r="C78">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1255,10 +1255,10 @@
         <v>43956</v>
       </c>
       <c r="B79">
-        <v>43727</v>
+        <v>43691</v>
       </c>
       <c r="C79">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1266,7 +1266,7 @@
         <v>43957</v>
       </c>
       <c r="B80">
-        <v>43990</v>
+        <v>43954</v>
       </c>
       <c r="C80">
         <v>263</v>
@@ -1277,10 +1277,10 @@
         <v>43958</v>
       </c>
       <c r="B81">
-        <v>44222</v>
+        <v>44187</v>
       </c>
       <c r="C81">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1288,10 +1288,10 @@
         <v>43959</v>
       </c>
       <c r="B82">
-        <v>44431</v>
+        <v>44397</v>
       </c>
       <c r="C82">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1299,7 +1299,7 @@
         <v>43960</v>
       </c>
       <c r="B83">
-        <v>44553</v>
+        <v>44519</v>
       </c>
       <c r="C83">
         <v>122</v>
@@ -1310,7 +1310,7 @@
         <v>43961</v>
       </c>
       <c r="B84">
-        <v>44631</v>
+        <v>44597</v>
       </c>
       <c r="C84">
         <v>78</v>
@@ -1321,7 +1321,7 @@
         <v>43962</v>
       </c>
       <c r="B85">
-        <v>44819</v>
+        <v>44785</v>
       </c>
       <c r="C85">
         <v>188</v>
@@ -1332,10 +1332,10 @@
         <v>43963</v>
       </c>
       <c r="B86">
-        <v>45029</v>
+        <v>44998</v>
       </c>
       <c r="C86">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1343,7 +1343,7 @@
         <v>43964</v>
       </c>
       <c r="B87">
-        <v>45218</v>
+        <v>45187</v>
       </c>
       <c r="C87">
         <v>189</v>
@@ -1354,7 +1354,7 @@
         <v>43965</v>
       </c>
       <c r="B88">
-        <v>45425</v>
+        <v>45394</v>
       </c>
       <c r="C88">
         <v>207</v>
@@ -1365,7 +1365,7 @@
         <v>43966</v>
       </c>
       <c r="B89">
-        <v>45558</v>
+        <v>45527</v>
       </c>
       <c r="C89">
         <v>133</v>
@@ -1376,7 +1376,7 @@
         <v>43967</v>
       </c>
       <c r="B90">
-        <v>45659</v>
+        <v>45628</v>
       </c>
       <c r="C90">
         <v>101</v>
@@ -1387,7 +1387,7 @@
         <v>43968</v>
       </c>
       <c r="B91">
-        <v>45716</v>
+        <v>45685</v>
       </c>
       <c r="C91">
         <v>57</v>
@@ -1398,10 +1398,10 @@
         <v>43969</v>
       </c>
       <c r="B92">
-        <v>45803</v>
+        <v>45773</v>
       </c>
       <c r="C92">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1409,10 +1409,10 @@
         <v>43970</v>
       </c>
       <c r="B93">
-        <v>45912</v>
+        <v>45883</v>
       </c>
       <c r="C93">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1420,7 +1420,7 @@
         <v>43971</v>
       </c>
       <c r="B94">
-        <v>46105</v>
+        <v>46076</v>
       </c>
       <c r="C94">
         <v>193</v>
@@ -1431,7 +1431,7 @@
         <v>43972</v>
       </c>
       <c r="B95">
-        <v>46198</v>
+        <v>46169</v>
       </c>
       <c r="C95">
         <v>93</v>
@@ -1442,7 +1442,7 @@
         <v>43973</v>
       </c>
       <c r="B96">
-        <v>46315</v>
+        <v>46286</v>
       </c>
       <c r="C96">
         <v>117</v>
@@ -1453,7 +1453,7 @@
         <v>43974</v>
       </c>
       <c r="B97">
-        <v>46394</v>
+        <v>46365</v>
       </c>
       <c r="C97">
         <v>79</v>
@@ -1464,7 +1464,7 @@
         <v>43975</v>
       </c>
       <c r="B98">
-        <v>46488</v>
+        <v>46459</v>
       </c>
       <c r="C98">
         <v>94</v>
@@ -1475,7 +1475,7 @@
         <v>43976</v>
       </c>
       <c r="B99">
-        <v>46576</v>
+        <v>46547</v>
       </c>
       <c r="C99">
         <v>88</v>
@@ -1486,10 +1486,10 @@
         <v>43977</v>
       </c>
       <c r="B100">
-        <v>46708</v>
+        <v>46680</v>
       </c>
       <c r="C100">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1497,7 +1497,7 @@
         <v>43978</v>
       </c>
       <c r="B101">
-        <v>46822</v>
+        <v>46794</v>
       </c>
       <c r="C101">
         <v>114</v>
@@ -1508,7 +1508,7 @@
         <v>43979</v>
       </c>
       <c r="B102">
-        <v>46910</v>
+        <v>46882</v>
       </c>
       <c r="C102">
         <v>88</v>
@@ -1519,10 +1519,10 @@
         <v>43980</v>
       </c>
       <c r="B103">
-        <v>46987</v>
+        <v>46962</v>
       </c>
       <c r="C103">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>43981</v>
       </c>
       <c r="B104">
-        <v>47070</v>
+        <v>47045</v>
       </c>
       <c r="C104">
         <v>83</v>
@@ -1541,10 +1541,10 @@
         <v>43982</v>
       </c>
       <c r="B105">
-        <v>47110</v>
+        <v>47086</v>
       </c>
       <c r="C105">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>43983</v>
       </c>
       <c r="B106">
-        <v>47130</v>
+        <v>47106</v>
       </c>
       <c r="C106">
         <v>20</v>
@@ -1563,10 +1563,10 @@
         <v>43984</v>
       </c>
       <c r="B107">
-        <v>47165</v>
+        <v>47142</v>
       </c>
       <c r="C107">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1574,10 +1574,10 @@
         <v>43985</v>
       </c>
       <c r="B108">
-        <v>47219</v>
+        <v>47197</v>
       </c>
       <c r="C108">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1585,10 +1585,10 @@
         <v>43986</v>
       </c>
       <c r="B109">
-        <v>47300</v>
+        <v>47281</v>
       </c>
       <c r="C109">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1596,10 +1596,98 @@
         <v>43987</v>
       </c>
       <c r="B110">
-        <v>47350</v>
+        <v>47339</v>
       </c>
       <c r="C110">
-        <v>50</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>43988</v>
+      </c>
+      <c r="B111">
+        <v>47362</v>
+      </c>
+      <c r="C111">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>43989</v>
+      </c>
+      <c r="B112">
+        <v>47399</v>
+      </c>
+      <c r="C112">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>43990</v>
+      </c>
+      <c r="B113">
+        <v>47435</v>
+      </c>
+      <c r="C113">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B114">
+        <v>47478</v>
+      </c>
+      <c r="C114">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>43992</v>
+      </c>
+      <c r="B115">
+        <v>47550</v>
+      </c>
+      <c r="C115">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>43993</v>
+      </c>
+      <c r="B116">
+        <v>47582</v>
+      </c>
+      <c r="C116">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B117">
+        <v>47612</v>
+      </c>
+      <c r="C117">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B118">
+        <v>47613</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,10 +595,10 @@
         <v>43896</v>
       </c>
       <c r="B19">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -606,10 +606,10 @@
         <v>43897</v>
       </c>
       <c r="B20">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -617,7 +617,7 @@
         <v>43898</v>
       </c>
       <c r="B21">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -628,10 +628,10 @@
         <v>43899</v>
       </c>
       <c r="B22">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C22">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -639,7 +639,7 @@
         <v>43900</v>
       </c>
       <c r="B23">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C23">
         <v>111</v>
@@ -650,10 +650,10 @@
         <v>43901</v>
       </c>
       <c r="B24">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C24">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -661,10 +661,10 @@
         <v>43902</v>
       </c>
       <c r="B25">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="C25">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -672,10 +672,10 @@
         <v>43903</v>
       </c>
       <c r="B26">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="C26">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -683,7 +683,7 @@
         <v>43904</v>
       </c>
       <c r="B27">
-        <v>1077</v>
+        <v>1086</v>
       </c>
       <c r="C27">
         <v>231</v>
@@ -694,10 +694,10 @@
         <v>43905</v>
       </c>
       <c r="B28">
-        <v>1243</v>
+        <v>1254</v>
       </c>
       <c r="C28">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -705,10 +705,10 @@
         <v>43906</v>
       </c>
       <c r="B29">
-        <v>1511</v>
+        <v>1524</v>
       </c>
       <c r="C29">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -716,10 +716,10 @@
         <v>43907</v>
       </c>
       <c r="B30">
-        <v>1973</v>
+        <v>1993</v>
       </c>
       <c r="C30">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -727,10 +727,10 @@
         <v>43908</v>
       </c>
       <c r="B31">
-        <v>2715</v>
+        <v>2737</v>
       </c>
       <c r="C31">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -738,10 +738,10 @@
         <v>43909</v>
       </c>
       <c r="B32">
-        <v>3534</v>
+        <v>3558</v>
       </c>
       <c r="C32">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -749,7 +749,7 @@
         <v>43910</v>
       </c>
       <c r="B33">
-        <v>4392</v>
+        <v>4416</v>
       </c>
       <c r="C33">
         <v>858</v>
@@ -760,7 +760,7 @@
         <v>43911</v>
       </c>
       <c r="B34">
-        <v>5499</v>
+        <v>5523</v>
       </c>
       <c r="C34">
         <v>1107</v>
@@ -771,10 +771,10 @@
         <v>43912</v>
       </c>
       <c r="B35">
-        <v>6058</v>
+        <v>6081</v>
       </c>
       <c r="C35">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -782,10 +782,10 @@
         <v>43913</v>
       </c>
       <c r="B36">
-        <v>6779</v>
+        <v>6803</v>
       </c>
       <c r="C36">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -793,7 +793,7 @@
         <v>43914</v>
       </c>
       <c r="B37">
-        <v>7999</v>
+        <v>8023</v>
       </c>
       <c r="C37">
         <v>1220</v>
@@ -804,10 +804,10 @@
         <v>43915</v>
       </c>
       <c r="B38">
-        <v>9677</v>
+        <v>9698</v>
       </c>
       <c r="C38">
-        <v>1678</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,10 +815,10 @@
         <v>43916</v>
       </c>
       <c r="B39">
-        <v>11379</v>
+        <v>11399</v>
       </c>
       <c r="C39">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,10 +826,10 @@
         <v>43917</v>
       </c>
       <c r="B40">
-        <v>13025</v>
+        <v>13041</v>
       </c>
       <c r="C40">
-        <v>1646</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,10 +837,10 @@
         <v>43918</v>
       </c>
       <c r="B41">
-        <v>14446</v>
+        <v>14461</v>
       </c>
       <c r="C41">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -848,10 +848,10 @@
         <v>43919</v>
       </c>
       <c r="B42">
-        <v>15308</v>
+        <v>15321</v>
       </c>
       <c r="C42">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -859,10 +859,10 @@
         <v>43920</v>
       </c>
       <c r="B43">
-        <v>16344</v>
+        <v>16356</v>
       </c>
       <c r="C43">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -870,10 +870,10 @@
         <v>43921</v>
       </c>
       <c r="B44">
-        <v>18186</v>
+        <v>18194</v>
       </c>
       <c r="C44">
-        <v>1842</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,7 +881,7 @@
         <v>43922</v>
       </c>
       <c r="B45">
-        <v>20173</v>
+        <v>20181</v>
       </c>
       <c r="C45">
         <v>1987</v>
@@ -892,7 +892,7 @@
         <v>43923</v>
       </c>
       <c r="B46">
-        <v>22113</v>
+        <v>22121</v>
       </c>
       <c r="C46">
         <v>1940</v>
@@ -903,10 +903,10 @@
         <v>43924</v>
       </c>
       <c r="B47">
-        <v>23974</v>
+        <v>23977</v>
       </c>
       <c r="C47">
-        <v>1861</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,10 +914,10 @@
         <v>43925</v>
       </c>
       <c r="B48">
-        <v>25470</v>
+        <v>25472</v>
       </c>
       <c r="C48">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,10 +925,10 @@
         <v>43926</v>
       </c>
       <c r="B49">
-        <v>26184</v>
+        <v>26183</v>
       </c>
       <c r="C49">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,10 +936,10 @@
         <v>43927</v>
       </c>
       <c r="B50">
-        <v>27311</v>
+        <v>27302</v>
       </c>
       <c r="C50">
-        <v>1127</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -947,10 +947,10 @@
         <v>43928</v>
       </c>
       <c r="B51">
-        <v>28841</v>
+        <v>28830</v>
       </c>
       <c r="C51">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -958,10 +958,10 @@
         <v>43929</v>
       </c>
       <c r="B52">
-        <v>30389</v>
+        <v>30377</v>
       </c>
       <c r="C52">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43930</v>
       </c>
       <c r="B53">
-        <v>31653</v>
+        <v>31636</v>
       </c>
       <c r="C53">
-        <v>1264</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43931</v>
       </c>
       <c r="B54">
-        <v>32589</v>
+        <v>32573</v>
       </c>
       <c r="C54">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,10 +991,10 @@
         <v>43932</v>
       </c>
       <c r="B55">
-        <v>33353</v>
+        <v>33336</v>
       </c>
       <c r="C55">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1002,7 +1002,7 @@
         <v>43933</v>
       </c>
       <c r="B56">
-        <v>33771</v>
+        <v>33754</v>
       </c>
       <c r="C56">
         <v>418</v>
@@ -1013,10 +1013,10 @@
         <v>43934</v>
       </c>
       <c r="B57">
-        <v>34236</v>
+        <v>34218</v>
       </c>
       <c r="C57">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1024,10 +1024,10 @@
         <v>43935</v>
       </c>
       <c r="B58">
-        <v>34991</v>
+        <v>34969</v>
       </c>
       <c r="C58">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1035,10 +1035,10 @@
         <v>43936</v>
       </c>
       <c r="B59">
-        <v>35955</v>
+        <v>35930</v>
       </c>
       <c r="C59">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,10 @@
         <v>43937</v>
       </c>
       <c r="B60">
-        <v>36817</v>
+        <v>36790</v>
       </c>
       <c r="C60">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,10 +1057,10 @@
         <v>43938</v>
       </c>
       <c r="B61">
-        <v>37597</v>
+        <v>37565</v>
       </c>
       <c r="C61">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,10 +1068,10 @@
         <v>43939</v>
       </c>
       <c r="B62">
-        <v>38115</v>
+        <v>38082</v>
       </c>
       <c r="C62">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,10 +1079,10 @@
         <v>43940</v>
       </c>
       <c r="B63">
-        <v>38501</v>
+        <v>38466</v>
       </c>
       <c r="C63">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1090,10 +1090,10 @@
         <v>43941</v>
       </c>
       <c r="B64">
-        <v>38876</v>
+        <v>38835</v>
       </c>
       <c r="C64">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1101,10 +1101,10 @@
         <v>43942</v>
       </c>
       <c r="B65">
-        <v>39381</v>
+        <v>39337</v>
       </c>
       <c r="C65">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1112,10 +1112,10 @@
         <v>43943</v>
       </c>
       <c r="B66">
-        <v>39978</v>
+        <v>39933</v>
       </c>
       <c r="C66">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1123,10 +1123,10 @@
         <v>43944</v>
       </c>
       <c r="B67">
-        <v>40548</v>
+        <v>40502</v>
       </c>
       <c r="C67">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1134,10 +1134,10 @@
         <v>43945</v>
       </c>
       <c r="B68">
-        <v>41079</v>
+        <v>41031</v>
       </c>
       <c r="C68">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1145,10 +1145,10 @@
         <v>43946</v>
       </c>
       <c r="B69">
-        <v>41386</v>
+        <v>41337</v>
       </c>
       <c r="C69">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1156,10 +1156,10 @@
         <v>43947</v>
       </c>
       <c r="B70">
-        <v>41574</v>
+        <v>41522</v>
       </c>
       <c r="C70">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1167,10 +1167,10 @@
         <v>43948</v>
       </c>
       <c r="B71">
-        <v>41918</v>
+        <v>41862</v>
       </c>
       <c r="C71">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1178,7 +1178,7 @@
         <v>43949</v>
       </c>
       <c r="B72">
-        <v>42279</v>
+        <v>42223</v>
       </c>
       <c r="C72">
         <v>361</v>
@@ -1189,10 +1189,10 @@
         <v>43950</v>
       </c>
       <c r="B73">
-        <v>42577</v>
+        <v>42522</v>
       </c>
       <c r="C73">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1200,10 +1200,10 @@
         <v>43951</v>
       </c>
       <c r="B74">
-        <v>42865</v>
+        <v>42812</v>
       </c>
       <c r="C74">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1211,10 +1211,10 @@
         <v>43952</v>
       </c>
       <c r="B75">
-        <v>43087</v>
+        <v>43033</v>
       </c>
       <c r="C75">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1222,7 +1222,7 @@
         <v>43953</v>
       </c>
       <c r="B76">
-        <v>43223</v>
+        <v>43169</v>
       </c>
       <c r="C76">
         <v>136</v>
@@ -1233,7 +1233,7 @@
         <v>43954</v>
       </c>
       <c r="B77">
-        <v>43313</v>
+        <v>43259</v>
       </c>
       <c r="C77">
         <v>90</v>
@@ -1244,7 +1244,7 @@
         <v>43955</v>
       </c>
       <c r="B78">
-        <v>43478</v>
+        <v>43424</v>
       </c>
       <c r="C78">
         <v>165</v>
@@ -1255,7 +1255,7 @@
         <v>43956</v>
       </c>
       <c r="B79">
-        <v>43691</v>
+        <v>43637</v>
       </c>
       <c r="C79">
         <v>213</v>
@@ -1266,10 +1266,10 @@
         <v>43957</v>
       </c>
       <c r="B80">
-        <v>43954</v>
+        <v>43903</v>
       </c>
       <c r="C80">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1277,10 +1277,10 @@
         <v>43958</v>
       </c>
       <c r="B81">
-        <v>44187</v>
+        <v>44137</v>
       </c>
       <c r="C81">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1288,7 +1288,7 @@
         <v>43959</v>
       </c>
       <c r="B82">
-        <v>44397</v>
+        <v>44347</v>
       </c>
       <c r="C82">
         <v>210</v>
@@ -1299,10 +1299,10 @@
         <v>43960</v>
       </c>
       <c r="B83">
-        <v>44519</v>
+        <v>44470</v>
       </c>
       <c r="C83">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1310,7 +1310,7 @@
         <v>43961</v>
       </c>
       <c r="B84">
-        <v>44597</v>
+        <v>44548</v>
       </c>
       <c r="C84">
         <v>78</v>
@@ -1321,7 +1321,7 @@
         <v>43962</v>
       </c>
       <c r="B85">
-        <v>44785</v>
+        <v>44736</v>
       </c>
       <c r="C85">
         <v>188</v>
@@ -1332,10 +1332,10 @@
         <v>43963</v>
       </c>
       <c r="B86">
-        <v>44998</v>
+        <v>44948</v>
       </c>
       <c r="C86">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1343,10 +1343,10 @@
         <v>43964</v>
       </c>
       <c r="B87">
-        <v>45187</v>
+        <v>45136</v>
       </c>
       <c r="C87">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1354,10 +1354,10 @@
         <v>43965</v>
       </c>
       <c r="B88">
-        <v>45394</v>
+        <v>45344</v>
       </c>
       <c r="C88">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1365,10 +1365,10 @@
         <v>43966</v>
       </c>
       <c r="B89">
-        <v>45527</v>
+        <v>45478</v>
       </c>
       <c r="C89">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1376,7 +1376,7 @@
         <v>43967</v>
       </c>
       <c r="B90">
-        <v>45628</v>
+        <v>45579</v>
       </c>
       <c r="C90">
         <v>101</v>
@@ -1387,7 +1387,7 @@
         <v>43968</v>
       </c>
       <c r="B91">
-        <v>45685</v>
+        <v>45636</v>
       </c>
       <c r="C91">
         <v>57</v>
@@ -1398,10 +1398,10 @@
         <v>43969</v>
       </c>
       <c r="B92">
-        <v>45773</v>
+        <v>45723</v>
       </c>
       <c r="C92">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1409,10 +1409,10 @@
         <v>43970</v>
       </c>
       <c r="B93">
-        <v>45883</v>
+        <v>45831</v>
       </c>
       <c r="C93">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1420,7 +1420,7 @@
         <v>43971</v>
       </c>
       <c r="B94">
-        <v>46076</v>
+        <v>46024</v>
       </c>
       <c r="C94">
         <v>193</v>
@@ -1431,7 +1431,7 @@
         <v>43972</v>
       </c>
       <c r="B95">
-        <v>46169</v>
+        <v>46117</v>
       </c>
       <c r="C95">
         <v>93</v>
@@ -1442,7 +1442,7 @@
         <v>43973</v>
       </c>
       <c r="B96">
-        <v>46286</v>
+        <v>46234</v>
       </c>
       <c r="C96">
         <v>117</v>
@@ -1453,7 +1453,7 @@
         <v>43974</v>
       </c>
       <c r="B97">
-        <v>46365</v>
+        <v>46313</v>
       </c>
       <c r="C97">
         <v>79</v>
@@ -1464,10 +1464,10 @@
         <v>43975</v>
       </c>
       <c r="B98">
-        <v>46459</v>
+        <v>46406</v>
       </c>
       <c r="C98">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1475,7 +1475,7 @@
         <v>43976</v>
       </c>
       <c r="B99">
-        <v>46547</v>
+        <v>46494</v>
       </c>
       <c r="C99">
         <v>88</v>
@@ -1486,7 +1486,7 @@
         <v>43977</v>
       </c>
       <c r="B100">
-        <v>46680</v>
+        <v>46627</v>
       </c>
       <c r="C100">
         <v>133</v>
@@ -1497,10 +1497,10 @@
         <v>43978</v>
       </c>
       <c r="B101">
-        <v>46794</v>
+        <v>46743</v>
       </c>
       <c r="C101">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>43979</v>
       </c>
       <c r="B102">
-        <v>46882</v>
+        <v>46831</v>
       </c>
       <c r="C102">
         <v>88</v>
@@ -1519,7 +1519,7 @@
         <v>43980</v>
       </c>
       <c r="B103">
-        <v>46962</v>
+        <v>46911</v>
       </c>
       <c r="C103">
         <v>80</v>
@@ -1530,10 +1530,10 @@
         <v>43981</v>
       </c>
       <c r="B104">
-        <v>47045</v>
+        <v>46995</v>
       </c>
       <c r="C104">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1541,10 +1541,10 @@
         <v>43982</v>
       </c>
       <c r="B105">
-        <v>47086</v>
+        <v>47034</v>
       </c>
       <c r="C105">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>43983</v>
       </c>
       <c r="B106">
-        <v>47106</v>
+        <v>47054</v>
       </c>
       <c r="C106">
         <v>20</v>
@@ -1563,10 +1563,10 @@
         <v>43984</v>
       </c>
       <c r="B107">
-        <v>47142</v>
+        <v>47091</v>
       </c>
       <c r="C107">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>43985</v>
       </c>
       <c r="B108">
-        <v>47197</v>
+        <v>47146</v>
       </c>
       <c r="C108">
         <v>55</v>
@@ -1585,7 +1585,7 @@
         <v>43986</v>
       </c>
       <c r="B109">
-        <v>47281</v>
+        <v>47230</v>
       </c>
       <c r="C109">
         <v>84</v>
@@ -1596,7 +1596,7 @@
         <v>43987</v>
       </c>
       <c r="B110">
-        <v>47339</v>
+        <v>47288</v>
       </c>
       <c r="C110">
         <v>58</v>
@@ -1607,7 +1607,7 @@
         <v>43988</v>
       </c>
       <c r="B111">
-        <v>47362</v>
+        <v>47311</v>
       </c>
       <c r="C111">
         <v>23</v>
@@ -1618,10 +1618,10 @@
         <v>43989</v>
       </c>
       <c r="B112">
-        <v>47399</v>
+        <v>47347</v>
       </c>
       <c r="C112">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1629,10 +1629,10 @@
         <v>43990</v>
       </c>
       <c r="B113">
-        <v>47435</v>
+        <v>47385</v>
       </c>
       <c r="C113">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1640,10 +1640,10 @@
         <v>43991</v>
       </c>
       <c r="B114">
-        <v>47478</v>
+        <v>47429</v>
       </c>
       <c r="C114">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1651,10 +1651,10 @@
         <v>43992</v>
       </c>
       <c r="B115">
-        <v>47550</v>
+        <v>47502</v>
       </c>
       <c r="C115">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1662,10 +1662,10 @@
         <v>43993</v>
       </c>
       <c r="B116">
-        <v>47582</v>
+        <v>47536</v>
       </c>
       <c r="C116">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1673,10 +1673,10 @@
         <v>43994</v>
       </c>
       <c r="B117">
-        <v>47612</v>
+        <v>47568</v>
       </c>
       <c r="C117">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1684,10 +1684,120 @@
         <v>43995</v>
       </c>
       <c r="B118">
-        <v>47613</v>
+        <v>47590</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>43996</v>
+      </c>
+      <c r="B119">
+        <v>47607</v>
+      </c>
+      <c r="C119">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B120">
+        <v>47637</v>
+      </c>
+      <c r="C120">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B121">
+        <v>47678</v>
+      </c>
+      <c r="C121">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>43999</v>
+      </c>
+      <c r="B122">
+        <v>47721</v>
+      </c>
+      <c r="C122">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>44000</v>
+      </c>
+      <c r="B123">
+        <v>47766</v>
+      </c>
+      <c r="C123">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B124">
+        <v>47797</v>
+      </c>
+      <c r="C124">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>44002</v>
+      </c>
+      <c r="B125">
+        <v>47830</v>
+      </c>
+      <c r="C125">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B126">
+        <v>47856</v>
+      </c>
+      <c r="C126">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B127">
+        <v>47893</v>
+      </c>
+      <c r="C127">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>44005</v>
+      </c>
+      <c r="B128">
+        <v>47896</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/bavaria_covid19_data.xlsx
+++ b/bavaria_covid19_data.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,10 +628,10 @@
         <v>43899</v>
       </c>
       <c r="B22">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C22">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -639,7 +639,7 @@
         <v>43900</v>
       </c>
       <c r="B23">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C23">
         <v>111</v>
@@ -650,10 +650,10 @@
         <v>43901</v>
       </c>
       <c r="B24">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C24">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -661,10 +661,10 @@
         <v>43902</v>
       </c>
       <c r="B25">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="C25">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -672,7 +672,7 @@
         <v>43903</v>
       </c>
       <c r="B26">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="C26">
         <v>251</v>
@@ -683,7 +683,7 @@
         <v>43904</v>
       </c>
       <c r="B27">
-        <v>1086</v>
+        <v>1093</v>
       </c>
       <c r="C27">
         <v>231</v>
@@ -694,10 +694,10 @@
         <v>43905</v>
       </c>
       <c r="B28">
-        <v>1254</v>
+        <v>1262</v>
       </c>
       <c r="C28">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -705,7 +705,7 @@
         <v>43906</v>
       </c>
       <c r="B29">
-        <v>1524</v>
+        <v>1532</v>
       </c>
       <c r="C29">
         <v>270</v>
@@ -716,10 +716,10 @@
         <v>43907</v>
       </c>
       <c r="B30">
-        <v>1993</v>
+        <v>2005</v>
       </c>
       <c r="C30">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -727,10 +727,10 @@
         <v>43908</v>
       </c>
       <c r="B31">
-        <v>2737</v>
+        <v>2757</v>
       </c>
       <c r="C31">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -738,10 +738,10 @@
         <v>43909</v>
       </c>
       <c r="B32">
-        <v>3558</v>
+        <v>3580</v>
       </c>
       <c r="C32">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -749,10 +749,10 @@
         <v>43910</v>
       </c>
       <c r="B33">
-        <v>4416</v>
+        <v>4444</v>
       </c>
       <c r="C33">
-        <v>858</v>
+        <v>864</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -760,10 +760,10 @@
         <v>43911</v>
       </c>
       <c r="B34">
-        <v>5523</v>
+        <v>5554</v>
       </c>
       <c r="C34">
-        <v>1107</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -771,7 +771,7 @@
         <v>43912</v>
       </c>
       <c r="B35">
-        <v>6081</v>
+        <v>6112</v>
       </c>
       <c r="C35">
         <v>558</v>
@@ -782,10 +782,10 @@
         <v>43913</v>
       </c>
       <c r="B36">
-        <v>6803</v>
+        <v>6833</v>
       </c>
       <c r="C36">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -793,10 +793,10 @@
         <v>43914</v>
       </c>
       <c r="B37">
-        <v>8023</v>
+        <v>8054</v>
       </c>
       <c r="C37">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -804,10 +804,10 @@
         <v>43915</v>
       </c>
       <c r="B38">
-        <v>9698</v>
+        <v>9734</v>
       </c>
       <c r="C38">
-        <v>1675</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -815,10 +815,10 @@
         <v>43916</v>
       </c>
       <c r="B39">
-        <v>11399</v>
+        <v>11437</v>
       </c>
       <c r="C39">
-        <v>1701</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -826,10 +826,10 @@
         <v>43917</v>
       </c>
       <c r="B40">
-        <v>13041</v>
+        <v>13082</v>
       </c>
       <c r="C40">
-        <v>1642</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -837,7 +837,7 @@
         <v>43918</v>
       </c>
       <c r="B41">
-        <v>14461</v>
+        <v>14502</v>
       </c>
       <c r="C41">
         <v>1420</v>
@@ -848,10 +848,10 @@
         <v>43919</v>
       </c>
       <c r="B42">
-        <v>15321</v>
+        <v>15364</v>
       </c>
       <c r="C42">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -859,10 +859,10 @@
         <v>43920</v>
       </c>
       <c r="B43">
-        <v>16356</v>
+        <v>16403</v>
       </c>
       <c r="C43">
-        <v>1035</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -870,10 +870,10 @@
         <v>43921</v>
       </c>
       <c r="B44">
-        <v>18194</v>
+        <v>18250</v>
       </c>
       <c r="C44">
-        <v>1838</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -881,10 +881,10 @@
         <v>43922</v>
       </c>
       <c r="B45">
-        <v>20181</v>
+        <v>20238</v>
       </c>
       <c r="C45">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -892,10 +892,10 @@
         <v>43923</v>
       </c>
       <c r="B46">
-        <v>22121</v>
+        <v>22180</v>
       </c>
       <c r="C46">
-        <v>1940</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -903,10 +903,10 @@
         <v>43924</v>
       </c>
       <c r="B47">
-        <v>23977</v>
+        <v>24042</v>
       </c>
       <c r="C47">
-        <v>1856</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -914,10 +914,10 @@
         <v>43925</v>
       </c>
       <c r="B48">
-        <v>25472</v>
+        <v>25536</v>
       </c>
       <c r="C48">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -925,10 +925,10 @@
         <v>43926</v>
       </c>
       <c r="B49">
-        <v>26183</v>
+        <v>26257</v>
       </c>
       <c r="C49">
-        <v>711</v>
+        <v>721</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -936,10 +936,10 @@
         <v>43927</v>
       </c>
       <c r="B50">
-        <v>27302</v>
+        <v>27382</v>
       </c>
       <c r="C50">
-        <v>1119</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -947,10 +947,10 @@
         <v>43928</v>
       </c>
       <c r="B51">
-        <v>28830</v>
+        <v>28914</v>
       </c>
       <c r="C51">
-        <v>1528</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -958,10 +958,10 @@
         <v>43929</v>
       </c>
       <c r="B52">
-        <v>30377</v>
+        <v>30463</v>
       </c>
       <c r="C52">
-        <v>1547</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -969,10 +969,10 @@
         <v>43930</v>
       </c>
       <c r="B53">
-        <v>31636</v>
+        <v>31727</v>
       </c>
       <c r="C53">
-        <v>1259</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -980,10 +980,10 @@
         <v>43931</v>
       </c>
       <c r="B54">
-        <v>32573</v>
+        <v>32669</v>
       </c>
       <c r="C54">
-        <v>937</v>
+        <v>942</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -991,7 +991,7 @@
         <v>43932</v>
       </c>
       <c r="B55">
-        <v>33336</v>
+        <v>33432</v>
       </c>
       <c r="C55">
         <v>763</v>
@@ -1002,7 +1002,7 @@
         <v>43933</v>
       </c>
       <c r="B56">
-        <v>33754</v>
+        <v>33850</v>
       </c>
       <c r="C56">
         <v>418</v>
@@ -1013,7 +1013,7 @@
         <v>43934</v>
       </c>
       <c r="B57">
-        <v>34218</v>
+        <v>34314</v>
       </c>
       <c r="C57">
         <v>464</v>
@@ -1024,10 +1024,10 @@
         <v>43935</v>
       </c>
       <c r="B58">
-        <v>34969</v>
+        <v>35066</v>
       </c>
       <c r="C58">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1035,10 +1035,10 @@
         <v>43936</v>
       </c>
       <c r="B59">
-        <v>35930</v>
+        <v>36030</v>
       </c>
       <c r="C59">
-        <v>961</v>
+        <v>964</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1046,10 +1046,10 @@
         <v>43937</v>
       </c>
       <c r="B60">
-        <v>36790</v>
+        <v>36893</v>
       </c>
       <c r="C60">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1057,10 +1057,10 @@
         <v>43938</v>
       </c>
       <c r="B61">
-        <v>37565</v>
+        <v>37670</v>
       </c>
       <c r="C61">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1068,10 +1068,10 @@
         <v>43939</v>
       </c>
       <c r="B62">
-        <v>38082</v>
+        <v>38190</v>
       </c>
       <c r="C62">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1079,10 +1079,10 @@
         <v>43940</v>
       </c>
       <c r="B63">
-        <v>38466</v>
+        <v>38575</v>
       </c>
       <c r="C63">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1090,10 +1090,10 @@
         <v>43941</v>
       </c>
       <c r="B64">
-        <v>38835</v>
+        <v>38949</v>
       </c>
       <c r="C64">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1101,10 +1101,10 @@
         <v>43942</v>
       </c>
       <c r="B65">
-        <v>39337</v>
+        <v>39450</v>
       </c>
       <c r="C65">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1112,10 +1112,10 @@
         <v>43943</v>
       </c>
       <c r="B66">
-        <v>39933</v>
+        <v>40045</v>
       </c>
       <c r="C66">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1123,10 +1123,10 @@
         <v>43944</v>
       </c>
       <c r="B67">
-        <v>40502</v>
+        <v>40616</v>
       </c>
       <c r="C67">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1134,10 +1134,10 @@
         <v>43945</v>
       </c>
       <c r="B68">
-        <v>41031</v>
+        <v>41143</v>
       </c>
       <c r="C68">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1145,10 +1145,10 @@
         <v>43946</v>
       </c>
       <c r="B69">
-        <v>41337</v>
+        <v>41453</v>
       </c>
       <c r="C69">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1156,10 +1156,10 @@
         <v>43947</v>
       </c>
       <c r="B70">
-        <v>41522</v>
+        <v>41640</v>
       </c>
       <c r="C70">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1167,10 +1167,10 @@
         <v>43948</v>
       </c>
       <c r="B71">
-        <v>41862</v>
+        <v>41979</v>
       </c>
       <c r="C71">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1178,10 +1178,10 @@
         <v>43949</v>
       </c>
       <c r="B72">
-        <v>42223</v>
+        <v>42341</v>
       </c>
       <c r="C72">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1189,10 +1189,10 @@
         <v>43950</v>
       </c>
       <c r="B73">
-        <v>42522</v>
+        <v>42646</v>
       </c>
       <c r="C73">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>43951</v>
       </c>
       <c r="B74">
-        <v>42812</v>
+        <v>42936</v>
       </c>
       <c r="C74">
         <v>290</v>
@@ -1211,7 +1211,7 @@
         <v>43952</v>
       </c>
       <c r="B75">
-        <v>43033</v>
+        <v>43157</v>
       </c>
       <c r="C75">
         <v>221</v>
@@ -1222,10 +1222,10 @@
         <v>43953</v>
       </c>
       <c r="B76">
-        <v>43169</v>
+        <v>43294</v>
       </c>
       <c r="C76">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1233,10 +1233,10 @@
         <v>43954</v>
       </c>
       <c r="B77">
-        <v>43259</v>
+        <v>43385</v>
       </c>
       <c r="C77">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1244,10 +1244,10 @@
         <v>43955</v>
       </c>
       <c r="B78">
-        <v>43424</v>
+        <v>43549</v>
       </c>
       <c r="C78">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1255,10 +1255,10 @@
         <v>43956</v>
       </c>
       <c r="B79">
-        <v>43637</v>
+        <v>43761</v>
       </c>
       <c r="C79">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1266,10 +1266,10 @@
         <v>43957</v>
       </c>
       <c r="B80">
-        <v>43903</v>
+        <v>44028</v>
       </c>
       <c r="C80">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1277,7 +1277,7 @@
         <v>43958</v>
       </c>
       <c r="B81">
-        <v>44137</v>
+        <v>44262</v>
       </c>
       <c r="C81">
         <v>234</v>
@@ -1288,7 +1288,7 @@
         <v>43959</v>
       </c>
       <c r="B82">
-        <v>44347</v>
+        <v>44472</v>
       </c>
       <c r="C82">
         <v>210</v>
@@ -1299,7 +1299,7 @@
         <v>43960</v>
       </c>
       <c r="B83">
-        <v>44470</v>
+        <v>44595</v>
       </c>
       <c r="C83">
         <v>123</v>
@@ -1310,7 +1310,7 @@
         <v>43961</v>
       </c>
       <c r="B84">
-        <v>44548</v>
+        <v>44673</v>
       </c>
       <c r="C84">
         <v>78</v>
@@ -1321,7 +1321,7 @@
         <v>43962</v>
       </c>
       <c r="B85">
-        <v>44736</v>
+        <v>44861</v>
       </c>
       <c r="C85">
         <v>188</v>
@@ -1332,7 +1332,7 @@
         <v>43963</v>
       </c>
       <c r="B86">
-        <v>44948</v>
+        <v>45073</v>
       </c>
       <c r="C86">
         <v>212</v>
@@ -1343,7 +1343,7 @@
         <v>43964</v>
       </c>
       <c r="B87">
-        <v>45136</v>
+        <v>45261</v>
       </c>
       <c r="C87">
         <v>188</v>
@@ -1354,7 +1354,7 @@
         <v>43965</v>
       </c>
       <c r="B88">
-        <v>45344</v>
+        <v>45469</v>
       </c>
       <c r="C88">
         <v>208</v>
@@ -1365,7 +1365,7 @@
         <v>43966</v>
       </c>
       <c r="B89">
-        <v>45478</v>
+        <v>45603</v>
       </c>
       <c r="C89">
         <v>134</v>
@@ -1376,7 +1376,7 @@
         <v>43967</v>
       </c>
       <c r="B90">
-        <v>45579</v>
+        <v>45704</v>
       </c>
       <c r="C90">
         <v>101</v>
@@ -1387,10 +1387,10 @@
         <v>43968</v>
       </c>
       <c r="B91">
-        <v>45636</v>
+        <v>45762</v>
       </c>
       <c r="C91">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1398,7 +1398,7 @@
         <v>43969</v>
       </c>
       <c r="B92">
-        <v>45723</v>
+        <v>45849</v>
       </c>
       <c r="C92">
         <v>87</v>
@@ -1409,10 +1409,10 @@
         <v>43970</v>
       </c>
       <c r="B93">
-        <v>45831</v>
+        <v>45956</v>
       </c>
       <c r="C93">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1420,10 +1420,10 @@
         <v>43971</v>
       </c>
       <c r="B94">
-        <v>46024</v>
+        <v>46148</v>
       </c>
       <c r="C94">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>43972</v>
       </c>
       <c r="B95">
-        <v>46117</v>
+        <v>46241</v>
       </c>
       <c r="C95">
         <v>93</v>
@@ -1442,7 +1442,7 @@
         <v>43973</v>
       </c>
       <c r="B96">
-        <v>46234</v>
+        <v>46358</v>
       </c>
       <c r="C96">
         <v>117</v>
@@ -1453,7 +1453,7 @@
         <v>43974</v>
       </c>
       <c r="B97">
-        <v>46313</v>
+        <v>46437</v>
       </c>
       <c r="C97">
         <v>79</v>
@@ -1464,10 +1464,10 @@
         <v>43975</v>
       </c>
       <c r="B98">
-        <v>46406</v>
+        <v>46531</v>
       </c>
       <c r="C98">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1475,7 +1475,7 @@
         <v>43976</v>
       </c>
       <c r="B99">
-        <v>46494</v>
+        <v>46619</v>
       </c>
       <c r="C99">
         <v>88</v>
@@ -1486,10 +1486,10 @@
         <v>43977</v>
       </c>
       <c r="B100">
-        <v>46627</v>
+        <v>46753</v>
       </c>
       <c r="C100">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1497,7 +1497,7 @@
         <v>43978</v>
       </c>
       <c r="B101">
-        <v>46743</v>
+        <v>46869</v>
       </c>
       <c r="C101">
         <v>116</v>
@@ -1508,10 +1508,10 @@
         <v>43979</v>
       </c>
       <c r="B102">
-        <v>46831</v>
+        <v>46956</v>
       </c>
       <c r="C102">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1519,10 +1519,10 @@
         <v>43980</v>
       </c>
       <c r="B103">
-        <v>46911</v>
+        <v>47034</v>
       </c>
       <c r="C103">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1530,10 +1530,10 @@
         <v>43981</v>
       </c>
       <c r="B104">
-        <v>46995</v>
+        <v>47117</v>
       </c>
       <c r="C104">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1541,10 +1541,10 @@
         <v>43982</v>
       </c>
       <c r="B105">
-        <v>47034</v>
+        <v>47154</v>
       </c>
       <c r="C105">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>43983</v>
       </c>
       <c r="B106">
-        <v>47054</v>
+        <v>47174</v>
       </c>
       <c r="C106">
         <v>20</v>
@@ -1563,7 +1563,7 @@
         <v>43984</v>
       </c>
       <c r="B107">
-        <v>47091</v>
+        <v>47211</v>
       </c>
       <c r="C107">
         <v>37</v>
@@ -1574,10 +1574,10 @@
         <v>43985</v>
       </c>
       <c r="B108">
-        <v>47146</v>
+        <v>47264</v>
       </c>
       <c r="C108">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>43986</v>
       </c>
       <c r="B109">
-        <v>47230</v>
+        <v>47348</v>
       </c>
       <c r="C109">
         <v>84</v>
@@ -1596,10 +1596,10 @@
         <v>43987</v>
       </c>
       <c r="B110">
-        <v>47288</v>
+        <v>47405</v>
       </c>
       <c r="C110">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>43988</v>
       </c>
       <c r="B111">
-        <v>47311</v>
+        <v>47428</v>
       </c>
       <c r="C111">
         <v>23</v>
@@ -1618,10 +1618,10 @@
         <v>43989</v>
       </c>
       <c r="B112">
-        <v>47347</v>
+        <v>47467</v>
       </c>
       <c r="C112">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1629,10 +1629,10 @@
         <v>43990</v>
       </c>
       <c r="B113">
-        <v>47385</v>
+        <v>47508</v>
       </c>
       <c r="C113">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1640,10 +1640,10 @@
         <v>43991</v>
       </c>
       <c r="B114">
-        <v>47429</v>
+        <v>47553</v>
       </c>
       <c r="C114">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1651,10 +1651,10 @@
         <v>43992</v>
       </c>
       <c r="B115">
-        <v>47502</v>
+        <v>47628</v>
       </c>
       <c r="C115">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1662,10 +1662,10 @@
         <v>43993</v>
       </c>
       <c r="B116">
-        <v>47536</v>
+        <v>47663</v>
       </c>
       <c r="C116">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>43994</v>
       </c>
       <c r="B117">
-        <v>47568</v>
+        <v>47695</v>
       </c>
       <c r="C117">
         <v>32</v>
@@ -1684,7 +1684,7 @@
         <v>43995</v>
       </c>
       <c r="B118">
-        <v>47590</v>
+        <v>47717</v>
       </c>
       <c r="C118">
         <v>22</v>
@@ -1695,10 +1695,10 @@
         <v>43996</v>
       </c>
       <c r="B119">
-        <v>47607</v>
+        <v>47735</v>
       </c>
       <c r="C119">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1706,10 +1706,10 @@
         <v>43997</v>
       </c>
       <c r="B120">
-        <v>47637</v>
+        <v>47770</v>
       </c>
       <c r="C120">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1717,10 +1717,10 @@
         <v>43998</v>
       </c>
       <c r="B121">
-        <v>47678</v>
+        <v>47813</v>
       </c>
       <c r="C121">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>43999</v>
       </c>
       <c r="B122">
-        <v>47721</v>
+        <v>47856</v>
       </c>
       <c r="C122">
         <v>43</v>
@@ -1739,10 +1739,10 @@
         <v>44000</v>
       </c>
       <c r="B123">
-        <v>47766</v>
+        <v>47902</v>
       </c>
       <c r="C123">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1750,10 +1750,10 @@
         <v>44001</v>
       </c>
       <c r="B124">
-        <v>47797</v>
+        <v>47942</v>
       </c>
       <c r="C124">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>44002</v>
       </c>
       <c r="B125">
-        <v>47830</v>
+        <v>47975</v>
       </c>
       <c r="C125">
         <v>33</v>
@@ -1772,10 +1772,10 @@
         <v>44003</v>
       </c>
       <c r="B126">
-        <v>47856</v>
+        <v>48003</v>
       </c>
       <c r="C126">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1783,10 +1783,10 @@
         <v>44004</v>
       </c>
       <c r="B127">
-        <v>47893</v>
+        <v>48044</v>
       </c>
       <c r="C127">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1794,10 +1794,428 @@
         <v>44005</v>
       </c>
       <c r="B128">
-        <v>47896</v>
+        <v>48090</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>44006</v>
+      </c>
+      <c r="B129">
+        <v>48146</v>
+      </c>
+      <c r="C129">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>44007</v>
+      </c>
+      <c r="B130">
+        <v>48205</v>
+      </c>
+      <c r="C130">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>44008</v>
+      </c>
+      <c r="B131">
+        <v>48291</v>
+      </c>
+      <c r="C131">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B132">
+        <v>48334</v>
+      </c>
+      <c r="C132">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>44010</v>
+      </c>
+      <c r="B133">
+        <v>48366</v>
+      </c>
+      <c r="C133">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>44011</v>
+      </c>
+      <c r="B134">
+        <v>48428</v>
+      </c>
+      <c r="C134">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B135">
+        <v>48511</v>
+      </c>
+      <c r="C135">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B136">
+        <v>48574</v>
+      </c>
+      <c r="C136">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>44014</v>
+      </c>
+      <c r="B137">
+        <v>48643</v>
+      </c>
+      <c r="C137">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>44015</v>
+      </c>
+      <c r="B138">
+        <v>48726</v>
+      </c>
+      <c r="C138">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>44016</v>
+      </c>
+      <c r="B139">
+        <v>48796</v>
+      </c>
+      <c r="C139">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>44017</v>
+      </c>
+      <c r="B140">
+        <v>48824</v>
+      </c>
+      <c r="C140">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>44018</v>
+      </c>
+      <c r="B141">
+        <v>48906</v>
+      </c>
+      <c r="C141">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B142">
+        <v>48996</v>
+      </c>
+      <c r="C142">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>44020</v>
+      </c>
+      <c r="B143">
+        <v>49066</v>
+      </c>
+      <c r="C143">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>44021</v>
+      </c>
+      <c r="B144">
+        <v>49155</v>
+      </c>
+      <c r="C144">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>44022</v>
+      </c>
+      <c r="B145">
+        <v>49245</v>
+      </c>
+      <c r="C145">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>44023</v>
+      </c>
+      <c r="B146">
+        <v>49305</v>
+      </c>
+      <c r="C146">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>44024</v>
+      </c>
+      <c r="B147">
+        <v>49323</v>
+      </c>
+      <c r="C147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B148">
+        <v>49383</v>
+      </c>
+      <c r="C148">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B149">
+        <v>49469</v>
+      </c>
+      <c r="C149">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>44027</v>
+      </c>
+      <c r="B150">
+        <v>49575</v>
+      </c>
+      <c r="C150">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>44028</v>
+      </c>
+      <c r="B151">
+        <v>49672</v>
+      </c>
+      <c r="C151">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>44029</v>
+      </c>
+      <c r="B152">
+        <v>49752</v>
+      </c>
+      <c r="C152">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>44030</v>
+      </c>
+      <c r="B153">
+        <v>49802</v>
+      </c>
+      <c r="C153">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>44031</v>
+      </c>
+      <c r="B154">
+        <v>49846</v>
+      </c>
+      <c r="C154">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>44032</v>
+      </c>
+      <c r="B155">
+        <v>49920</v>
+      </c>
+      <c r="C155">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B156">
+        <v>50005</v>
+      </c>
+      <c r="C156">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>44034</v>
+      </c>
+      <c r="B157">
+        <v>50084</v>
+      </c>
+      <c r="C157">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>44035</v>
+      </c>
+      <c r="B158">
+        <v>50186</v>
+      </c>
+      <c r="C158">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>44036</v>
+      </c>
+      <c r="B159">
+        <v>50318</v>
+      </c>
+      <c r="C159">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>44037</v>
+      </c>
+      <c r="B160">
+        <v>50471</v>
+      </c>
+      <c r="C160">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>44038</v>
+      </c>
+      <c r="B161">
+        <v>50556</v>
+      </c>
+      <c r="C161">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>44039</v>
+      </c>
+      <c r="B162">
+        <v>50632</v>
+      </c>
+      <c r="C162">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B163">
+        <v>50732</v>
+      </c>
+      <c r="C163">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>44041</v>
+      </c>
+      <c r="B164">
+        <v>50845</v>
+      </c>
+      <c r="C164">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>44042</v>
+      </c>
+      <c r="B165">
+        <v>50944</v>
+      </c>
+      <c r="C165">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B166">
+        <v>51063</v>
+      </c>
+      <c r="C166">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
